--- a/Analyze/planilha-tempo-de-execucao.xlsx
+++ b/Analyze/planilha-tempo-de-execucao.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRUNO\Documents\Ciência da Computação - UNESP\2º Ano\2º Semestre\Projeto e Análise de Algoritmos\Trabalhos\1º Bimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Trabalho\Mestrado - Ciência da Computação - Unesp\Disciplinas\Analise e Projeto de Algoritmos\Trabalhos\TP1\Sorting-Algorithms-Analysis-Complexity\Analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="987" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="987" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="14">
   <si>
     <t>Bubble Sort Melhorado</t>
   </si>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -443,6 +443,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2E8-4CB9-B54B-26EC59901F95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -523,6 +528,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2E8-4CB9-B54B-26EC59901F95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -603,6 +613,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C2E8-4CB9-B54B-26EC59901F95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -813,7 +828,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1023,6 +1038,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E851-4F35-8FF1-2981CF69D2C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1103,6 +1123,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E851-4F35-8FF1-2981CF69D2C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1183,6 +1208,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E851-4F35-8FF1-2981CF69D2C2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1393,7 +1423,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1599,6 +1629,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C76E-4CAF-B216-324CB268E81B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1679,6 +1714,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C76E-4CAF-B216-324CB268E81B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1759,6 +1799,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C76E-4CAF-B216-324CB268E81B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1969,7 +2014,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2175,6 +2220,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2B9-4CB1-A1BA-C926A60886EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2255,6 +2305,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2B9-4CB1-A1BA-C926A60886EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2335,6 +2390,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2B9-4CB1-A1BA-C926A60886EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2545,7 +2605,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2741,6 +2801,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A828-4F6B-B0D4-E7AC2D811444}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2821,6 +2886,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A828-4F6B-B0D4-E7AC2D811444}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2901,6 +2971,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A828-4F6B-B0D4-E7AC2D811444}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3111,7 +3186,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3316,6 +3391,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7478-4C05-BAFE-C223F2F963A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3396,6 +3476,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7478-4C05-BAFE-C223F2F963A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3476,6 +3561,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7478-4C05-BAFE-C223F2F963A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3686,7 +3776,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3892,6 +3982,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3A4-4604-ADBF-5E27648C2CBF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3972,6 +4067,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3A4-4604-ADBF-5E27648C2CBF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4052,6 +4152,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3A4-4604-ADBF-5E27648C2CBF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4262,7 +4367,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4458,6 +4563,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E6E-42C9-A42A-B4D64B319982}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4538,6 +4648,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E6E-42C9-A42A-B4D64B319982}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4618,6 +4733,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E6E-42C9-A42A-B4D64B319982}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4828,7 +4948,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4872,7 +4992,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5025,6 +5144,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4675-454D-A1EF-8DC93B9ED081}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5105,6 +5229,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4675-454D-A1EF-8DC93B9ED081}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5185,6 +5314,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4675-454D-A1EF-8DC93B9ED081}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5328,7 +5462,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10403,20 +10536,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>729615</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10438,20 +10577,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>170497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10473,20 +10618,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>671512</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>747712</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>221932</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10508,20 +10659,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>814387</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>75247</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141922</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>164782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10543,20 +10700,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>814387</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227647</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>296227</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10578,20 +10741,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>909637</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140017</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>202882</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10613,20 +10782,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>852487</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>341947</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>410527</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>170497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10648,20 +10823,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>315277</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>46672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115252</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10683,20 +10864,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>105727</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>448627</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10983,23 +11170,23 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="6" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -11022,7 +11209,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
@@ -11054,7 +11241,7 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -11086,7 +11273,7 @@
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -11118,7 +11305,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -11150,7 +11337,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
@@ -11182,7 +11369,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -11214,7 +11401,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
@@ -11246,7 +11433,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
@@ -11278,7 +11465,7 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
@@ -11310,7 +11497,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -11323,7 +11510,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
@@ -11355,7 +11542,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
@@ -11387,7 +11574,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>0</v>
       </c>
@@ -11419,7 +11606,7 @@
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
@@ -11442,7 +11629,7 @@
         <v>3293236.44432698</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -11465,7 +11652,7 @@
         <v>148.39878911</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>7</v>
       </c>
@@ -11488,7 +11675,7 @@
         <v>13.24639247</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
@@ -11511,7 +11698,7 @@
         <v>124.85733492</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>9</v>
       </c>
@@ -11534,7 +11721,7 @@
         <v>3363985.4728497299</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
@@ -11557,7 +11744,7 @@
         <v>695.48820413999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
@@ -11580,7 +11767,7 @@
         <v>513.81257995999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>1</v>
       </c>
@@ -11603,7 +11790,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>12</v>
       </c>
@@ -11626,7 +11813,7 @@
         <v>9144960.6452824008</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>0</v>
       </c>
@@ -11649,7 +11836,7 @@
         <v>9101019.7783484701</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>5</v>
       </c>
@@ -11672,7 +11859,7 @@
         <v>3371497.8817156102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
@@ -11695,7 +11882,7 @@
         <v>150.62954389000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>7</v>
       </c>
@@ -11718,7 +11905,7 @@
         <v>4198039.2449835101</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>8</v>
       </c>
@@ -11741,7 +11928,7 @@
         <v>187.48110392000001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>9</v>
       </c>
@@ -11764,7 +11951,7 @@
         <v>3142924.2527846401</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>10</v>
       </c>
@@ -11787,7 +11974,7 @@
         <v>567.58504284000003</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>11</v>
       </c>
@@ -11810,7 +11997,7 @@
         <v>425.68226068000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>13</v>
       </c>
@@ -11832,20 +12019,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -11859,7 +12046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>10</v>
       </c>
@@ -11873,7 +12060,7 @@
         <v>2.13817E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>100</v>
       </c>
@@ -11887,7 +12074,7 @@
         <v>2.13817E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1000</v>
       </c>
@@ -11901,7 +12088,7 @@
         <v>0.25871959</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>10000</v>
       </c>
@@ -11915,7 +12102,7 @@
         <v>3.0708519600000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>100000</v>
       </c>
@@ -11929,7 +12116,7 @@
         <v>36.31696187</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1000000</v>
       </c>
@@ -11942,6 +12129,68 @@
       <c r="D7" s="10">
         <v>425.68226068000001</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -11952,22 +12201,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="1025" width="11.28515625"/>
+    <col min="1" max="1" width="21.88671875"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -11981,7 +12230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>10</v>
       </c>
@@ -11995,7 +12244,7 @@
         <v>1.71053E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>100</v>
       </c>
@@ -12009,7 +12258,7 @@
         <v>9.0230740000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1000</v>
       </c>
@@ -12023,7 +12272,7 @@
         <v>9.0863645000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>10000</v>
       </c>
@@ -12037,7 +12286,7 @@
         <v>912.39535264000006</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>100000</v>
       </c>
@@ -12051,7 +12300,7 @@
         <v>88249.403789000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1000000</v>
       </c>
@@ -12064,6 +12313,68 @@
       <c r="D7" s="13">
         <v>9144960.6452824008</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -12078,22 +12389,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="1025" width="11.28515625"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -12107,7 +12418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>10</v>
       </c>
@@ -12121,7 +12432,7 @@
         <v>1.71054E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>100</v>
       </c>
@@ -12135,7 +12446,7 @@
         <v>9.4079850000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1000</v>
       </c>
@@ -12149,7 +12460,7 @@
         <v>9.2942343100000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>10000</v>
       </c>
@@ -12163,7 +12474,7 @@
         <v>921.18033258000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>100000</v>
       </c>
@@ -12177,7 +12488,7 @@
         <v>95060.103770069996</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1000000</v>
       </c>
@@ -12190,6 +12501,68 @@
       <c r="D7" s="10">
         <v>9101019.7783484701</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -12204,21 +12577,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="1025" width="11.28515625"/>
+    <col min="1" max="1" width="23.88671875"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -12232,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>10</v>
       </c>
@@ -12246,7 +12619,7 @@
         <v>2.1381600000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>100</v>
       </c>
@@ -12260,7 +12633,7 @@
         <v>4.2763379999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1000</v>
       </c>
@@ -12274,7 +12647,7 @@
         <v>3.5001832400000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>10000</v>
       </c>
@@ -12288,7 +12661,7 @@
         <v>338.29645292999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>100000</v>
       </c>
@@ -12302,7 +12675,7 @@
         <v>33710.402920909997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1000000</v>
       </c>
@@ -12315,6 +12688,68 @@
       <c r="D7" s="10">
         <v>3371497.8817156102</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -12329,22 +12764,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="1025" width="11.28515625"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -12358,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>10</v>
       </c>
@@ -12372,7 +12807,7 @@
         <v>1.71054E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>100</v>
       </c>
@@ -12386,7 +12821,7 @@
         <v>1.069089E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1000</v>
       </c>
@@ -12400,7 +12835,7 @@
         <v>8.9375860000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>10000</v>
       </c>
@@ -12414,7 +12849,7 @@
         <v>1.15589929</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>100000</v>
       </c>
@@ -12428,7 +12863,7 @@
         <v>14.63027258</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1000000</v>
       </c>
@@ -12441,6 +12876,68 @@
       <c r="D7" s="10">
         <v>150.62954389000001</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -12455,22 +12952,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="1025" width="11.28515625"/>
+    <col min="1" max="1" width="22.88671875"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -12484,7 +12981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>10</v>
       </c>
@@ -12498,7 +12995,7 @@
         <v>1.2829E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>100</v>
       </c>
@@ -12512,7 +13009,7 @@
         <v>3.8487210000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1000</v>
       </c>
@@ -12526,7 +13023,7 @@
         <v>3.5643435600000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>10000</v>
       </c>
@@ -12540,7 +13037,7 @@
         <v>377.07120006000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>100000</v>
       </c>
@@ -12554,7 +13051,7 @@
         <v>38632.696426969997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1000000</v>
       </c>
@@ -12567,6 +13064,68 @@
       <c r="D7" s="10">
         <v>4198039.2449835101</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -12581,20 +13140,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="1025" width="11.28515625"/>
+    <col min="2" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -12608,7 +13167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>10</v>
       </c>
@@ -12622,7 +13181,7 @@
         <v>1.2829E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>100</v>
       </c>
@@ -12636,7 +13195,7 @@
         <v>9.4079400000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1000</v>
       </c>
@@ -12650,7 +13209,7 @@
         <v>0.10904663000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>10000</v>
       </c>
@@ -12664,7 +13223,7 @@
         <v>1.3722770900000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>100000</v>
       </c>
@@ -12678,7 +13237,7 @@
         <v>16.41515338</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1000000</v>
       </c>
@@ -12691,6 +13250,68 @@
       <c r="D7" s="7">
         <v>187.48110392000001</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -12705,20 +13326,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="1025" width="11.28515625"/>
+    <col min="1" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -12732,7 +13353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>10</v>
       </c>
@@ -12746,7 +13367,7 @@
         <v>1.71053E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>100</v>
       </c>
@@ -12760,7 +13381,7 @@
         <v>3.6348869999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1000</v>
       </c>
@@ -12774,7 +13395,7 @@
         <v>3.2162343500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>10000</v>
       </c>
@@ -12788,7 +13409,7 @@
         <v>321.84409400999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>100000</v>
       </c>
@@ -12802,7 +13423,7 @@
         <v>33223.17525</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1000000</v>
       </c>
@@ -12815,6 +13436,68 @@
       <c r="D7" s="22">
         <v>3142924.2527846401</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -12829,20 +13512,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -12856,7 +13539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>10</v>
       </c>
@@ -12870,7 +13553,7 @@
         <v>1.197379E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>100</v>
       </c>
@@ -12884,7 +13567,7 @@
         <v>5.815845E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1000</v>
       </c>
@@ -12898,7 +13581,7 @@
         <v>0.74194793999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>10000</v>
       </c>
@@ -12912,7 +13595,7 @@
         <v>6.9024678399999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>100000</v>
       </c>
@@ -12926,7 +13609,7 @@
         <v>59.47728377</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1000000</v>
       </c>
@@ -12939,6 +13622,68 @@
       <c r="D7" s="10">
         <v>567.58504284000003</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Analyze/planilha-tempo-de-execucao.xlsx
+++ b/Analyze/planilha-tempo-de-execucao.xlsx
@@ -73,12 +73,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0000000"/>
-    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000000"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00000000"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -86,14 +86,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -105,6 +97,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -118,8 +118,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -141,52 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -195,8 +180,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,7 +204,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,11 +225,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,7 +302,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,121 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,37 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +488,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,30 +533,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -587,22 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,133 +576,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,16 +711,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -775,14 +739,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,14 +754,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -10840,7 +10804,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>170497</xdr:rowOff>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10901,16 +10865,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>75247</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>88582</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>141922</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>164782</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>141605</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10918,7 +10882,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8743315" y="427355"/>
+        <a:off x="4887595" y="3308985"/>
         <a:ext cx="5850255" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
@@ -11015,7 +10979,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>410527</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>170497</xdr:rowOff>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -11368,8 +11332,8 @@
   <sheetPr/>
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D44" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35"/>
@@ -12266,73 +12230,157 @@
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="B38" s="16">
+        <v>0.0003646722</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0.0244330261</v>
+      </c>
+      <c r="D38" s="16">
+        <v>2.0326819075</v>
+      </c>
+      <c r="E38" s="16">
+        <v>271.69306284</v>
+      </c>
+      <c r="F38" s="23">
+        <v>29745.6117191</v>
+      </c>
+      <c r="G38" s="16">
+        <v>739743.55642752</v>
+      </c>
+      <c r="H38" s="16">
+        <v>298860.776139345</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="B39" s="16">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0.006928768</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0.08715661</v>
+      </c>
+      <c r="E39" s="16">
+        <v>1.101309537</v>
+      </c>
+      <c r="F39" s="23">
+        <v>13.8852522983</v>
+      </c>
+      <c r="G39" s="16">
+        <v>72.33087422826</v>
+      </c>
+      <c r="H39" s="16">
+        <v>154.0616471</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="B40" s="16">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0.0083874567</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0.1068489054</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1.26541195</v>
+      </c>
+      <c r="F40" s="23">
+        <v>16.926617046</v>
+      </c>
+      <c r="G40" s="16">
+        <v>76.8192576006</v>
+      </c>
+      <c r="H40" s="16">
+        <v>158.270694788249</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="B41" s="16">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0.00072934459</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0.61811909459</v>
+      </c>
+      <c r="E41" s="16">
+        <v>58.7771088071</v>
+      </c>
+      <c r="F41" s="16">
+        <v>5917.273055477</v>
+      </c>
+      <c r="G41" s="24">
+        <v>139065.63039</v>
+      </c>
+      <c r="H41" s="24">
+        <v>558118.936776</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="B42" s="16">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0.0069287686</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0.111224969</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1.789445662043</v>
+      </c>
+      <c r="F42" s="16">
+        <v>43.34564709228</v>
+      </c>
+      <c r="G42" s="16">
+        <v>923.6486166166</v>
+      </c>
+      <c r="H42" s="16">
+        <v>3940.740794766</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="B43" s="16">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0.014222209</v>
+      </c>
+      <c r="D43" s="16">
+        <v>1.012694233</v>
+      </c>
+      <c r="E43" s="16">
+        <v>96.020334112515</v>
+      </c>
+      <c r="F43" s="16">
+        <v>9003.37941572246</v>
+      </c>
+      <c r="G43" s="24">
+        <v>224160.39771131</v>
+      </c>
+      <c r="H43" s="24">
+        <v>903981.375821059</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -12402,82 +12450,174 @@
       <c r="D48" s="8">
         <v>1.07031319515656</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="E48" s="5">
+        <v>99.283491868537</v>
+      </c>
+      <c r="F48" s="5">
+        <v>9664.62109818</v>
+      </c>
+      <c r="G48" s="8">
+        <v>245270.455365966</v>
+      </c>
+      <c r="H48" s="8">
+        <v>967866.559841994</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="B49" s="5">
+        <v>0.00036467229817941</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.00036467</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.002188033</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0.0207863</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.20749853766</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1.01707029</v>
+      </c>
+      <c r="H49" s="8">
+        <v>2.146461147</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="B50" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.00765811</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.7917035593</v>
+      </c>
+      <c r="E50" s="5">
+        <v>59.3376652998</v>
+      </c>
+      <c r="F50" s="5">
+        <v>11124.6650484941</v>
+      </c>
+      <c r="G50" s="8">
+        <v>140101.38903577</v>
+      </c>
+      <c r="H50" s="8">
+        <v>1193754.9044777</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="B51" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.0040113952</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.0266210777</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.3650369704</v>
+      </c>
+      <c r="F51" s="8">
+        <v>4.1280904153</v>
+      </c>
+      <c r="G51" s="8">
+        <v>24.222610395</v>
+      </c>
+      <c r="H51" s="8">
+        <v>44.254806745562</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="B52" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.002917378385</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.031361817</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.3066894</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1.527611142</v>
+      </c>
+      <c r="H52" s="8">
+        <v>3.35206776486</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="B53" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.0021880321</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.0506894124</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.27459804025</v>
+      </c>
+      <c r="F53" s="8">
+        <v>2.812715384419</v>
+      </c>
+      <c r="G53" s="5">
+        <v>14.8370463024</v>
+      </c>
+      <c r="H53" s="5">
+        <v>30.0471520937644</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="B54" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.01094016894</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0.995920046</v>
+      </c>
+      <c r="E54" s="5">
+        <v>93.853886</v>
+      </c>
+      <c r="F54" s="5">
+        <v>9437.8098802853</v>
+      </c>
+      <c r="G54" s="5">
+        <v>226727.231519333</v>
+      </c>
+      <c r="H54" s="5">
+        <v>949199.76092084</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
@@ -12533,85 +12673,183 @@
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="B59" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.027350422</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2.47904228302</v>
+      </c>
+      <c r="E59" s="8">
+        <v>249.61381203622</v>
+      </c>
+      <c r="F59" s="8">
+        <v>25154.97916262</v>
+      </c>
+      <c r="G59" s="8">
+        <v>597291.35909619</v>
+      </c>
+      <c r="H59" s="8">
+        <v>2347234.46204271</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
+      <c r="B60" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.0361025575</v>
+      </c>
+      <c r="D60" s="8">
+        <v>3.16243816</v>
+      </c>
+      <c r="E60" s="5">
+        <v>243.53071343</v>
+      </c>
+      <c r="F60" s="5">
+        <v>23950.1095475583</v>
+      </c>
+      <c r="G60" s="8">
+        <v>612276.407178204</v>
+      </c>
+      <c r="H60" s="8">
+        <v>2402872.13422274</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
+      <c r="B61" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0.0145868919</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1.22931031</v>
+      </c>
+      <c r="E61" s="5">
+        <v>118.001391589</v>
+      </c>
+      <c r="F61" s="5">
+        <v>11270.58101049</v>
+      </c>
+      <c r="G61" s="8">
+        <v>180329.1850674</v>
+      </c>
+      <c r="H61" s="8">
+        <v>1125942.85658021</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="B62" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.00437606</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0.02880911155</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0.34935606</v>
+      </c>
+      <c r="F62" s="8">
+        <v>4.2743240069</v>
+      </c>
+      <c r="G62" s="5">
+        <v>23.9582231</v>
+      </c>
+      <c r="H62" s="5">
+        <v>46.170795</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="B63" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.0131282027</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1.1811735738</v>
+      </c>
+      <c r="E63" s="5">
+        <v>115.4023721</v>
+      </c>
+      <c r="F63" s="5">
+        <v>11766.56925054</v>
+      </c>
+      <c r="G63" s="5">
+        <v>279936.685641768</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1180015.54233334</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="B64" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0.04011392354</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.9649221972219</v>
+      </c>
+      <c r="F64" s="8">
+        <v>59.8321049963</v>
+      </c>
+      <c r="G64" s="8">
+        <v>2012.665789022</v>
+      </c>
+      <c r="H64" s="8">
+        <v>8268.4390943</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
+      <c r="B65" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.012398858138</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1.0480681849</v>
+      </c>
+      <c r="E65" s="5">
+        <v>96.008734630885</v>
+      </c>
+      <c r="F65" s="22">
+        <v>11075.3613537802</v>
+      </c>
+      <c r="G65" s="21">
+        <v>240086.623829858</v>
+      </c>
+      <c r="H65" s="21">
+        <v>1004123.06668981</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
@@ -12641,7 +12879,7 @@
   <mergeCells count="1">
     <mergeCell ref="A34:G34"/>
   </mergeCells>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -12824,7 +13062,7 @@
       <c r="D16" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -14326,7 +14564,7 @@
       <c r="D16" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/Analyze/planilha-tempo-de-execucao.xlsx
+++ b/Analyze/planilha-tempo-de-execucao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10766" windowHeight="9259" tabRatio="987"/>
+    <workbookView windowWidth="22202" windowHeight="9728" tabRatio="978" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -745,22 +745,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -10778,7 +10778,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8418195" y="343535"/>
-        <a:ext cx="5855970" cy="2449830"/>
+        <a:ext cx="6390640" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10813,7 +10813,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8388985" y="440690"/>
-        <a:ext cx="7075170" cy="2441575"/>
+        <a:ext cx="7606030" cy="2441575"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10847,8 +10847,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9128125" y="758825"/>
-        <a:ext cx="5829300" cy="2449830"/>
+        <a:off x="9460865" y="758825"/>
+        <a:ext cx="6027420" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10865,16 +10865,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1021080</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>141605</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>343535</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10882,7 +10882,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4887595" y="3308985"/>
+        <a:off x="11127740" y="1581785"/>
         <a:ext cx="5850255" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
@@ -10917,8 +10917,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8886190" y="250190"/>
-        <a:ext cx="5852160" cy="2449830"/>
+        <a:off x="9218930" y="250190"/>
+        <a:ext cx="6805295" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10952,8 +10952,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8846185" y="522605"/>
-        <a:ext cx="5846445" cy="2449830"/>
+        <a:off x="8945245" y="522605"/>
+        <a:ext cx="6044565" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10987,8 +10987,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8990965" y="271145"/>
-        <a:ext cx="5852160" cy="2441575"/>
+        <a:off x="9228455" y="271145"/>
+        <a:ext cx="6709410" cy="2441575"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11332,8 +11332,8 @@
   <sheetPr/>
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35"/>
@@ -11368,7 +11368,7 @@
       <c r="E1" s="1">
         <v>10000</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="21">
         <v>100000</v>
       </c>
       <c r="G1" s="1">
@@ -11391,21 +11391,21 @@
       <c r="E2" s="5">
         <v>879.92810661</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="22">
         <v>99342.69081771</v>
       </c>
       <c r="G2" s="8">
         <v>10671006.8990172</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
@@ -11423,21 +11423,21 @@
       <c r="E3" s="5">
         <v>908.12799423</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="22">
         <v>102421.3497921</v>
       </c>
       <c r="G3" s="8">
         <v>10227994.7349717</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -11455,20 +11455,20 @@
       <c r="E4" s="8">
         <v>3.13926025</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="24">
         <v>38.47764052</v>
       </c>
       <c r="G4" s="5">
         <v>502.00196797</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="25"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="19"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="25"/>
     </row>
     <row r="5" spans="1:16">
@@ -11487,21 +11487,21 @@
       <c r="E5" s="8">
         <v>3.77386891</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="24">
         <v>42.59147836</v>
       </c>
       <c r="G5" s="5">
         <v>458.47610959</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
@@ -11522,18 +11522,18 @@
       <c r="F6" s="5">
         <v>18256.02525434</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="16">
         <v>2102130.7931026</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="19"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="25"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
@@ -11557,15 +11557,15 @@
       <c r="G7" s="5">
         <v>883.60746802</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="25"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
@@ -11586,18 +11586,18 @@
       <c r="F8" s="5">
         <v>32191.3011573</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="16">
         <v>3305599.08683063</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
@@ -11621,15 +11621,15 @@
       <c r="G9" s="5">
         <v>836.49889306</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="19"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
@@ -11653,28 +11653,28 @@
       <c r="G10" s="5">
         <v>677.83475286</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="6:16">
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="26"/>
       <c r="J11" s="25"/>
-      <c r="K11" s="19"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -11698,15 +11698,15 @@
       <c r="G12" s="1">
         <v>1000000</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
@@ -11730,15 +11730,15 @@
       <c r="G13" s="8">
         <v>3462956.62466874</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
@@ -11762,15 +11762,15 @@
       <c r="G14" s="8">
         <v>6.68306214</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
@@ -12110,10 +12110,10 @@
       <c r="E30" s="5">
         <v>321.84409401</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="14">
         <v>33223.17525</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="16">
         <v>3142924.25278464</v>
       </c>
     </row>
@@ -12164,15 +12164,15 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -12190,7 +12190,7 @@
       <c r="E36" s="1">
         <v>10000</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="21">
         <v>100000</v>
       </c>
       <c r="G36" s="1">
@@ -12204,25 +12204,25 @@
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="13">
         <v>0.00036467229817941</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="13">
         <v>0.0251623792223405</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="13">
         <v>2.02721182704334</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="13">
         <v>260.856104062811</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="19">
         <v>29710.6464461251</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="13">
         <v>746315.855575288</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="13">
         <v>3014609.04358125</v>
       </c>
     </row>
@@ -12230,25 +12230,25 @@
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="13">
         <v>0.0003646722</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="13">
         <v>0.0244330261</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="13">
         <v>2.0326819075</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="13">
         <v>271.69306284</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="19">
         <v>29745.6117191</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="13">
         <v>739743.55642752</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="13">
         <v>298860.776139345</v>
       </c>
     </row>
@@ -12256,25 +12256,25 @@
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="13">
         <v>0.00072934459</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="13">
         <v>0.006928768</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="13">
         <v>0.08715661</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="13">
         <v>1.101309537</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="19">
         <v>13.8852522983</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="13">
         <v>72.33087422826</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="13">
         <v>154.0616471</v>
       </c>
     </row>
@@ -12282,25 +12282,25 @@
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="13">
         <v>0.00036467229817</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="13">
         <v>0.0083874567</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="13">
         <v>0.1068489054</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="13">
         <v>1.26541195</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="19">
         <v>16.926617046</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="13">
         <v>76.8192576006</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="13">
         <v>158.270694788249</v>
       </c>
     </row>
@@ -12308,25 +12308,25 @@
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="13">
         <v>0.00072934459</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="13">
         <v>0.00072934459</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="13">
         <v>0.61811909459</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="13">
         <v>58.7771088071</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="13">
         <v>5917.273055477</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="15">
         <v>139065.63039</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="15">
         <v>558118.936776</v>
       </c>
     </row>
@@ -12334,25 +12334,25 @@
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="13">
         <v>0.00072934459</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="13">
         <v>0.0069287686</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="13">
         <v>0.111224969</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="13">
         <v>1.789445662043</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="13">
         <v>43.34564709228</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="13">
         <v>923.6486166166</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="13">
         <v>3940.740794766</v>
       </c>
     </row>
@@ -12360,25 +12360,25 @@
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="13">
         <v>0.00036467229817</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="13">
         <v>0.014222209</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="13">
         <v>1.012694233</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="13">
         <v>96.020334112515</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="13">
         <v>9003.37941572246</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="15">
         <v>224160.39771131</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="15">
         <v>903981.375821059</v>
       </c>
     </row>
@@ -12386,30 +12386,30 @@
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="6:8">
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -12841,13 +12841,13 @@
       <c r="E65" s="5">
         <v>96.008734630885</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="14">
         <v>11075.3613537802</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="16">
         <v>240086.623829858</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H65" s="16">
         <v>1004123.06668981</v>
       </c>
     </row>
@@ -12888,10 +12888,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
@@ -13055,11 +13055,19 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
@@ -13072,19 +13080,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.8880597014925"/>
     <col min="2" max="2" width="23.4402985074627" customWidth="1"/>
     <col min="3" max="3" width="23.3283582089552" customWidth="1"/>
     <col min="4" max="4" width="22.5522388059701" customWidth="1"/>
-    <col min="5" max="1025" width="11.3283582089552"/>
+    <col min="5" max="5" width="12.4925373134328"/>
+    <col min="6" max="6" width="14.1194029850746"/>
+    <col min="7" max="8" width="12.4925373134328"/>
+    <col min="9" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13167,7 +13178,7 @@
       <c r="C6" s="6">
         <v>35107.45241824</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>88249.403789</v>
       </c>
     </row>
@@ -13181,7 +13192,7 @@
       <c r="C7" s="6">
         <v>3462956.62466874</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>9144960.6452824</v>
       </c>
     </row>
@@ -13203,49 +13214,126 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="13">
+        <v>0.00036467229817941</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.00036467229817941</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.00072934459</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="13">
+        <v>0.0251623792223405</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.0113048412435617</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.027350422</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="13">
+        <v>2.02721182704334</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.07031319515656</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.47904228302</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="13">
+        <v>260.856104062811</v>
+      </c>
+      <c r="C14" s="5">
+        <v>99.283491868537</v>
+      </c>
+      <c r="D14" s="8">
+        <v>249.61381203622</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="19">
+        <v>29710.6464461251</v>
+      </c>
+      <c r="C15" s="5">
+        <v>9664.62109818</v>
+      </c>
+      <c r="D15" s="8">
+        <v>25154.97916262</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B16" s="13">
+        <v>746315.855575288</v>
+      </c>
+      <c r="C16" s="8">
+        <v>245270.455365966</v>
+      </c>
+      <c r="D16" s="8">
+        <v>597291.35909619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="14"/>
+      <c r="B17" s="13">
+        <v>3014609.04358125</v>
+      </c>
+      <c r="C17" s="8">
+        <v>967866.559841994</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2347234.46204271</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -13261,19 +13349,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.5522388059701" customWidth="1"/>
     <col min="2" max="2" width="22.3283582089552" customWidth="1"/>
     <col min="3" max="3" width="22.5522388059701" customWidth="1"/>
     <col min="4" max="4" width="22.1119402985075" customWidth="1"/>
-    <col min="5" max="1025" width="11.3283582089552"/>
+    <col min="5" max="5" width="15.2388059701493"/>
+    <col min="6" max="7" width="12.4925373134328"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13392,49 +13482,168 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="13">
+        <v>0.0003646722</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.00036467229817941</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.0003646722</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="13">
+        <v>0.0244330261</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.00036467</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.0361025575</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="13">
+        <v>2.0326819075</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.002188033</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3.16243816</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="13">
+        <v>271.69306284</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.0207863</v>
+      </c>
+      <c r="D14" s="5">
+        <v>243.53071343</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="19">
+        <v>29745.6117191</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.20749853766</v>
+      </c>
+      <c r="D15" s="5">
+        <v>23950.1095475583</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B16" s="13">
+        <v>739743.55642752</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.01707029</v>
+      </c>
+      <c r="D16" s="8">
+        <v>612276.407178204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="B17" s="13">
+        <v>298860.776139345</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.146461147</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2402872.13422274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13">
+        <v>0.0003646722</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.0244330261</v>
+      </c>
+      <c r="C22" s="13">
+        <v>2.0326819075</v>
+      </c>
+      <c r="D22" s="13">
+        <v>271.69306284</v>
+      </c>
+      <c r="E22" s="19">
+        <v>29745.6117191</v>
+      </c>
+      <c r="F22" s="13">
+        <v>739743.55642752</v>
+      </c>
+      <c r="G22" s="13">
+        <v>298860.776139345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
+        <v>0.00036467229817941</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.00036467</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.002188033</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.0207863</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.20749853766</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.01707029</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2.146461147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.0361025575</v>
+      </c>
+      <c r="C24" s="8">
+        <v>3.16243816</v>
+      </c>
+      <c r="D24" s="5">
+        <v>243.53071343</v>
+      </c>
+      <c r="E24" s="5">
+        <v>23950.1095475583</v>
+      </c>
+      <c r="F24" s="8">
+        <v>612276.407178204</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2402872.13422274</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -13450,18 +13659,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.8880597014925"/>
     <col min="2" max="2" width="25.1119402985075" customWidth="1"/>
     <col min="3" max="4" width="22.4402985074627" customWidth="1"/>
-    <col min="5" max="1025" width="11.3283582089552"/>
+    <col min="5" max="5" width="15.2388059701493"/>
+    <col min="6" max="7" width="12.4925373134328"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13580,49 +13791,168 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="13">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.00072934459</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="13">
+        <v>0.006928768</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.00765811</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.0145868919</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="13">
+        <v>0.08715661</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.7917035593</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.22931031</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="13">
+        <v>1.101309537</v>
+      </c>
+      <c r="C14" s="5">
+        <v>59.3376652998</v>
+      </c>
+      <c r="D14" s="5">
+        <v>118.001391589</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="19">
+        <v>13.8852522983</v>
+      </c>
+      <c r="C15" s="5">
+        <v>11124.6650484941</v>
+      </c>
+      <c r="D15" s="5">
+        <v>11270.58101049</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B16" s="13">
+        <v>72.33087422826</v>
+      </c>
+      <c r="C16" s="8">
+        <v>140101.38903577</v>
+      </c>
+      <c r="D16" s="8">
+        <v>180329.1850674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
+      <c r="B17" s="13">
+        <v>154.0616471</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1193754.9044777</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1125942.85658021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13">
+        <v>0.00072934459</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.006928768</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.08715661</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1.101309537</v>
+      </c>
+      <c r="E22" s="19">
+        <v>13.8852522983</v>
+      </c>
+      <c r="F22" s="13">
+        <v>72.33087422826</v>
+      </c>
+      <c r="G22" s="13">
+        <v>154.0616471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.00765811</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.7917035593</v>
+      </c>
+      <c r="D23" s="5">
+        <v>59.3376652998</v>
+      </c>
+      <c r="E23" s="5">
+        <v>11124.6650484941</v>
+      </c>
+      <c r="F23" s="8">
+        <v>140101.38903577</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1193754.9044777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.0145868919</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1.22931031</v>
+      </c>
+      <c r="D24" s="5">
+        <v>118.001391589</v>
+      </c>
+      <c r="E24" s="5">
+        <v>11270.58101049</v>
+      </c>
+      <c r="F24" s="8">
+        <v>180329.1850674</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1125942.85658021</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -13638,19 +13968,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.8880597014925" customWidth="1"/>
     <col min="2" max="2" width="22.5522388059701" customWidth="1"/>
     <col min="3" max="3" width="22.6641791044776" customWidth="1"/>
     <col min="4" max="4" width="22.4402985074627" customWidth="1"/>
-    <col min="5" max="1025" width="11.3283582089552"/>
+    <col min="5" max="5" width="12.4925373134328"/>
+    <col min="6" max="6" width="11.9925373134328"/>
+    <col min="7" max="7" width="12.4925373134328"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13769,49 +14102,168 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="13">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.00072934459</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="13">
+        <v>0.0083874567</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.0040113952</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.00437606</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="13">
+        <v>0.1068489054</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.0266210777</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.02880911155</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="13">
+        <v>1.26541195</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.3650369704</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.34935606</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="19">
+        <v>16.926617046</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4.1280904153</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4.2743240069</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B16" s="13">
+        <v>76.8192576006</v>
+      </c>
+      <c r="C16" s="8">
+        <v>24.222610395</v>
+      </c>
+      <c r="D16" s="5">
+        <v>23.9582231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="B17" s="13">
+        <v>158.270694788249</v>
+      </c>
+      <c r="C17" s="8">
+        <v>44.254806745562</v>
+      </c>
+      <c r="D17" s="5">
+        <v>46.170795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.0083874567</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.1068489054</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1.26541195</v>
+      </c>
+      <c r="E21" s="19">
+        <v>16.926617046</v>
+      </c>
+      <c r="F21" s="13">
+        <v>76.8192576006</v>
+      </c>
+      <c r="G21" s="13">
+        <v>158.270694788249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.0040113952</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.0266210777</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.3650369704</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.1280904153</v>
+      </c>
+      <c r="F22" s="8">
+        <v>24.222610395</v>
+      </c>
+      <c r="G22" s="8">
+        <v>44.254806745562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.00437606</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.02880911155</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.34935606</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4.2743240069</v>
+      </c>
+      <c r="F23" s="5">
+        <v>23.9582231</v>
+      </c>
+      <c r="G23" s="5">
+        <v>46.170795</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -13827,19 +14279,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="22.8880597014925"/>
     <col min="2" max="2" width="22.5522388059701" customWidth="1"/>
     <col min="3" max="3" width="22.4402985074627" customWidth="1"/>
     <col min="4" max="4" width="22.5522388059701" customWidth="1"/>
-    <col min="5" max="1025" width="11.3283582089552"/>
+    <col min="5" max="5" width="15.2388059701493"/>
+    <col min="6" max="6" width="16.365671641791"/>
+    <col min="7" max="7" width="17.4925373134328"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13958,49 +14413,168 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="13">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.000364672</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="13">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.0131282027</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="13">
+        <v>0.61811909459</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.002917378385</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.1811735738</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="13">
+        <v>58.7771088071</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.031361817</v>
+      </c>
+      <c r="D14" s="5">
+        <v>115.4023721</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="13">
+        <v>5917.273055477</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.3066894</v>
+      </c>
+      <c r="D15" s="5">
+        <v>11766.56925054</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B16" s="15">
+        <v>139065.63039</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.527611142</v>
+      </c>
+      <c r="D16" s="5">
+        <v>279936.685641768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="B17" s="15">
+        <v>558118.936776</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3.35206776486</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1180015.54233334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13">
+        <v>0.00072934459</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.61811909459</v>
+      </c>
+      <c r="D22" s="13">
+        <v>58.7771088071</v>
+      </c>
+      <c r="E22" s="13">
+        <v>5917.273055477</v>
+      </c>
+      <c r="F22" s="15">
+        <v>139065.63039</v>
+      </c>
+      <c r="G22" s="15">
+        <v>558118.936776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.002917378385</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.031361817</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.3066894</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.527611142</v>
+      </c>
+      <c r="G23" s="8">
+        <v>3.35206776486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.0131282027</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1.1811735738</v>
+      </c>
+      <c r="D24" s="5">
+        <v>115.4023721</v>
+      </c>
+      <c r="E24" s="5">
+        <v>11766.56925054</v>
+      </c>
+      <c r="F24" s="5">
+        <v>279936.685641768</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1180015.54233334</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -14016,17 +14590,18 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="4" width="22.6641791044776" customWidth="1"/>
-    <col min="5" max="1025" width="11.3283582089552"/>
+    <col min="5" max="7" width="12.4925373134328"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14053,7 +14628,7 @@
       <c r="C2" s="6">
         <v>0.0012829</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="17">
         <v>0.0012829</v>
       </c>
     </row>
@@ -14067,7 +14642,7 @@
       <c r="C3" s="9">
         <v>0.00555924</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="18">
         <v>0.00940794</v>
       </c>
     </row>
@@ -14081,7 +14656,7 @@
       <c r="C4" s="9">
         <v>0.05131608</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="18">
         <v>0.10904663</v>
       </c>
     </row>
@@ -14095,7 +14670,7 @@
       <c r="C5" s="9">
         <v>0.85056377</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="18">
         <v>1.37227709</v>
       </c>
     </row>
@@ -14109,7 +14684,7 @@
       <c r="C6" s="9">
         <v>11.01884197</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="18">
         <v>16.41515338</v>
       </c>
     </row>
@@ -14123,7 +14698,7 @@
       <c r="C7" s="6">
         <v>124.85733492</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="18">
         <v>187.48110392</v>
       </c>
     </row>
@@ -14145,49 +14720,168 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="13">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.000364672</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="13">
+        <v>0.0069287686</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.0021880321</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.0003646722</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="13">
+        <v>0.111224969</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.0506894124</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.04011392354</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="13">
+        <v>1.789445662043</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.27459804025</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.9649221972219</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="13">
+        <v>43.34564709228</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.812715384419</v>
+      </c>
+      <c r="D15" s="8">
+        <v>59.8321049963</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B16" s="13">
+        <v>923.6486166166</v>
+      </c>
+      <c r="C16" s="5">
+        <v>14.8370463024</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2012.665789022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="13"/>
+      <c r="B17" s="13">
+        <v>3940.740794766</v>
+      </c>
+      <c r="C17" s="5">
+        <v>30.0471520937644</v>
+      </c>
+      <c r="D17" s="8">
+        <v>8268.4390943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13">
+        <v>0.00072934459</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.0069287686</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.111224969</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1.789445662043</v>
+      </c>
+      <c r="E21" s="13">
+        <v>43.34564709228</v>
+      </c>
+      <c r="F21" s="13">
+        <v>923.6486166166</v>
+      </c>
+      <c r="G21" s="13">
+        <v>3940.740794766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.0021880321</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.0506894124</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.27459804025</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2.812715384419</v>
+      </c>
+      <c r="F22" s="5">
+        <v>14.8370463024</v>
+      </c>
+      <c r="G22" s="5">
+        <v>30.0471520937644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.04011392354</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.9649221972219</v>
+      </c>
+      <c r="E23" s="8">
+        <v>59.8321049963</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2012.665789022</v>
+      </c>
+      <c r="G23" s="8">
+        <v>8268.4390943</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -14203,17 +14897,19 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="22.6641791044776" customWidth="1"/>
     <col min="4" max="4" width="22.3283582089552" customWidth="1"/>
-    <col min="5" max="1025" width="11.3283582089552"/>
+    <col min="5" max="5" width="14.1194029850746"/>
+    <col min="6" max="7" width="16.365671641791"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14296,7 +14992,7 @@
       <c r="C6" s="6">
         <v>32220.11948996</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>33223.17525</v>
       </c>
     </row>
@@ -14310,7 +15006,7 @@
       <c r="C7" s="6">
         <v>3363985.47284973</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>3142924.25278464</v>
       </c>
     </row>
@@ -14332,49 +15028,168 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="13">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.00072934459</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="13">
+        <v>0.014222209</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.01094016894</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.012398858138</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="13">
+        <v>1.012694233</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.995920046</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.0480681849</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="13">
+        <v>96.020334112515</v>
+      </c>
+      <c r="C14" s="5">
+        <v>93.853886</v>
+      </c>
+      <c r="D14" s="5">
+        <v>96.008734630885</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="13">
+        <v>9003.37941572246</v>
+      </c>
+      <c r="C15" s="5">
+        <v>9437.8098802853</v>
+      </c>
+      <c r="D15" s="14">
+        <v>11075.3613537802</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
+        <v>500000</v>
+      </c>
+      <c r="B16" s="15">
+        <v>224160.39771131</v>
+      </c>
+      <c r="C16" s="5">
+        <v>226727.231519333</v>
+      </c>
+      <c r="D16" s="16">
+        <v>240086.623829858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="11"/>
+      <c r="B17" s="15">
+        <v>903981.375821059</v>
+      </c>
+      <c r="C17" s="5">
+        <v>949199.76092084</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1004123.06668981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.014222209</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1.012694233</v>
+      </c>
+      <c r="D21" s="13">
+        <v>96.020334112515</v>
+      </c>
+      <c r="E21" s="13">
+        <v>9003.37941572246</v>
+      </c>
+      <c r="F21" s="15">
+        <v>224160.39771131</v>
+      </c>
+      <c r="G21" s="15">
+        <v>903981.375821059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.01094016894</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.995920046</v>
+      </c>
+      <c r="D22" s="5">
+        <v>93.853886</v>
+      </c>
+      <c r="E22" s="5">
+        <v>9437.8098802853</v>
+      </c>
+      <c r="F22" s="5">
+        <v>226727.231519333</v>
+      </c>
+      <c r="G22" s="5">
+        <v>949199.76092084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.012398858138</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1.0480681849</v>
+      </c>
+      <c r="D23" s="5">
+        <v>96.008734630885</v>
+      </c>
+      <c r="E23" s="14">
+        <v>11075.3613537802</v>
+      </c>
+      <c r="F23" s="16">
+        <v>240086.623829858</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1004123.06668981</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -14390,10 +15205,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
@@ -14557,11 +15372,19 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>

--- a/Analyze/planilha-tempo-de-execucao.xlsx
+++ b/Analyze/planilha-tempo-de-execucao.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Trabalho\Mestrado - Ciência da Computação - Unesp\Disciplinas\Analise e Projeto de Algoritmos\Trabalhos\TP1\Sorting-Algorithms-Analysis-Complexity\Analyze\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2ECC50D7-14DE-4E31-9BEB-ADBE930B478C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22202" windowHeight="9728" tabRatio="978" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="9732" tabRatio="978" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="14">
   <si>
     <t>Aleatório</t>
   </si>
@@ -70,176 +76,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0000000"/>
-    <numFmt numFmtId="177" formatCode="0.00000000"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0.000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,19 +99,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,19 +123,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,162 +147,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -488,341 +195,81 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -840,7 +287,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -864,7 +311,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -873,6 +319,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -881,10 +347,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.142580927384077"/>
-          <c:y val="0.171712962962963"/>
-          <c:w val="0.826863517060367"/>
-          <c:h val="0.622607538641003"/>
+          <c:x val="0.14258092738407699"/>
+          <c:y val="0.17171296296296301"/>
+          <c:w val="0.82686351706036698"/>
+          <c:h val="0.62260753864100304"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -905,14 +371,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -963,27 +428,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00171053</c:v>
+                  <c:v>1.71053E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08125043</c:v>
+                  <c:v>8.1250429999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.86352364</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>879.92810661</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
-                  <c:v>99342.69081771</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>6.8635236400000004</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>879.92810660999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00000000">
+                  <c:v>99342.690817709998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
                   <c:v>10671006.8990172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18C9-4C49-B3F9-C23BC0FA9D85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1000,14 +470,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1055,30 +524,35 @@
             <c:numRef>
               <c:f>BubbleSortClassico!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" c:formatCode="0.00000000">
-                  <c:v>0.0012829</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.03463833</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
+                <c:pt idx="0" formatCode="0.00000000">
+                  <c:v>1.2829E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4638330000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3.45570931</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>346.92695885</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
-                  <c:v>35107.45241824</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>3462956.62466874</c:v>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>346.92695885000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00000000">
+                  <c:v>35107.452418239998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>3462956.6246687402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18C9-4C49-B3F9-C23BC0FA9D85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1095,14 +569,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1153,30 +626,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00171053</c:v>
+                  <c:v>1.71053E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09023074</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="0.00000000">
-                  <c:v>9.0863645</c:v>
+                  <c:v>9.0230740000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00000000">
+                  <c:v>9.0863645000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>912.39535264</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.0000000">
-                  <c:v>88249.403789</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.0000000">
-                  <c:v>9144960.6452824</c:v>
+                  <c:v>912.39535264000006</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000000">
+                  <c:v>88249.403789000004</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000000">
+                  <c:v>9144960.6452824008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18C9-4C49-B3F9-C23BC0FA9D85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1218,7 +695,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1230,6 +707,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98269216"/>
@@ -1249,7 +727,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1278,7 +755,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1290,6 +767,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98273568"/>
@@ -1306,7 +784,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1320,7 +797,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1332,6 +809,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1361,20 +839,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1392,7 +871,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1416,7 +895,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1425,6 +903,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1434,8 +932,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.108945641054127"/>
-          <c:y val="0.153194444444444"/>
-          <c:w val="0.896641294838145"/>
+          <c:y val="0.15319444444444399"/>
+          <c:w val="0.89664129483814503"/>
           <c:h val="0.696681612715077"/>
         </c:manualLayout>
       </c:layout>
@@ -1457,14 +955,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1512,30 +1009,35 @@
             <c:numRef>
               <c:f>BubbleSortMelhorado!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.00171053</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="0.00000000">
-                  <c:v>0.0846715</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.13592641</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>908.12799423</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
-                  <c:v>102421.3497921</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.71053E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4671499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7.1359264099999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>908.12799423000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102421.34979209999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10227994.7349717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61C1-4D87-9712-40D53436BC86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1552,14 +1054,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1607,30 +1108,35 @@
             <c:numRef>
               <c:f>BubbleSortMelhorado!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.00042763</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="0.00000000">
-                  <c:v>0.0012829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00726977</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06671088</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
-                  <c:v>0.6906287</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.68306214</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4.2763000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2829E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7.2697700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>6.671088E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69062869999999998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>6.6830621399999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61C1-4D87-9712-40D53436BC86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1647,14 +1153,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1705,30 +1210,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00171054</c:v>
+                  <c:v>1.71054E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09407985</c:v>
+                  <c:v>9.4079850000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.29423431</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>921.18033258</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
-                  <c:v>95060.10377007</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>9101019.77834847</c:v>
+                  <c:v>9.2942343100000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>921.18033258000003</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00000000">
+                  <c:v>95060.103770069996</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>9101019.7783484701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-61C1-4D87-9712-40D53436BC86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1770,7 +1279,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1782,6 +1291,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98264864"/>
@@ -1801,7 +1311,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1830,7 +1339,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1842,6 +1351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98263776"/>
@@ -1858,7 +1368,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1872,7 +1381,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1884,6 +1393,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1913,20 +1423,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1944,7 +1455,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1968,7 +1479,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1977,6 +1487,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1986,9 +1516,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12991426071741"/>
-          <c:y val="0.171712962962963"/>
-          <c:w val="0.839530183727034"/>
-          <c:h val="0.654436789151356"/>
+          <c:y val="0.17171296296296301"/>
+          <c:w val="0.83953018372703403"/>
+          <c:h val="0.65443678915135595"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2009,14 +1539,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -2067,27 +1596,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00213816</c:v>
+                  <c:v>2.1381600000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02009879</c:v>
+                  <c:v>2.0098789999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25187635</c:v>
+                  <c:v>0.25187635000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.13926025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.47764052</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>502.00196797</c:v>
+                  <c:v>38.477640520000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>502.00196797000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6971-42D0-903C-4A8BF4DCCC2A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2104,14 +1638,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -2162,27 +1695,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00213817</c:v>
+                  <c:v>2.13817E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04190811</c:v>
+                  <c:v>4.1908109999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.49633453</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>347.60191374</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
-                  <c:v>34421.03352308</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>3.4963345299999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>347.60191373999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00000000">
+                  <c:v>34421.033523079997</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
                   <c:v>3293236.44432698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6971-42D0-903C-4A8BF4DCCC2A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2199,14 +1737,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -2257,30 +1794,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00213816</c:v>
+                  <c:v>2.1381600000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04276338</c:v>
+                  <c:v>4.2763379999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.50018324</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>338.29645293</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
-                  <c:v>33710.40292091</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>3371497.88171561</c:v>
+                  <c:v>3.5001832400000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>338.29645292999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00000000">
+                  <c:v>33710.402920909997</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>3371497.8817156102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6971-42D0-903C-4A8BF4DCCC2A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2322,7 +1863,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2334,6 +1875,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98273024"/>
@@ -2353,7 +1895,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2382,7 +1923,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2394,6 +1935,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98267584"/>
@@ -2410,7 +1952,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2424,7 +1965,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2436,6 +1977,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2465,20 +2007,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2496,7 +2039,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2520,7 +2063,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2529,6 +2071,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2537,10 +2099,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.186817147856518"/>
-          <c:y val="0.171712962962963"/>
-          <c:w val="0.782627296587927"/>
-          <c:h val="0.654436789151356"/>
+          <c:x val="0.18681714785651801"/>
+          <c:y val="0.17171296296296301"/>
+          <c:w val="0.78262729658792696"/>
+          <c:h val="0.65443678915135595"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2561,14 +2123,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -2616,30 +2177,35 @@
             <c:numRef>
               <c:f>QuickSortPivoCentral!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" c:formatCode="0.00000000">
-                  <c:v>0.0025658</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.02608566</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
-                  <c:v>0.31602143</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="General">
+                <c:pt idx="0" formatCode="0.00000000">
+                  <c:v>2.5658E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.608566E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31602142999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.77386891</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="General">
-                  <c:v>42.59147836</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>458.47610959</c:v>
+                <c:pt idx="4">
+                  <c:v>42.591478360000004</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>458.47610959000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EDC-45B8-BCE8-FF6AB325C9FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2656,14 +2222,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -2714,19 +2279,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00171053</c:v>
+                  <c:v>1.71053E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01282902</c:v>
+                  <c:v>1.282902E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11845463</c:v>
+                  <c:v>0.11845463000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.37013951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.37966719</c:v>
+                  <c:v>16.379667189999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>148.39878911</c:v>
@@ -2735,6 +2300,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0EDC-45B8-BCE8-FF6AB325C9FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2751,14 +2321,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -2809,13 +2378,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00171054</c:v>
+                  <c:v>1.71054E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01069089</c:v>
+                  <c:v>1.069089E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08937586</c:v>
+                  <c:v>8.9375860000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.15589929</c:v>
@@ -2823,16 +2392,20 @@
                 <c:pt idx="4">
                   <c:v>14.63027258</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>150.62954389</c:v>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>150.62954389000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0EDC-45B8-BCE8-FF6AB325C9FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2874,7 +2447,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2886,6 +2459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98264320"/>
@@ -2905,7 +2479,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2918,7 +2491,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="000,000,000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2934,7 +2507,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2946,6 +2519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98274112"/>
@@ -2962,7 +2536,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2976,7 +2549,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2988,6 +2561,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3017,20 +2591,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3048,7 +2623,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3072,7 +2647,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3081,6 +2655,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3103,14 +2697,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -3161,27 +2754,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00085526</c:v>
+                  <c:v>8.5526000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02138169</c:v>
+                  <c:v>2.1381689999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.78579904</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>178.72316223</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
-                  <c:v>18256.02525434</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>2102130.7931026</c:v>
+                  <c:v>1.7857990399999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>178.72316223000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00000000">
+                  <c:v>18256.025254339998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>2102130.7931026001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97EE-474B-BED6-3B05D06E9744}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3198,14 +2796,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -3256,18 +2853,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00042763</c:v>
+                  <c:v>4.2763000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00171053</c:v>
+                  <c:v>1.71053E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01069084</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>1.069084E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000">
                   <c:v>0.1099019</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
+                <c:pt idx="4" formatCode="0.00000000">
                   <c:v>1.0297428</c:v>
                 </c:pt>
                 <c:pt idx="5">
@@ -3277,6 +2874,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97EE-474B-BED6-3B05D06E9744}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3293,14 +2895,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -3348,33 +2949,37 @@
             <c:numRef>
               <c:f>InsertionSort!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" c:formatCode="0.00000000">
-                  <c:v>0.0012829</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.03848721</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
-                  <c:v>3.56434356</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>377.07120006</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
-                  <c:v>38632.69642697</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>4198039.24498351</c:v>
+                <c:pt idx="0" formatCode="0.00000000">
+                  <c:v>1.2829E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8487210000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5643435600000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>377.07120006000002</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00000000">
+                  <c:v>38632.696426969997</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>4198039.2449835101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97EE-474B-BED6-3B05D06E9744}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3416,7 +3021,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3428,6 +3033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98267040"/>
@@ -3447,7 +3053,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3476,7 +3081,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3488,6 +3093,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98272480"/>
@@ -3504,7 +3110,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3518,7 +3123,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3530,6 +3135,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3559,20 +3165,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3590,7 +3197,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3609,7 +3216,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3618,6 +3224,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3626,10 +3252,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0653587051618548"/>
-          <c:y val="0.171712962962963"/>
+          <c:x val="6.5358705161854797E-2"/>
+          <c:y val="0.17171296296296301"/>
           <c:w val="0.920752405949256"/>
-          <c:h val="0.654436789151356"/>
+          <c:h val="0.65443678915135595"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3650,14 +3276,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -3708,27 +3333,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00171053</c:v>
+                  <c:v>1.71053E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01924352</c:v>
+                  <c:v>1.924352E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.29506737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.32722714</c:v>
+                  <c:v>4.3272271399999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.99944963</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>883.60746802</c:v>
+                  <c:v>62.999449630000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>883.60746802000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-339A-442B-940C-A3075585E222}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3745,14 +3375,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -3800,30 +3429,35 @@
             <c:numRef>
               <c:f>ShellSort!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" c:formatCode="0.00000000">
-                  <c:v>0.0012829</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.00555924</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
-                  <c:v>0.05131608</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>0.85056377</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="0" formatCode="0.00000000">
+                  <c:v>1.2829E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.55924E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.131608E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85056377000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>11.01884197</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
+                <c:pt idx="5" formatCode="0.00000000">
                   <c:v>124.85733492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-339A-442B-940C-A3075585E222}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3840,14 +3474,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -3895,33 +3528,37 @@
             <c:numRef>
               <c:f>ShellSort!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" c:formatCode="0.00000000">
-                  <c:v>0.0012829</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.00940794</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
-                  <c:v>0.10904663</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>1.37227709</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="General">
+                <c:pt idx="0" formatCode="0.00000000">
+                  <c:v>1.2829E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4079400000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10904663000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3722770900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16.41515338</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="General">
-                  <c:v>187.48110392</c:v>
+                <c:pt idx="5">
+                  <c:v>187.48110392000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-339A-442B-940C-A3075585E222}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3963,7 +3600,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3975,6 +3612,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98266496"/>
@@ -3994,7 +3632,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4023,7 +3660,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4035,6 +3672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98271936"/>
@@ -4051,7 +3689,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4065,7 +3702,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4077,6 +3714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4106,20 +3744,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4137,7 +3776,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4161,7 +3800,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4170,6 +3808,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4179,9 +3837,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12991426071741"/>
-          <c:y val="0.171712962962963"/>
-          <c:w val="0.839530183727034"/>
-          <c:h val="0.654436789151356"/>
+          <c:y val="0.17171296296296301"/>
+          <c:w val="0.83953018372703403"/>
+          <c:h val="0.65443678915135595"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4202,14 +3860,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -4260,27 +3917,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00171053</c:v>
+                  <c:v>1.71053E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04447392</c:v>
+                  <c:v>4.447392E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.34580741</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>322.75837531</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>3.3458074099999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>322.75837531000002</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00000000">
                   <c:v>32191.3011573</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
+                <c:pt idx="5" formatCode="0.00000000">
                   <c:v>3305599.08683063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F552-47C4-A05B-A25B647036E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4297,14 +3959,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -4355,27 +4016,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00085527</c:v>
+                  <c:v>8.5526999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03506612</c:v>
+                  <c:v>3.5066119999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.69947644</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>325.18958159</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.00000000">
-                  <c:v>32220.11948996</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>3363985.47284973</c:v>
+                  <c:v>3.6994764400000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>325.18958158999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00000000">
+                  <c:v>32220.119489960001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>3363985.4728497299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F552-47C4-A05B-A25B647036E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4392,14 +4058,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -4450,30 +4115,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00171053</c:v>
+                  <c:v>1.71053E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03634887</c:v>
+                  <c:v>3.6348869999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.21623435</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>321.84409401</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="0.000000">
+                  <c:v>3.2162343500000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>321.84409400999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000000">
                   <c:v>33223.17525</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.000000">
-                  <c:v>3142924.25278464</c:v>
+                <c:pt idx="5" formatCode="0.000000">
+                  <c:v>3142924.2527846401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F552-47C4-A05B-A25B647036E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4515,7 +4184,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4527,6 +4196,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14151840"/>
@@ -4546,7 +4216,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4575,7 +4244,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4587,6 +4256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14141504"/>
@@ -4603,7 +4273,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4617,7 +4286,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4629,6 +4298,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4658,20 +4328,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4689,7 +4360,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4713,7 +4384,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4722,6 +4392,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4744,14 +4434,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -4802,27 +4491,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01026321</c:v>
+                  <c:v>1.026321E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07227012</c:v>
+                  <c:v>7.2270119999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63802973</c:v>
+                  <c:v>0.63802972999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.37905808</c:v>
+                  <c:v>8.3790580800000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.84360745</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>83.843607449999993</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
                   <c:v>836.49889306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5446-4929-AF28-5CBC28A37543}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4839,14 +4533,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -4897,27 +4590,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01282902</c:v>
+                  <c:v>1.282902E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08723734</c:v>
+                  <c:v>8.7237339999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.53710837</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.00000000">
-                  <c:v>6.9097081</c:v>
+                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>6.9097080999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>63.42751114</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>695.48820414</c:v>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>695.48820413999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5446-4929-AF28-5CBC28A37543}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4934,14 +4632,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -4992,30 +4689,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01197379</c:v>
+                  <c:v>1.197379E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05815845</c:v>
+                  <c:v>5.815845E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74194794</c:v>
+                  <c:v>0.74194793999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.90246784</c:v>
+                  <c:v>6.9024678399999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>59.47728377</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>567.58504284</c:v>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>567.58504284000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5446-4929-AF28-5CBC28A37543}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5057,7 +4758,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5069,6 +4770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14151296"/>
@@ -5088,7 +4790,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5117,7 +4818,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5129,6 +4830,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14150208"/>
@@ -5145,7 +4847,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5159,7 +4860,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5171,6 +4872,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5200,20 +4902,21 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5231,7 +4934,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5255,7 +4958,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5264,6 +4966,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5286,14 +5008,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -5341,30 +5062,35 @@
             <c:numRef>
               <c:f>HeapSort!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" c:formatCode="0.00000000">
-                  <c:v>0.0025658</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="General">
-                  <c:v>0.02309222</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
-                  <c:v>0.31473852</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>4.01419915</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="General">
-                  <c:v>51.34200555</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>677.83475286</c:v>
+                <c:pt idx="0" formatCode="0.00000000">
+                  <c:v>2.5658E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.309222E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31473852000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0141991499999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.342005550000003</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>677.83475285999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03FD-4DAE-AF25-23558D54971B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5381,14 +5107,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -5438,28 +5163,33 @@
               <c:numCache>
                 <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" c:formatCode="0.00000000">
-                  <c:v>0.0025658</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="0.00000000">
-                  <c:v>0.0252304</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="General">
-                  <c:v>0.33526509</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="General">
-                  <c:v>3.31715736</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="General">
-                  <c:v>42.87116925</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>513.81257996</c:v>
+                <c:pt idx="0">
+                  <c:v>2.5658E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.52304E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.33526508999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.3171573599999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>42.871169250000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>513.81257995999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03FD-4DAE-AF25-23558D54971B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5476,14 +5206,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="25401">
+            <a:ln w="25401" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -5534,30 +5263,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00213817</c:v>
+                  <c:v>2.13817E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00213817</c:v>
+                  <c:v>2.13817E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.25871959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.07085196</c:v>
+                  <c:v>3.0708519600000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36.31696187</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00000000">
-                  <c:v>425.68226068</c:v>
+                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>425.68226068000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-03FD-4DAE-AF25-23558D54971B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5599,7 +5332,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5611,6 +5344,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14144768"/>
@@ -5630,7 +5364,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5643,7 +5376,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="000,000,000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5659,7 +5392,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5671,6 +5404,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14140960"/>
@@ -5687,7 +5421,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5701,7 +5434,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5713,6 +5446,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5742,11 +5476,12 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10757,7 +10492,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -10771,14 +10506,20 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8418195" y="343535"/>
-        <a:ext cx="6390640" cy="2449830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10792,7 +10533,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -10806,14 +10547,20 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8388985" y="440690"/>
-        <a:ext cx="7606030" cy="2441575"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10827,7 +10574,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -10841,14 +10588,20 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9460865" y="758825"/>
-        <a:ext cx="6027420" cy="2449830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10862,7 +10615,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -10876,14 +10629,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11127740" y="1581785"/>
-        <a:ext cx="5850255" cy="2449830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10897,7 +10656,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -10911,14 +10670,20 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9218930" y="250190"/>
-        <a:ext cx="6805295" cy="2449830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10932,7 +10697,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -10946,14 +10711,20 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8945245" y="522605"/>
-        <a:ext cx="6044565" cy="2449830"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10967,7 +10738,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -10981,14 +10752,20 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9228455" y="271145"/>
-        <a:ext cx="6709410" cy="2441575"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11002,7 +10779,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -11016,14 +10793,20 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>115252</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8842375" y="385445"/>
-        <a:ext cx="5854065" cy="2442210"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11037,7 +10820,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -11051,14 +10834,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10163810" y="1358900"/>
-        <a:ext cx="5703570" cy="2442210"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11076,7 +10865,7 @@
   <a:themeElements>
     <a:clrScheme name="Escritório">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="5C616C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11328,31 +11117,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6641791044776" customWidth="1"/>
-    <col min="2" max="2" width="18.1119402985075" customWidth="1"/>
-    <col min="3" max="4" width="18.4402985074627" customWidth="1"/>
-    <col min="5" max="6" width="18.1119402985075" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="19.4402985074627" customWidth="1"/>
-    <col min="9" max="10" width="18.1119402985075" customWidth="1"/>
-    <col min="11" max="11" width="18.5522388059701" customWidth="1"/>
-    <col min="12" max="12" width="13.1119402985075" customWidth="1"/>
-    <col min="13" max="13" width="13.4402985074627" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="17.1119402985075" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11368,220 +11156,220 @@
       <c r="E1" s="1">
         <v>10000</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="20">
         <v>100000</v>
       </c>
       <c r="G1" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C2" s="8">
-        <v>0.08125043</v>
+        <v>8.1250429999999998E-2</v>
       </c>
       <c r="D2" s="8">
-        <v>6.86352364</v>
+        <v>6.8635236400000004</v>
       </c>
       <c r="E2" s="5">
-        <v>879.92810661</v>
-      </c>
-      <c r="F2" s="22">
-        <v>99342.69081771</v>
+        <v>879.92810660999999</v>
+      </c>
+      <c r="F2" s="21">
+        <v>99342.690817709998</v>
       </c>
       <c r="G2" s="8">
         <v>10671006.8990172</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C3" s="5">
-        <v>0.0846715</v>
+        <v>8.4671499999999997E-2</v>
       </c>
       <c r="D3" s="8">
-        <v>7.13592641</v>
+        <v>7.1359264099999997</v>
       </c>
       <c r="E3" s="5">
-        <v>908.12799423</v>
-      </c>
-      <c r="F3" s="22">
-        <v>102421.3497921</v>
+        <v>908.12799423000001</v>
+      </c>
+      <c r="F3" s="21">
+        <v>102421.34979209999</v>
       </c>
       <c r="G3" s="8">
         <v>10227994.7349717</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>0.00213816</v>
+        <v>2.1381600000000001E-3</v>
       </c>
       <c r="C4" s="8">
-        <v>0.02009879</v>
+        <v>2.0098789999999998E-2</v>
       </c>
       <c r="D4" s="8">
-        <v>0.25187635</v>
+        <v>0.25187635000000003</v>
       </c>
       <c r="E4" s="8">
         <v>3.13926025</v>
       </c>
-      <c r="F4" s="24">
-        <v>38.47764052</v>
+      <c r="F4" s="23">
+        <v>38.477640520000001</v>
       </c>
       <c r="G4" s="5">
-        <v>502.00196797</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="25"/>
-    </row>
-    <row r="5" spans="1:16">
+        <v>502.00196797000001</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>0.0025658</v>
+        <v>2.5658E-3</v>
       </c>
       <c r="C5" s="8">
-        <v>0.02608566</v>
+        <v>2.608566E-2</v>
       </c>
       <c r="D5" s="8">
-        <v>0.31602143</v>
+        <v>0.31602142999999999</v>
       </c>
       <c r="E5" s="8">
         <v>3.77386891</v>
       </c>
-      <c r="F5" s="24">
-        <v>42.59147836</v>
+      <c r="F5" s="23">
+        <v>42.591478360000004</v>
       </c>
       <c r="G5" s="5">
-        <v>458.47610959</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:16">
+        <v>458.47610959000002</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <v>0.00085526</v>
+        <v>8.5526000000000005E-4</v>
       </c>
       <c r="C6" s="8">
-        <v>0.02138169</v>
+        <v>2.1381689999999998E-2</v>
       </c>
       <c r="D6" s="8">
-        <v>1.78579904</v>
+        <v>1.7857990399999999</v>
       </c>
       <c r="E6" s="5">
-        <v>178.72316223</v>
+        <v>178.72316223000001</v>
       </c>
       <c r="F6" s="5">
-        <v>18256.02525434</v>
+        <v>18256.025254339998</v>
       </c>
       <c r="G6" s="16">
-        <v>2102130.7931026</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:16">
+        <v>2102130.7931026001</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C7" s="8">
-        <v>0.01924352</v>
+        <v>1.924352E-2</v>
       </c>
       <c r="D7" s="8">
         <v>0.29506737</v>
       </c>
       <c r="E7" s="8">
-        <v>4.32722714</v>
+        <v>4.3272271399999997</v>
       </c>
       <c r="F7" s="8">
-        <v>62.99944963</v>
+        <v>62.999449630000001</v>
       </c>
       <c r="G7" s="5">
-        <v>883.60746802</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-    </row>
-    <row r="8" spans="1:16">
+        <v>883.60746802000006</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C8" s="8">
-        <v>0.04447392</v>
+        <v>4.447392E-2</v>
       </c>
       <c r="D8" s="8">
-        <v>3.34580741</v>
+        <v>3.3458074099999999</v>
       </c>
       <c r="E8" s="5">
-        <v>322.75837531</v>
+        <v>322.75837531000002</v>
       </c>
       <c r="F8" s="5">
         <v>32191.3011573</v>
@@ -11589,94 +11377,94 @@
       <c r="G8" s="16">
         <v>3305599.08683063</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>0.01026321</v>
+        <v>1.026321E-2</v>
       </c>
       <c r="C9" s="8">
-        <v>0.07227012</v>
+        <v>7.2270119999999993E-2</v>
       </c>
       <c r="D9" s="8">
-        <v>0.63802973</v>
+        <v>0.63802972999999996</v>
       </c>
       <c r="E9" s="8">
-        <v>8.37905808</v>
+        <v>8.3790580800000001</v>
       </c>
       <c r="F9" s="8">
-        <v>83.84360745</v>
+        <v>83.843607449999993</v>
       </c>
       <c r="G9" s="5">
         <v>836.49889306</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="H9" s="22"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>0.0025658</v>
+        <v>2.5658E-3</v>
       </c>
       <c r="C10" s="8">
-        <v>0.02309222</v>
+        <v>2.309222E-2</v>
       </c>
       <c r="D10" s="8">
-        <v>0.31473852</v>
+        <v>0.31473852000000002</v>
       </c>
       <c r="E10" s="8">
-        <v>4.01419915</v>
+        <v>4.0141991499999996</v>
       </c>
       <c r="F10" s="8">
-        <v>51.34200555</v>
+        <v>51.342005550000003</v>
       </c>
       <c r="G10" s="5">
-        <v>677.83475286</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-    </row>
-    <row r="11" spans="6:16">
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-    </row>
-    <row r="12" spans="1:16">
+        <v>677.83475285999998</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -11698,138 +11486,138 @@
       <c r="G12" s="1">
         <v>1000000</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="5">
-        <v>0.0012829</v>
+        <v>1.2829E-3</v>
       </c>
       <c r="C13" s="8">
-        <v>0.03463833</v>
+        <v>3.4638330000000002E-2</v>
       </c>
       <c r="D13" s="8">
         <v>3.45570931</v>
       </c>
       <c r="E13" s="5">
-        <v>346.92695885</v>
+        <v>346.92695885000001</v>
       </c>
       <c r="F13" s="5">
-        <v>35107.45241824</v>
+        <v>35107.452418239998</v>
       </c>
       <c r="G13" s="8">
-        <v>3462956.62466874</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-    </row>
-    <row r="14" spans="1:16">
+        <v>3462956.6246687402</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="8">
-        <v>0.00042763</v>
+        <v>4.2763000000000002E-4</v>
       </c>
       <c r="C14" s="5">
-        <v>0.0012829</v>
+        <v>1.2829E-3</v>
       </c>
       <c r="D14" s="8">
-        <v>0.00726977</v>
+        <v>7.2697700000000001E-3</v>
       </c>
       <c r="E14" s="8">
-        <v>0.06671088</v>
+        <v>6.671088E-2</v>
       </c>
       <c r="F14" s="5">
-        <v>0.6906287</v>
+        <v>0.69062869999999998</v>
       </c>
       <c r="G14" s="8">
-        <v>6.68306214</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-    </row>
-    <row r="15" spans="1:7">
+        <v>6.6830621399999997</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="8">
-        <v>0.00213817</v>
+        <v>2.13817E-3</v>
       </c>
       <c r="C15" s="8">
-        <v>0.04190811</v>
+        <v>4.1908109999999998E-2</v>
       </c>
       <c r="D15" s="8">
-        <v>3.49633453</v>
+        <v>3.4963345299999999</v>
       </c>
       <c r="E15" s="5">
-        <v>347.60191374</v>
+        <v>347.60191373999999</v>
       </c>
       <c r="F15" s="5">
-        <v>34421.03352308</v>
+        <v>34421.033523079997</v>
       </c>
       <c r="G15" s="8">
         <v>3293236.44432698</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C16" s="8">
-        <v>0.01282902</v>
+        <v>1.282902E-2</v>
       </c>
       <c r="D16" s="8">
-        <v>0.11845463</v>
+        <v>0.11845463000000001</v>
       </c>
       <c r="E16" s="8">
         <v>1.37013951</v>
       </c>
       <c r="F16" s="8">
-        <v>16.37966719</v>
+        <v>16.379667189999999</v>
       </c>
       <c r="G16" s="8">
         <v>148.39878911</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="8">
-        <v>0.00042763</v>
+        <v>4.2763000000000002E-4</v>
       </c>
       <c r="C17" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="D17" s="8">
-        <v>0.01069084</v>
+        <v>1.069084E-2</v>
       </c>
       <c r="E17" s="5">
         <v>0.1099019</v>
@@ -11841,21 +11629,21 @@
         <v>13.24639247</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5">
-        <v>0.0012829</v>
+        <v>1.2829E-3</v>
       </c>
       <c r="C18" s="8">
-        <v>0.00555924</v>
+        <v>5.55924E-3</v>
       </c>
       <c r="D18" s="8">
-        <v>0.05131608</v>
+        <v>5.131608E-2</v>
       </c>
       <c r="E18" s="8">
-        <v>0.85056377</v>
+        <v>0.85056377000000005</v>
       </c>
       <c r="F18" s="8">
         <v>11.01884197</v>
@@ -11864,76 +11652,76 @@
         <v>124.85733492</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="8">
-        <v>0.00085527</v>
+        <v>8.5526999999999999E-4</v>
       </c>
       <c r="C19" s="8">
-        <v>0.03506612</v>
+        <v>3.5066119999999999E-2</v>
       </c>
       <c r="D19" s="8">
-        <v>3.69947644</v>
+        <v>3.6994764400000002</v>
       </c>
       <c r="E19" s="5">
-        <v>325.18958159</v>
+        <v>325.18958158999999</v>
       </c>
       <c r="F19" s="5">
-        <v>32220.11948996</v>
+        <v>32220.119489960001</v>
       </c>
       <c r="G19" s="5">
-        <v>3363985.47284973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>3363985.4728497299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="8">
-        <v>0.01282902</v>
+        <v>1.282902E-2</v>
       </c>
       <c r="C20" s="8">
-        <v>0.08723734</v>
+        <v>8.7237339999999997E-2</v>
       </c>
       <c r="D20" s="8">
         <v>0.53710837</v>
       </c>
       <c r="E20" s="5">
-        <v>6.9097081</v>
+        <v>6.9097080999999996</v>
       </c>
       <c r="F20" s="8">
         <v>63.42751114</v>
       </c>
       <c r="G20" s="5">
-        <v>695.48820414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>695.48820413999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="5">
-        <v>0.0025658</v>
+        <v>2.5658E-3</v>
       </c>
       <c r="C21" s="5">
-        <v>0.0252304</v>
+        <v>2.52304E-2</v>
       </c>
       <c r="D21" s="8">
-        <v>0.33526509</v>
+        <v>0.33526508999999999</v>
       </c>
       <c r="E21" s="8">
-        <v>3.31715736</v>
+        <v>3.3171573599999999</v>
       </c>
       <c r="F21" s="8">
-        <v>42.87116925</v>
+        <v>42.871169250000001</v>
       </c>
       <c r="G21" s="5">
-        <v>513.81257996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>513.81257995999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -11956,87 +11744,87 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C24" s="8">
-        <v>0.09023074</v>
+        <v>9.0230740000000004E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>9.0863645</v>
+        <v>9.0863645000000002</v>
       </c>
       <c r="E24" s="8">
-        <v>912.39535264</v>
+        <v>912.39535264000006</v>
       </c>
       <c r="F24" s="8">
-        <v>88249.403789</v>
+        <v>88249.403789000004</v>
       </c>
       <c r="G24" s="8">
-        <v>9144960.6452824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>9144960.6452824008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="8">
-        <v>0.00171054</v>
+        <v>1.71054E-3</v>
       </c>
       <c r="C25" s="8">
-        <v>0.09407985</v>
+        <v>9.4079850000000007E-2</v>
       </c>
       <c r="D25" s="8">
-        <v>9.29423431</v>
+        <v>9.2942343100000002</v>
       </c>
       <c r="E25" s="5">
-        <v>921.18033258</v>
+        <v>921.18033258000003</v>
       </c>
       <c r="F25" s="5">
-        <v>95060.10377007</v>
+        <v>95060.103770069996</v>
       </c>
       <c r="G25" s="8">
-        <v>9101019.77834847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>9101019.7783484701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="8">
-        <v>0.00213816</v>
+        <v>2.1381600000000001E-3</v>
       </c>
       <c r="C26" s="8">
-        <v>0.04276338</v>
+        <v>4.2763379999999997E-2</v>
       </c>
       <c r="D26" s="8">
-        <v>3.50018324</v>
+        <v>3.5001832400000001</v>
       </c>
       <c r="E26" s="5">
-        <v>338.29645293</v>
+        <v>338.29645292999999</v>
       </c>
       <c r="F26" s="5">
-        <v>33710.40292091</v>
+        <v>33710.402920909997</v>
       </c>
       <c r="G26" s="8">
-        <v>3371497.88171561</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>3371497.8817156102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="8">
-        <v>0.00171054</v>
+        <v>1.71054E-3</v>
       </c>
       <c r="C27" s="8">
-        <v>0.01069089</v>
+        <v>1.069089E-2</v>
       </c>
       <c r="D27" s="8">
-        <v>0.08937586</v>
+        <v>8.9375860000000001E-2</v>
       </c>
       <c r="E27" s="8">
         <v>1.15589929</v>
@@ -12045,136 +11833,137 @@
         <v>14.63027258</v>
       </c>
       <c r="G27" s="5">
-        <v>150.62954389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>150.62954389000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="5">
-        <v>0.0012829</v>
+        <v>1.2829E-3</v>
       </c>
       <c r="C28" s="8">
-        <v>0.03848721</v>
+        <v>3.8487210000000001E-2</v>
       </c>
       <c r="D28" s="8">
-        <v>3.56434356</v>
+        <v>3.5643435600000002</v>
       </c>
       <c r="E28" s="5">
-        <v>377.07120006</v>
+        <v>377.07120006000002</v>
       </c>
       <c r="F28" s="5">
-        <v>38632.69642697</v>
+        <v>38632.696426969997</v>
       </c>
       <c r="G28" s="5">
-        <v>4198039.24498351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>4198039.2449835101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="5">
-        <v>0.0012829</v>
+        <v>1.2829E-3</v>
       </c>
       <c r="C29" s="8">
-        <v>0.00940794</v>
+        <v>9.4079400000000001E-3</v>
       </c>
       <c r="D29" s="8">
-        <v>0.10904663</v>
+        <v>0.10904663000000001</v>
       </c>
       <c r="E29" s="8">
-        <v>1.37227709</v>
+        <v>1.3722770900000001</v>
       </c>
       <c r="F29" s="8">
         <v>16.41515338</v>
       </c>
       <c r="G29" s="8">
-        <v>187.48110392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>187.48110392000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C30" s="8">
-        <v>0.03634887</v>
+        <v>3.6348869999999998E-2</v>
       </c>
       <c r="D30" s="8">
-        <v>3.21623435</v>
+        <v>3.2162343500000001</v>
       </c>
       <c r="E30" s="5">
-        <v>321.84409401</v>
+        <v>321.84409400999999</v>
       </c>
       <c r="F30" s="14">
         <v>33223.17525</v>
       </c>
       <c r="G30" s="16">
-        <v>3142924.25278464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>3142924.2527846401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="8">
-        <v>0.01197379</v>
+        <v>1.197379E-2</v>
       </c>
       <c r="C31" s="8">
-        <v>0.05815845</v>
+        <v>5.815845E-2</v>
       </c>
       <c r="D31" s="8">
-        <v>0.74194794</v>
+        <v>0.74194793999999997</v>
       </c>
       <c r="E31" s="8">
-        <v>6.90246784</v>
+        <v>6.9024678399999999</v>
       </c>
       <c r="F31" s="8">
         <v>59.47728377</v>
       </c>
       <c r="G31" s="5">
-        <v>567.58504284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>567.58504284000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="8">
-        <v>0.00213817</v>
+        <v>2.13817E-3</v>
       </c>
       <c r="C32" s="8">
-        <v>0.00213817</v>
+        <v>2.13817E-3</v>
       </c>
       <c r="D32" s="8">
         <v>0.25871959</v>
       </c>
       <c r="E32" s="8">
-        <v>3.07085196</v>
+        <v>3.0708519600000002</v>
       </c>
       <c r="F32" s="8">
         <v>36.31696187</v>
       </c>
       <c r="G32" s="5">
-        <v>425.68226068</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="20" t="s">
+        <v>425.68226068000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -12190,7 +11979,7 @@
       <c r="E36" s="1">
         <v>10000</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>100000</v>
       </c>
       <c r="G36" s="1">
@@ -12200,218 +11989,246 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="13">
-        <v>0.00036467229817941</v>
+        <v>3.6467229817941E-4</v>
       </c>
       <c r="C37" s="13">
-        <v>0.0251623792223405</v>
+        <v>2.5162379222340499E-2</v>
       </c>
       <c r="D37" s="13">
-        <v>2.02721182704334</v>
+        <v>2.0272118270433399</v>
       </c>
       <c r="E37" s="13">
-        <v>260.856104062811</v>
+        <v>260.85610406281103</v>
       </c>
       <c r="F37" s="19">
-        <v>29710.6464461251</v>
+        <v>29710.646446125102</v>
       </c>
       <c r="G37" s="13">
-        <v>746315.855575288</v>
+        <v>746315.85557528795</v>
       </c>
       <c r="H37" s="13">
-        <v>3014609.04358125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>3014609.0435812501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="13">
-        <v>0.0003646722</v>
+        <v>3.6467219999999998E-4</v>
       </c>
       <c r="C38" s="13">
-        <v>0.0244330261</v>
+        <v>2.4433026100000001E-2</v>
       </c>
       <c r="D38" s="13">
-        <v>2.0326819075</v>
+        <v>2.0326819075000002</v>
       </c>
       <c r="E38" s="13">
-        <v>271.69306284</v>
+        <v>271.69306283999998</v>
       </c>
       <c r="F38" s="19">
-        <v>29745.6117191</v>
+        <v>29745.611719100001</v>
       </c>
       <c r="G38" s="13">
         <v>739743.55642752</v>
       </c>
       <c r="H38" s="13">
-        <v>298860.776139345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>2988860.7761393399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="13">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C39" s="13">
-        <v>0.006928768</v>
+        <v>6.9287680000000001E-3</v>
       </c>
       <c r="D39" s="13">
-        <v>0.08715661</v>
+        <v>8.7156609999999995E-2</v>
       </c>
       <c r="E39" s="13">
-        <v>1.101309537</v>
+        <v>1.1013095369999999</v>
       </c>
       <c r="F39" s="19">
-        <v>13.8852522983</v>
+        <v>13.885252298299999</v>
       </c>
       <c r="G39" s="13">
-        <v>72.33087422826</v>
+        <v>72.330874228260001</v>
       </c>
       <c r="H39" s="13">
-        <v>154.0616471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>154.06164709999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="13">
-        <v>0.00036467229817</v>
+        <v>3.6467229817E-4</v>
       </c>
       <c r="C40" s="13">
-        <v>0.0083874567</v>
+        <v>8.3874567000000004E-3</v>
       </c>
       <c r="D40" s="13">
         <v>0.1068489054</v>
       </c>
       <c r="E40" s="13">
-        <v>1.26541195</v>
+        <v>1.2654119500000001</v>
       </c>
       <c r="F40" s="19">
         <v>16.926617046</v>
       </c>
       <c r="G40" s="13">
-        <v>76.8192576006</v>
+        <v>76.819257600599997</v>
       </c>
       <c r="H40" s="13">
-        <v>158.270694788249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>158.27069478824899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="13">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C41" s="13">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="D41" s="13">
-        <v>0.61811909459</v>
+        <v>0.61811909459000003</v>
       </c>
       <c r="E41" s="13">
-        <v>58.7771088071</v>
+        <v>58.777108807099999</v>
       </c>
       <c r="F41" s="13">
-        <v>5917.273055477</v>
+        <v>5917.2730554769996</v>
       </c>
       <c r="G41" s="15">
-        <v>139065.63039</v>
+        <v>139065.63039000001</v>
       </c>
       <c r="H41" s="15">
-        <v>558118.936776</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>558118.93677599996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="13">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C42" s="13">
-        <v>0.0069287686</v>
+        <v>6.9287686000000003E-3</v>
       </c>
       <c r="D42" s="13">
-        <v>0.111224969</v>
+        <v>0.11122496900000001</v>
       </c>
       <c r="E42" s="13">
-        <v>1.789445662043</v>
+        <v>1.7894456620429999</v>
       </c>
       <c r="F42" s="13">
-        <v>43.34564709228</v>
+        <v>43.345647092279997</v>
       </c>
       <c r="G42" s="13">
-        <v>923.6486166166</v>
+        <v>923.64861661659995</v>
       </c>
       <c r="H42" s="13">
-        <v>3940.740794766</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>3940.7407947659999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="13">
-        <v>0.00036467229817</v>
+        <v>3.6467229817E-4</v>
       </c>
       <c r="C43" s="13">
-        <v>0.014222209</v>
+        <v>1.4222209E-2</v>
       </c>
       <c r="D43" s="13">
-        <v>1.012694233</v>
+        <v>1.0126942329999999</v>
       </c>
       <c r="E43" s="13">
-        <v>96.020334112515</v>
+        <v>96.020334112515002</v>
       </c>
       <c r="F43" s="13">
-        <v>9003.37941572246</v>
+        <v>9003.3794157224602</v>
       </c>
       <c r="G43" s="15">
-        <v>224160.39771131</v>
+        <v>224160.39771131001</v>
       </c>
       <c r="H43" s="15">
-        <v>903981.375821059</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>903981.37582105899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="B44" s="13">
+        <v>3.2820506836146899E-3</v>
+      </c>
+      <c r="C44" s="13">
+        <v>2.0421633803638602E-2</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0.195099537231191</v>
+      </c>
+      <c r="E44" s="13">
+        <v>2.4535134326943</v>
+      </c>
+      <c r="F44" s="13">
+        <v>25.521572174065199</v>
+      </c>
+      <c r="G44" s="13">
+        <v>126.48612969925399</v>
+      </c>
+      <c r="H44" s="13">
+        <v>251.97269335822801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="6:8">
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="B45" s="13">
+        <v>7.2934459635882001E-4</v>
+      </c>
+      <c r="C45" s="13">
+        <v>8.0227847085723395E-3</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0.106848905436895</v>
+      </c>
+      <c r="E45" s="13">
+        <v>1.42696166202925</v>
+      </c>
+      <c r="F45" s="13">
+        <v>18.604473067147001</v>
+      </c>
+      <c r="G45" s="13">
+        <v>107.423263887622</v>
+      </c>
+      <c r="H45" s="13">
+        <v>259.05280086354298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -12437,73 +12254,73 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="5">
-        <v>0.00036467229817941</v>
+        <v>3.6467229817941E-4</v>
       </c>
       <c r="C48" s="8">
-        <v>0.0113048412435617</v>
+        <v>1.13048412435617E-2</v>
       </c>
       <c r="D48" s="8">
-        <v>1.07031319515656</v>
+        <v>1.0703131951565601</v>
       </c>
       <c r="E48" s="5">
-        <v>99.283491868537</v>
+        <v>99.283491868536998</v>
       </c>
       <c r="F48" s="5">
-        <v>9664.62109818</v>
+        <v>9664.6210981799995</v>
       </c>
       <c r="G48" s="8">
-        <v>245270.455365966</v>
+        <v>245270.45536596599</v>
       </c>
       <c r="H48" s="8">
-        <v>967866.559841994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>967866.55984199396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="5">
-        <v>0.00036467229817941</v>
+        <v>3.6467229817941E-4</v>
       </c>
       <c r="C49" s="5">
-        <v>0.00036467</v>
+        <v>3.6466999999999999E-4</v>
       </c>
       <c r="D49" s="8">
-        <v>0.002188033</v>
+        <v>2.1880329999999998E-3</v>
       </c>
       <c r="E49" s="8">
-        <v>0.0207863</v>
+        <v>2.0786300000000001E-2</v>
       </c>
       <c r="F49" s="5">
-        <v>0.20749853766</v>
+        <v>0.20749853766000001</v>
       </c>
       <c r="G49" s="8">
-        <v>1.01707029</v>
+        <v>1.0170702899999999</v>
       </c>
       <c r="H49" s="8">
-        <v>2.146461147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>2.1464611470000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="8">
-        <v>0.000364672</v>
+        <v>3.6467200000000002E-4</v>
       </c>
       <c r="C50" s="8">
-        <v>0.00765811</v>
+        <v>7.6581100000000001E-3</v>
       </c>
       <c r="D50" s="8">
-        <v>0.7917035593</v>
+        <v>0.79170355930000003</v>
       </c>
       <c r="E50" s="5">
-        <v>59.3376652998</v>
+        <v>59.337665299800001</v>
       </c>
       <c r="F50" s="5">
         <v>11124.6650484941</v>
@@ -12512,24 +12329,24 @@
         <v>140101.38903577</v>
       </c>
       <c r="H50" s="8">
-        <v>1193754.9044777</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>1193754.9044776999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="8">
-        <v>0.000364672</v>
+        <v>3.6467200000000002E-4</v>
       </c>
       <c r="C51" s="8">
-        <v>0.0040113952</v>
+        <v>4.0113952000000001E-3</v>
       </c>
       <c r="D51" s="8">
-        <v>0.0266210777</v>
+        <v>2.6621077699999999E-2</v>
       </c>
       <c r="E51" s="8">
-        <v>0.3650369704</v>
+        <v>0.36503697039999999</v>
       </c>
       <c r="F51" s="8">
         <v>4.1280904153</v>
@@ -12541,21 +12358,21 @@
         <v>44.254806745562</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="8">
-        <v>0.000364672</v>
+        <v>3.6467200000000002E-4</v>
       </c>
       <c r="C52" s="8">
-        <v>0.000364672</v>
+        <v>3.6467200000000002E-4</v>
       </c>
       <c r="D52" s="8">
-        <v>0.002917378385</v>
+        <v>2.9173783850000002E-3</v>
       </c>
       <c r="E52" s="5">
-        <v>0.031361817</v>
+        <v>3.1361817E-2</v>
       </c>
       <c r="F52" s="5">
         <v>0.3066894</v>
@@ -12564,86 +12381,114 @@
         <v>1.527611142</v>
       </c>
       <c r="H52" s="8">
-        <v>3.35206776486</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>3.3520677648600001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="8">
-        <v>0.000364672</v>
+        <v>3.6467200000000002E-4</v>
       </c>
       <c r="C53" s="8">
-        <v>0.0021880321</v>
+        <v>2.1880320999999999E-3</v>
       </c>
       <c r="D53" s="8">
-        <v>0.0506894124</v>
+        <v>5.0689412400000002E-2</v>
       </c>
       <c r="E53" s="8">
-        <v>0.27459804025</v>
+        <v>0.27459804025000001</v>
       </c>
       <c r="F53" s="8">
         <v>2.812715384419</v>
       </c>
       <c r="G53" s="5">
-        <v>14.8370463024</v>
+        <v>14.837046302399999</v>
       </c>
       <c r="H53" s="5">
-        <v>30.0471520937644</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>30.047152093764399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="8">
-        <v>0.000364672</v>
+        <v>3.6467200000000002E-4</v>
       </c>
       <c r="C54" s="8">
-        <v>0.01094016894</v>
+        <v>1.094016894E-2</v>
       </c>
       <c r="D54" s="8">
-        <v>0.995920046</v>
+        <v>0.99592004599999995</v>
       </c>
       <c r="E54" s="5">
-        <v>93.853886</v>
+        <v>93.853886000000003</v>
       </c>
       <c r="F54" s="5">
-        <v>9437.8098802853</v>
+        <v>9437.8098802853001</v>
       </c>
       <c r="G54" s="5">
         <v>226727.231519333</v>
       </c>
       <c r="H54" s="5">
-        <v>949199.76092084</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>949199.76092083997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="B55" s="8">
+        <v>4.3760675781529196E-3</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2.55270608725587E-2</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0.246518473569281</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1.8590993761186301</v>
+      </c>
+      <c r="F55" s="8">
+        <v>17.6720195697742</v>
+      </c>
+      <c r="G55" s="5">
+        <v>90.197615774253407</v>
+      </c>
+      <c r="H55" s="5">
+        <v>168.835980611103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="B56" s="5">
+        <v>7.2934459635882001E-4</v>
+      </c>
+      <c r="C56" s="5">
+        <v>7.6581182617676104E-3</v>
+      </c>
+      <c r="D56" s="8">
+        <v>8.9709385352134796E-2</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1.12829609056709</v>
+      </c>
+      <c r="F56" s="8">
+        <v>12.5870290439605</v>
+      </c>
+      <c r="G56" s="5">
+        <v>69.449235829756503</v>
+      </c>
+      <c r="H56" s="5">
+        <v>134.47947405502401</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -12669,180 +12514,180 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="8">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C59" s="8">
-        <v>0.027350422</v>
+        <v>2.7350421999999999E-2</v>
       </c>
       <c r="D59" s="5">
-        <v>2.47904228302</v>
+        <v>2.4790422830200001</v>
       </c>
       <c r="E59" s="8">
         <v>249.61381203622</v>
       </c>
       <c r="F59" s="8">
-        <v>25154.97916262</v>
+        <v>25154.979162619999</v>
       </c>
       <c r="G59" s="8">
-        <v>597291.35909619</v>
+        <v>597291.35909618996</v>
       </c>
       <c r="H59" s="8">
-        <v>2347234.46204271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>2347234.4620427098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="8">
-        <v>0.0003646722</v>
+        <v>3.6467219999999998E-4</v>
       </c>
       <c r="C60" s="8">
-        <v>0.0361025575</v>
+        <v>3.61025575E-2</v>
       </c>
       <c r="D60" s="8">
-        <v>3.16243816</v>
+        <v>3.1624381600000002</v>
       </c>
       <c r="E60" s="5">
-        <v>243.53071343</v>
+        <v>243.53071342999999</v>
       </c>
       <c r="F60" s="5">
-        <v>23950.1095475583</v>
+        <v>23950.109547558299</v>
       </c>
       <c r="G60" s="8">
-        <v>612276.407178204</v>
+        <v>612276.40717820404</v>
       </c>
       <c r="H60" s="8">
-        <v>2402872.13422274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>2402872.1342227398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="8">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C61" s="8">
-        <v>0.0145868919</v>
+        <v>1.4586891899999999E-2</v>
       </c>
       <c r="D61" s="8">
         <v>1.22931031</v>
       </c>
       <c r="E61" s="5">
-        <v>118.001391589</v>
+        <v>118.00139158899999</v>
       </c>
       <c r="F61" s="5">
-        <v>11270.58101049</v>
+        <v>11270.581010489999</v>
       </c>
       <c r="G61" s="8">
-        <v>180329.1850674</v>
+        <v>180329.18506739999</v>
       </c>
       <c r="H61" s="8">
-        <v>1125942.85658021</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>1125942.8565802099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="8">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C62" s="8">
-        <v>0.00437606</v>
+        <v>4.3760600000000002E-3</v>
       </c>
       <c r="D62" s="8">
-        <v>0.02880911155</v>
+        <v>2.8809111549999999E-2</v>
       </c>
       <c r="E62" s="8">
-        <v>0.34935606</v>
+        <v>0.34935606000000002</v>
       </c>
       <c r="F62" s="8">
-        <v>4.2743240069</v>
+        <v>4.2743240068999997</v>
       </c>
       <c r="G62" s="5">
-        <v>23.9582231</v>
+        <v>23.958223100000001</v>
       </c>
       <c r="H62" s="5">
-        <v>46.170795</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>46.170794999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="8">
-        <v>0.0003646722</v>
+        <v>3.6467219999999998E-4</v>
       </c>
       <c r="C63" s="8">
-        <v>0.0131282027</v>
+        <v>1.3128202699999999E-2</v>
       </c>
       <c r="D63" s="8">
         <v>1.1811735738</v>
       </c>
       <c r="E63" s="5">
-        <v>115.4023721</v>
+        <v>115.40237209999999</v>
       </c>
       <c r="F63" s="5">
         <v>11766.56925054</v>
       </c>
       <c r="G63" s="5">
-        <v>279936.685641768</v>
+        <v>279936.68564176798</v>
       </c>
       <c r="H63" s="5">
         <v>1180015.54233334</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="8">
-        <v>0.0003646722</v>
+        <v>3.6467219999999998E-4</v>
       </c>
       <c r="C64" s="8">
-        <v>0.0003646722</v>
+        <v>3.6467219999999998E-4</v>
       </c>
       <c r="D64" s="8">
-        <v>0.04011392354</v>
+        <v>4.0113923539999999E-2</v>
       </c>
       <c r="E64" s="8">
-        <v>0.9649221972219</v>
+        <v>0.96492219722189998</v>
       </c>
       <c r="F64" s="8">
-        <v>59.8321049963</v>
+        <v>59.832104996299996</v>
       </c>
       <c r="G64" s="8">
-        <v>2012.665789022</v>
+        <v>2012.6657890219999</v>
       </c>
       <c r="H64" s="8">
-        <v>8268.4390943</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>8268.4390942999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B65" s="8">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C65" s="8">
-        <v>0.012398858138</v>
+        <v>1.2398858138000001E-2</v>
       </c>
       <c r="D65" s="8">
         <v>1.0480681849</v>
       </c>
       <c r="E65" s="5">
-        <v>96.008734630885</v>
+        <v>96.008734630885002</v>
       </c>
       <c r="F65" s="14">
-        <v>11075.3613537802</v>
+        <v>11075.361353780199</v>
       </c>
       <c r="G65" s="16">
         <v>240086.623829858</v>
@@ -12851,57 +12696,237 @@
         <v>1004123.06668981</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="B66" s="8">
+        <v>3.6467229817940998E-3</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1.67749257162528E-2</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0.16629056796981001</v>
+      </c>
+      <c r="E66" s="8">
+        <v>1.8609227376095201</v>
+      </c>
+      <c r="F66" s="8">
+        <v>18.095404107960501</v>
+      </c>
+      <c r="G66" s="5">
+        <v>89.1094344301452</v>
+      </c>
+      <c r="H66" s="5">
+        <v>167.466636131439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="B67" s="8">
+        <v>7.2934459635882001E-4</v>
+      </c>
+      <c r="C67" s="8">
+        <v>6.9287736654087898E-3</v>
+      </c>
+      <c r="D67" s="8">
+        <v>8.6792006966699503E-2</v>
+      </c>
+      <c r="E67" s="8">
+        <v>1.18518496908308</v>
+      </c>
+      <c r="F67" s="8">
+        <v>12.6001572466949</v>
+      </c>
+      <c r="G67" s="5">
+        <v>69.987856421327393</v>
+      </c>
+      <c r="H67" s="5">
+        <v>135.265707529899</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{B2CFF243-B058-42AF-B93F-E6B78D00A06A}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Geral!B59:H59</xm:f>
+              <xm:sqref>I59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B60:H60</xm:f>
+              <xm:sqref>I60</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B61:H61</xm:f>
+              <xm:sqref>I61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B62:H62</xm:f>
+              <xm:sqref>I62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B63:H63</xm:f>
+              <xm:sqref>I63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B64:H64</xm:f>
+              <xm:sqref>I64</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B65:H65</xm:f>
+              <xm:sqref>I65</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B66:H66</xm:f>
+              <xm:sqref>I66</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B67:H67</xm:f>
+              <xm:sqref>I67</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{E3264806-B52B-4012-8588-D9BE752B264E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Geral!B48:H48</xm:f>
+              <xm:sqref>I48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B49:H49</xm:f>
+              <xm:sqref>I49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B50:H50</xm:f>
+              <xm:sqref>I50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B51:H51</xm:f>
+              <xm:sqref>I51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B52:H52</xm:f>
+              <xm:sqref>I52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B53:H53</xm:f>
+              <xm:sqref>I53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B54:H54</xm:f>
+              <xm:sqref>I54</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B55:H55</xm:f>
+              <xm:sqref>I55</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B56:H56</xm:f>
+              <xm:sqref>I56</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{667851D9-0D10-465D-B744-F05C0C2F3516}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Geral!B36:H36</xm:f>
+              <xm:sqref>I36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B37:H37</xm:f>
+              <xm:sqref>I37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B38:H38</xm:f>
+              <xm:sqref>I38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B39:H39</xm:f>
+              <xm:sqref>I39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B40:H40</xm:f>
+              <xm:sqref>I40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B41:H41</xm:f>
+              <xm:sqref>I41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B42:H42</xm:f>
+              <xm:sqref>I42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B43:H43</xm:f>
+              <xm:sqref>I43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B44:H44</xm:f>
+              <xm:sqref>I44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Geral!B45:H45</xm:f>
+              <xm:sqref>I45</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.4402985074627" customWidth="1"/>
-    <col min="2" max="2" width="18.1119402985075" customWidth="1"/>
-    <col min="3" max="4" width="18.3283582089552" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -12915,91 +12940,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="5">
-        <v>0.0025658</v>
+        <v>2.5658E-3</v>
       </c>
       <c r="C2" s="6">
-        <v>0.0025658</v>
+        <v>2.5658E-3</v>
       </c>
       <c r="D2" s="7">
-        <v>0.00213817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2.13817E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>0.02309222</v>
+        <v>2.309222E-2</v>
       </c>
       <c r="C3" s="6">
-        <v>0.0252304</v>
+        <v>2.52304E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>0.00213817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2.13817E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>0.31473852</v>
+        <v>0.31473852000000002</v>
       </c>
       <c r="C4" s="9">
-        <v>0.33526509</v>
+        <v>0.33526508999999999</v>
       </c>
       <c r="D4" s="7">
         <v>0.25871959</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="8">
-        <v>4.01419915</v>
+        <v>4.0141991499999996</v>
       </c>
       <c r="C5" s="9">
-        <v>3.31715736</v>
+        <v>3.3171573599999999</v>
       </c>
       <c r="D5" s="7">
-        <v>3.07085196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>3.0708519600000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="8">
-        <v>51.34200555</v>
+        <v>51.342005550000003</v>
       </c>
       <c r="C6" s="9">
-        <v>42.87116925</v>
+        <v>42.871169250000001</v>
       </c>
       <c r="D6" s="7">
         <v>36.31696187</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="5">
-        <v>677.83475286</v>
+        <v>677.83475285999998</v>
       </c>
       <c r="C7" s="6">
-        <v>513.81257996</v>
+        <v>513.81257995999999</v>
       </c>
       <c r="D7" s="10">
-        <v>425.68226068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>425.68226068000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -13013,92 +13038,132 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="5">
+        <v>7.2934459635882001E-4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7.2934459635882001E-4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7.2934459635882001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="8">
+        <v>8.0227847085723395E-3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7.6581182617676104E-3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6.9287736654087898E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="8">
+        <v>0.106848905436895</v>
+      </c>
+      <c r="C13" s="9">
+        <v>8.9709385352134796E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8.6792006966699503E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="8">
+        <v>1.42696166202925</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.12829609056709</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.18518496908308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="8">
+        <v>18.604473067147001</v>
+      </c>
+      <c r="C15" s="9">
+        <v>12.5870290439605</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12.6001572466949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" s="8">
+        <v>107.423263887622</v>
+      </c>
+      <c r="C16" s="9">
+        <v>69.449235829756503</v>
+      </c>
+      <c r="D16" s="7">
+        <v>69.987856421327393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="5">
+        <v>259.05280086354298</v>
+      </c>
+      <c r="C17" s="6">
+        <v>134.47947405502401</v>
+      </c>
+      <c r="D17" s="10">
+        <v>135.265707529899</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.8880597014925"/>
-    <col min="2" max="2" width="23.4402985074627" customWidth="1"/>
-    <col min="3" max="3" width="23.3283582089552" customWidth="1"/>
-    <col min="4" max="4" width="22.5522388059701" customWidth="1"/>
-    <col min="5" max="5" width="12.4925373134328"/>
-    <col min="6" max="6" width="14.1194029850746"/>
-    <col min="7" max="8" width="12.4925373134328"/>
-    <col min="9" max="1025" width="11.3283582089552"/>
+    <col min="1" max="1" width="21.88671875"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625"/>
+    <col min="6" max="6" width="14.109375"/>
+    <col min="7" max="8" width="12.44140625"/>
+    <col min="9" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -13112,77 +13177,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C2" s="6">
-        <v>0.0012829</v>
+        <v>1.2829E-3</v>
       </c>
       <c r="D2" s="7">
-        <v>0.00171053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.71053E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>0.08125043</v>
+        <v>8.1250429999999998E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>0.03463833</v>
+        <v>3.4638330000000002E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>0.09023074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.0230740000000004E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>6.86352364</v>
+        <v>6.8635236400000004</v>
       </c>
       <c r="C4" s="9">
         <v>3.45570931</v>
       </c>
       <c r="D4" s="10">
-        <v>9.0863645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9.0863645000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="5">
-        <v>879.92810661</v>
+        <v>879.92810660999999</v>
       </c>
       <c r="C5" s="6">
-        <v>346.92695885</v>
+        <v>346.92695885000001</v>
       </c>
       <c r="D5" s="7">
-        <v>912.39535264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>912.39535264000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="5">
-        <v>99342.69081771</v>
+        <v>99342.690817709998</v>
       </c>
       <c r="C6" s="6">
-        <v>35107.45241824</v>
+        <v>35107.452418239998</v>
       </c>
       <c r="D6" s="11">
-        <v>88249.403789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>88249.403789000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
@@ -13190,13 +13255,13 @@
         <v>10671006.8990172</v>
       </c>
       <c r="C7" s="6">
-        <v>3462956.62466874</v>
+        <v>3462956.6246687402</v>
       </c>
       <c r="D7" s="11">
-        <v>9144960.6452824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>9144960.6452824008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -13210,133 +13275,172 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>0.00036467229817941</v>
+        <v>3.6467229817941E-4</v>
       </c>
       <c r="C11" s="5">
-        <v>0.00036467229817941</v>
+        <v>3.6467229817941E-4</v>
       </c>
       <c r="D11" s="8">
-        <v>0.00072934459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>7.2934458999999996E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="13">
-        <v>0.0251623792223405</v>
+        <v>2.5162379222340499E-2</v>
       </c>
       <c r="C12" s="8">
-        <v>0.0113048412435617</v>
+        <v>1.13048412435617E-2</v>
       </c>
       <c r="D12" s="8">
-        <v>0.027350422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>2.7350421999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
       <c r="B13" s="13">
-        <v>2.02721182704334</v>
+        <v>2.0272118270433399</v>
       </c>
       <c r="C13" s="8">
-        <v>1.07031319515656</v>
+        <v>1.0703131951565601</v>
       </c>
       <c r="D13" s="5">
-        <v>2.47904228302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>2.4790422830200001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
       <c r="B14" s="13">
-        <v>260.856104062811</v>
+        <v>260.85610406281103</v>
       </c>
       <c r="C14" s="5">
-        <v>99.283491868537</v>
+        <v>99.283491868536998</v>
       </c>
       <c r="D14" s="8">
         <v>249.61381203622</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
       <c r="B15" s="19">
-        <v>29710.6464461251</v>
+        <v>29710.646446125102</v>
       </c>
       <c r="C15" s="5">
-        <v>9664.62109818</v>
+        <v>9664.6210981799995</v>
       </c>
       <c r="D15" s="8">
-        <v>25154.97916262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>25154.979162619999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
       <c r="B16" s="13">
-        <v>746315.855575288</v>
+        <v>746315.85557528795</v>
       </c>
       <c r="C16" s="8">
-        <v>245270.455365966</v>
+        <v>245270.45536596599</v>
       </c>
       <c r="D16" s="8">
-        <v>597291.35909619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>597291.35909618996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
       <c r="B17" s="13">
-        <v>3014609.04358125</v>
+        <v>3014609.0435812501</v>
       </c>
       <c r="C17" s="8">
-        <v>967866.559841994</v>
+        <v>967866.55984199396</v>
       </c>
       <c r="D17" s="8">
-        <v>2347234.46204271</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+        <v>2347234.4620427098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -13347,26 +13451,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5522388059701" customWidth="1"/>
-    <col min="2" max="2" width="22.3283582089552" customWidth="1"/>
-    <col min="3" max="3" width="22.5522388059701" customWidth="1"/>
-    <col min="4" max="4" width="22.1119402985075" customWidth="1"/>
-    <col min="5" max="5" width="15.2388059701493"/>
-    <col min="6" max="7" width="12.4925373134328"/>
-    <col min="8" max="1025" width="11.3283582089552"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.21875"/>
+    <col min="6" max="7" width="12.44140625"/>
+    <col min="8" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13380,77 +13483,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C2" s="9">
-        <v>0.00042763</v>
+        <v>4.2763000000000002E-4</v>
       </c>
       <c r="D2" s="7">
-        <v>0.00171054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.71054E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="5">
-        <v>0.0846715</v>
+        <v>8.4671499999999997E-2</v>
       </c>
       <c r="C3" s="6">
-        <v>0.0012829</v>
+        <v>1.2829E-3</v>
       </c>
       <c r="D3" s="7">
-        <v>0.09407985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.4079850000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>7.13592641</v>
+        <v>7.1359264099999997</v>
       </c>
       <c r="C4" s="9">
-        <v>0.00726977</v>
+        <v>7.2697700000000001E-3</v>
       </c>
       <c r="D4" s="7">
-        <v>9.29423431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9.2942343100000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="5">
-        <v>908.12799423</v>
+        <v>908.12799423000001</v>
       </c>
       <c r="C5" s="9">
-        <v>0.06671088</v>
+        <v>6.671088E-2</v>
       </c>
       <c r="D5" s="10">
-        <v>921.18033258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>921.18033258000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="5">
-        <v>102421.3497921</v>
+        <v>102421.34979209999</v>
       </c>
       <c r="C6" s="6">
-        <v>0.6906287</v>
+        <v>0.69062869999999998</v>
       </c>
       <c r="D6" s="10">
-        <v>95060.10377007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>95060.103770069996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
@@ -13458,13 +13561,13 @@
         <v>10227994.7349717</v>
       </c>
       <c r="C7" s="9">
-        <v>6.68306214</v>
+        <v>6.6830621399999997</v>
       </c>
       <c r="D7" s="10">
-        <v>9101019.77834847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>9101019.7783484701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -13478,77 +13581,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>0.0003646722</v>
+        <v>3.6467219999999998E-4</v>
       </c>
       <c r="C11" s="5">
-        <v>0.00036467229817941</v>
+        <v>3.6467229817941E-4</v>
       </c>
       <c r="D11" s="8">
-        <v>0.0003646722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>3.6467219999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="13">
-        <v>0.0244330261</v>
+        <v>2.4433026100000001E-2</v>
       </c>
       <c r="C12" s="5">
-        <v>0.00036467</v>
+        <v>3.6466999999999999E-4</v>
       </c>
       <c r="D12" s="8">
-        <v>0.0361025575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>3.61025575E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
       <c r="B13" s="13">
-        <v>2.0326819075</v>
+        <v>2.0326819075000002</v>
       </c>
       <c r="C13" s="8">
-        <v>0.002188033</v>
+        <v>2.1880329999999998E-3</v>
       </c>
       <c r="D13" s="8">
-        <v>3.16243816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>3.1624381600000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
       <c r="B14" s="13">
-        <v>271.69306284</v>
+        <v>271.69306283999998</v>
       </c>
       <c r="C14" s="8">
-        <v>0.0207863</v>
+        <v>2.0786300000000001E-2</v>
       </c>
       <c r="D14" s="5">
-        <v>243.53071343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>243.53071342999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
       <c r="B15" s="19">
-        <v>29745.6117191</v>
+        <v>29745.611719100001</v>
       </c>
       <c r="C15" s="5">
-        <v>0.20749853766</v>
+        <v>0.20749853766000001</v>
       </c>
       <c r="D15" s="5">
-        <v>23950.1095475583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>23950.109547558299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
@@ -13556,97 +13659,64 @@
         <v>739743.55642752</v>
       </c>
       <c r="C16" s="8">
-        <v>1.01707029</v>
+        <v>1.0170702899999999</v>
       </c>
       <c r="D16" s="8">
-        <v>612276.407178204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>612276.40717820404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
       <c r="B17" s="13">
-        <v>298860.776139345</v>
+        <v>2988860.7761393399</v>
       </c>
       <c r="C17" s="8">
-        <v>2.146461147</v>
+        <v>2.1464611470000001</v>
       </c>
       <c r="D17" s="8">
-        <v>2402872.13422274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="13">
-        <v>0.0003646722</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0.0244330261</v>
-      </c>
-      <c r="C22" s="13">
-        <v>2.0326819075</v>
-      </c>
-      <c r="D22" s="13">
-        <v>271.69306284</v>
-      </c>
-      <c r="E22" s="19">
-        <v>29745.6117191</v>
-      </c>
-      <c r="F22" s="13">
-        <v>739743.55642752</v>
-      </c>
-      <c r="G22" s="13">
-        <v>298860.776139345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="5">
-        <v>0.00036467229817941</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.00036467</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.002188033</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.0207863</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.20749853766</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1.01707029</v>
-      </c>
-      <c r="G23" s="8">
-        <v>2.146461147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
-        <v>0.0003646722</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.0361025575</v>
-      </c>
-      <c r="C24" s="8">
-        <v>3.16243816</v>
-      </c>
-      <c r="D24" s="5">
-        <v>243.53071343</v>
-      </c>
-      <c r="E24" s="5">
-        <v>23950.1095475583</v>
-      </c>
-      <c r="F24" s="8">
-        <v>612276.407178204</v>
-      </c>
-      <c r="G24" s="8">
-        <v>2402872.13422274</v>
-      </c>
+        <v>2402872.1342227398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -13657,25 +13727,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.8880597014925"/>
-    <col min="2" max="2" width="25.1119402985075" customWidth="1"/>
-    <col min="3" max="4" width="22.4402985074627" customWidth="1"/>
-    <col min="5" max="5" width="15.2388059701493"/>
-    <col min="6" max="7" width="12.4925373134328"/>
-    <col min="8" max="1025" width="11.3283582089552"/>
+    <col min="1" max="1" width="23.88671875"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875"/>
+    <col min="6" max="7" width="12.44140625"/>
+    <col min="8" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -13689,49 +13758,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>0.00213816</v>
+        <v>2.1381600000000001E-3</v>
       </c>
       <c r="C2" s="9">
-        <v>0.00213817</v>
+        <v>2.13817E-3</v>
       </c>
       <c r="D2" s="7">
-        <v>0.00213816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2.1381600000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>0.02009879</v>
+        <v>2.0098789999999998E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>0.04190811</v>
+        <v>4.1908109999999998E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>0.04276338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>4.2763379999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>0.25187635</v>
+        <v>0.25187635000000003</v>
       </c>
       <c r="C4" s="9">
-        <v>3.49633453</v>
+        <v>3.4963345299999999</v>
       </c>
       <c r="D4" s="7">
-        <v>3.50018324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3.5001832400000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
@@ -13739,41 +13808,41 @@
         <v>3.13926025</v>
       </c>
       <c r="C5" s="6">
-        <v>347.60191374</v>
+        <v>347.60191373999999</v>
       </c>
       <c r="D5" s="10">
-        <v>338.29645293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>338.29645292999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="8">
-        <v>38.47764052</v>
+        <v>38.477640520000001</v>
       </c>
       <c r="C6" s="6">
-        <v>34421.03352308</v>
+        <v>34421.033523079997</v>
       </c>
       <c r="D6" s="10">
-        <v>33710.40292091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>33710.402920909997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="5">
-        <v>502.00196797</v>
+        <v>502.00196797000001</v>
       </c>
       <c r="C7" s="6">
         <v>3293236.44432698</v>
       </c>
       <c r="D7" s="10">
-        <v>3371497.88171561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3371497.8817156102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -13787,175 +13856,133 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C11" s="8">
-        <v>0.000364672</v>
+        <v>3.6467200000000002E-4</v>
       </c>
       <c r="D11" s="8">
-        <v>0.00072934459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>7.2934458999999996E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="13">
-        <v>0.006928768</v>
+        <v>6.9287680000000001E-3</v>
       </c>
       <c r="C12" s="8">
-        <v>0.00765811</v>
+        <v>7.6581100000000001E-3</v>
       </c>
       <c r="D12" s="8">
-        <v>0.0145868919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1.4586891899999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
       <c r="B13" s="13">
-        <v>0.08715661</v>
+        <v>8.7156609999999995E-2</v>
       </c>
       <c r="C13" s="8">
-        <v>0.7917035593</v>
+        <v>0.79170355930000003</v>
       </c>
       <c r="D13" s="8">
         <v>1.22931031</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
       <c r="B14" s="13">
-        <v>1.101309537</v>
+        <v>1.1013095369999999</v>
       </c>
       <c r="C14" s="5">
-        <v>59.3376652998</v>
+        <v>59.337665299800001</v>
       </c>
       <c r="D14" s="5">
-        <v>118.001391589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>118.00139158899999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
       <c r="B15" s="19">
-        <v>13.8852522983</v>
+        <v>13.885252298299999</v>
       </c>
       <c r="C15" s="5">
         <v>11124.6650484941</v>
       </c>
       <c r="D15" s="5">
-        <v>11270.58101049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>11270.581010489999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
       <c r="B16" s="13">
-        <v>72.33087422826</v>
+        <v>72.330874228260001</v>
       </c>
       <c r="C16" s="8">
         <v>140101.38903577</v>
       </c>
       <c r="D16" s="8">
-        <v>180329.1850674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>180329.18506739999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
       <c r="B17" s="13">
-        <v>154.0616471</v>
+        <v>154.06164709999999</v>
       </c>
       <c r="C17" s="8">
-        <v>1193754.9044777</v>
+        <v>1193754.9044776999</v>
       </c>
       <c r="D17" s="8">
-        <v>1125942.85658021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="13">
-        <v>0.00072934459</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0.006928768</v>
-      </c>
-      <c r="C22" s="13">
-        <v>0.08715661</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1.101309537</v>
-      </c>
-      <c r="E22" s="19">
-        <v>13.8852522983</v>
-      </c>
-      <c r="F22" s="13">
-        <v>72.33087422826</v>
-      </c>
-      <c r="G22" s="13">
-        <v>154.0616471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.00765811</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.7917035593</v>
-      </c>
-      <c r="D23" s="5">
-        <v>59.3376652998</v>
-      </c>
-      <c r="E23" s="5">
-        <v>11124.6650484941</v>
-      </c>
-      <c r="F23" s="8">
-        <v>140101.38903577</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1193754.9044777</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
-        <v>0.00072934459</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.0145868919</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1.22931031</v>
-      </c>
-      <c r="D24" s="5">
-        <v>118.001391589</v>
-      </c>
-      <c r="E24" s="5">
-        <v>11270.58101049</v>
-      </c>
-      <c r="F24" s="8">
-        <v>180329.1850674</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1125942.85658021</v>
-      </c>
+        <v>1125942.8565802099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -13966,27 +13993,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.8880597014925" customWidth="1"/>
-    <col min="2" max="2" width="22.5522388059701" customWidth="1"/>
-    <col min="3" max="3" width="22.6641791044776" customWidth="1"/>
-    <col min="4" max="4" width="22.4402985074627" customWidth="1"/>
-    <col min="5" max="5" width="12.4925373134328"/>
-    <col min="6" max="6" width="11.9925373134328"/>
-    <col min="7" max="7" width="12.4925373134328"/>
-    <col min="8" max="1025" width="11.3283582089552"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625"/>
+    <col min="6" max="6" width="12"/>
+    <col min="7" max="7" width="12.44140625"/>
+    <col min="8" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14000,49 +14026,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="5">
-        <v>0.0025658</v>
+        <v>2.5658E-3</v>
       </c>
       <c r="C2" s="9">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="D2" s="7">
-        <v>0.00171054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.71054E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>0.02608566</v>
+        <v>2.608566E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>0.01282902</v>
+        <v>1.282902E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>0.01069089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1.069089E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>0.31602143</v>
+        <v>0.31602142999999999</v>
       </c>
       <c r="C4" s="9">
-        <v>0.11845463</v>
+        <v>0.11845463000000001</v>
       </c>
       <c r="D4" s="7">
-        <v>0.08937586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.9375860000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
@@ -14056,35 +14082,35 @@
         <v>1.15589929</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="8">
-        <v>42.59147836</v>
+        <v>42.591478360000004</v>
       </c>
       <c r="C6" s="9">
-        <v>16.37966719</v>
+        <v>16.379667189999999</v>
       </c>
       <c r="D6" s="7">
         <v>14.63027258</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="5">
-        <v>458.47610959</v>
+        <v>458.47610959000002</v>
       </c>
       <c r="C7" s="9">
         <v>148.39878911</v>
       </c>
       <c r="D7" s="10">
-        <v>150.62954389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>150.62954389000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -14098,35 +14124,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>0.00036467229817</v>
+        <v>3.6467229817E-4</v>
       </c>
       <c r="C11" s="13">
-        <v>0.00036467229817</v>
+        <v>3.6467229817E-4</v>
       </c>
       <c r="D11" s="8">
-        <v>0.00072934459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>7.2934458999999996E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="13">
-        <v>0.0083874567</v>
+        <v>8.3874567000000004E-3</v>
       </c>
       <c r="C12" s="8">
-        <v>0.0040113952</v>
+        <v>4.0113952000000001E-3</v>
       </c>
       <c r="D12" s="8">
-        <v>0.00437606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>4.3760600000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
@@ -14134,27 +14160,27 @@
         <v>0.1068489054</v>
       </c>
       <c r="C13" s="8">
-        <v>0.0266210777</v>
+        <v>2.6621077699999999E-2</v>
       </c>
       <c r="D13" s="8">
-        <v>0.02880911155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>2.8809111549999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
       <c r="B14" s="13">
-        <v>1.26541195</v>
+        <v>1.2654119500000001</v>
       </c>
       <c r="C14" s="8">
-        <v>0.3650369704</v>
+        <v>0.36503697039999999</v>
       </c>
       <c r="D14" s="8">
-        <v>0.34935606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.34935606000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
@@ -14165,108 +14191,75 @@
         <v>4.1280904153</v>
       </c>
       <c r="D15" s="8">
-        <v>4.2743240069</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>4.2743240068999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
       <c r="B16" s="13">
-        <v>76.8192576006</v>
+        <v>76.819257600599997</v>
       </c>
       <c r="C16" s="8">
         <v>24.222610395</v>
       </c>
       <c r="D16" s="5">
-        <v>23.9582231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>23.958223100000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
       <c r="B17" s="13">
-        <v>158.270694788249</v>
+        <v>158.27069478824899</v>
       </c>
       <c r="C17" s="8">
         <v>44.254806745562</v>
       </c>
       <c r="D17" s="5">
-        <v>46.170795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="13">
-        <v>0.00036467229817</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0.0083874567</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.1068489054</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1.26541195</v>
-      </c>
-      <c r="E21" s="19">
-        <v>16.926617046</v>
-      </c>
-      <c r="F21" s="13">
-        <v>76.8192576006</v>
-      </c>
-      <c r="G21" s="13">
-        <v>158.270694788249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.0040113952</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.0266210777</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.3650369704</v>
-      </c>
-      <c r="E22" s="8">
-        <v>4.1280904153</v>
-      </c>
-      <c r="F22" s="8">
-        <v>24.222610395</v>
-      </c>
-      <c r="G22" s="8">
-        <v>44.254806745562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8">
-        <v>0.00072934459</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.00437606</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.02880911155</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.34935606</v>
-      </c>
-      <c r="E23" s="8">
-        <v>4.2743240069</v>
-      </c>
-      <c r="F23" s="5">
-        <v>23.9582231</v>
-      </c>
-      <c r="G23" s="5">
-        <v>46.170795</v>
-      </c>
+        <v>46.170794999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -14277,27 +14270,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.8880597014925"/>
-    <col min="2" max="2" width="22.5522388059701" customWidth="1"/>
-    <col min="3" max="3" width="22.4402985074627" customWidth="1"/>
-    <col min="4" max="4" width="22.5522388059701" customWidth="1"/>
-    <col min="5" max="5" width="15.2388059701493"/>
-    <col min="6" max="6" width="16.365671641791"/>
-    <col min="7" max="7" width="17.4925373134328"/>
-    <col min="8" max="1025" width="11.3283582089552"/>
+    <col min="1" max="1" width="22.88671875"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875"/>
+    <col min="6" max="6" width="16.33203125"/>
+    <col min="7" max="7" width="17.44140625"/>
+    <col min="8" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -14311,91 +14303,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>0.00085526</v>
+        <v>8.5526000000000005E-4</v>
       </c>
       <c r="C2" s="9">
-        <v>0.00042763</v>
+        <v>4.2763000000000002E-4</v>
       </c>
       <c r="D2" s="10">
-        <v>0.0012829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.2829E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>0.02138169</v>
+        <v>2.1381689999999998E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="D3" s="7">
-        <v>0.03848721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3.8487210000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>1.78579904</v>
+        <v>1.7857990399999999</v>
       </c>
       <c r="C4" s="9">
-        <v>0.01069084</v>
+        <v>1.069084E-2</v>
       </c>
       <c r="D4" s="7">
-        <v>3.56434356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3.5643435600000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="5">
-        <v>178.72316223</v>
+        <v>178.72316223000001</v>
       </c>
       <c r="C5" s="6">
         <v>0.1099019</v>
       </c>
       <c r="D5" s="10">
-        <v>377.07120006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>377.07120006000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="5">
-        <v>18256.02525434</v>
+        <v>18256.025254339998</v>
       </c>
       <c r="C6" s="6">
         <v>1.0297428</v>
       </c>
       <c r="D6" s="10">
-        <v>38632.69642697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>38632.696426969997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="5">
-        <v>2102130.7931026</v>
+        <v>2102130.7931026001</v>
       </c>
       <c r="C7" s="9">
         <v>13.24639247</v>
       </c>
       <c r="D7" s="10">
-        <v>4198039.24498351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>4198039.2449835101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -14409,68 +14401,68 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C11" s="8">
-        <v>0.000364672</v>
+        <v>3.6467200000000002E-4</v>
       </c>
       <c r="D11" s="8">
-        <v>0.000364672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>3.6467200000000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="13">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C12" s="8">
-        <v>0.000364672</v>
+        <v>3.6467200000000002E-4</v>
       </c>
       <c r="D12" s="8">
-        <v>0.0131282027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1.3128202699999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
       <c r="B13" s="13">
-        <v>0.61811909459</v>
+        <v>0.61811909459000003</v>
       </c>
       <c r="C13" s="8">
-        <v>0.002917378385</v>
+        <v>2.9173783850000002E-3</v>
       </c>
       <c r="D13" s="8">
         <v>1.1811735738</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
       <c r="B14" s="13">
-        <v>58.7771088071</v>
+        <v>58.777108807099999</v>
       </c>
       <c r="C14" s="5">
-        <v>0.031361817</v>
+        <v>3.1361817E-2</v>
       </c>
       <c r="D14" s="5">
-        <v>115.4023721</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>115.40237209999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
       <c r="B15" s="13">
-        <v>5917.273055477</v>
+        <v>5917.2730554769996</v>
       </c>
       <c r="C15" s="5">
         <v>0.3066894</v>
@@ -14479,105 +14471,63 @@
         <v>11766.56925054</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
       <c r="B16" s="15">
-        <v>139065.63039</v>
+        <v>139065.63039000001</v>
       </c>
       <c r="C16" s="8">
         <v>1.527611142</v>
       </c>
       <c r="D16" s="5">
-        <v>279936.685641768</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>279936.68564176798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
       <c r="B17" s="15">
-        <v>558118.936776</v>
+        <v>558118.93677599996</v>
       </c>
       <c r="C17" s="8">
-        <v>3.35206776486</v>
+        <v>3.3520677648600001</v>
       </c>
       <c r="D17" s="5">
         <v>1180015.54233334</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="13">
-        <v>0.00072934459</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0.00072934459</v>
-      </c>
-      <c r="C22" s="13">
-        <v>0.61811909459</v>
-      </c>
-      <c r="D22" s="13">
-        <v>58.7771088071</v>
-      </c>
-      <c r="E22" s="13">
-        <v>5917.273055477</v>
-      </c>
-      <c r="F22" s="15">
-        <v>139065.63039</v>
-      </c>
-      <c r="G22" s="15">
-        <v>558118.936776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.002917378385</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.031361817</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.3066894</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1.527611142</v>
-      </c>
-      <c r="G23" s="8">
-        <v>3.35206776486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8">
-        <v>0.0003646722</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.0131282027</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1.1811735738</v>
-      </c>
-      <c r="D24" s="5">
-        <v>115.4023721</v>
-      </c>
-      <c r="E24" s="5">
-        <v>11766.56925054</v>
-      </c>
-      <c r="F24" s="5">
-        <v>279936.685641768</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1180015.54233334</v>
-      </c>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -14588,23 +14538,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="4" width="22.6641791044776" customWidth="1"/>
-    <col min="5" max="7" width="12.4925373134328"/>
-    <col min="8" max="1025" width="11.3283582089552"/>
+    <col min="2" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="7" width="12.44140625"/>
+    <col min="8" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -14618,35 +14567,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C2" s="6">
-        <v>0.0012829</v>
+        <v>1.2829E-3</v>
       </c>
       <c r="D2" s="17">
-        <v>0.0012829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.2829E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>0.01924352</v>
+        <v>1.924352E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>0.00555924</v>
+        <v>5.55924E-3</v>
       </c>
       <c r="D3" s="18">
-        <v>0.00940794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.4079400000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
@@ -14654,32 +14603,32 @@
         <v>0.29506737</v>
       </c>
       <c r="C4" s="9">
-        <v>0.05131608</v>
+        <v>5.131608E-2</v>
       </c>
       <c r="D4" s="18">
-        <v>0.10904663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.10904663000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="8">
-        <v>4.32722714</v>
+        <v>4.3272271399999997</v>
       </c>
       <c r="C5" s="9">
-        <v>0.85056377</v>
+        <v>0.85056377000000005</v>
       </c>
       <c r="D5" s="18">
-        <v>1.37227709</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.3722770900000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="8">
-        <v>62.99944963</v>
+        <v>62.999449630000001</v>
       </c>
       <c r="C6" s="9">
         <v>11.01884197</v>
@@ -14688,21 +14637,21 @@
         <v>16.41515338</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="5">
-        <v>883.60746802</v>
+        <v>883.60746802000006</v>
       </c>
       <c r="C7" s="6">
         <v>124.85733492</v>
       </c>
       <c r="D7" s="18">
-        <v>187.48110392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>187.48110392000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -14716,175 +14665,133 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>0.00072934459</v>
+        <v>7.2934458999999996E-4</v>
       </c>
       <c r="C11" s="8">
-        <v>0.000364672</v>
+        <v>3.6467200000000002E-4</v>
       </c>
       <c r="D11" s="8">
-        <v>0.000364672</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>3.6467200000000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="13">
-        <v>0.0069287686</v>
+        <v>6.9287686000000003E-3</v>
       </c>
       <c r="C12" s="8">
-        <v>0.0021880321</v>
+        <v>2.1880320999999999E-3</v>
       </c>
       <c r="D12" s="8">
-        <v>0.0003646722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>3.6467219999999998E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
       <c r="B13" s="13">
-        <v>0.111224969</v>
+        <v>0.11122496900000001</v>
       </c>
       <c r="C13" s="8">
-        <v>0.0506894124</v>
+        <v>5.0689412400000002E-2</v>
       </c>
       <c r="D13" s="8">
-        <v>0.04011392354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>4.0113923539999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
       <c r="B14" s="13">
-        <v>1.789445662043</v>
+        <v>1.7894456620429999</v>
       </c>
       <c r="C14" s="8">
-        <v>0.27459804025</v>
+        <v>0.27459804025000001</v>
       </c>
       <c r="D14" s="8">
-        <v>0.9649221972219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.96492219722189998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
       <c r="B15" s="13">
-        <v>43.34564709228</v>
+        <v>43.345647092279997</v>
       </c>
       <c r="C15" s="8">
         <v>2.812715384419</v>
       </c>
       <c r="D15" s="8">
-        <v>59.8321049963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>59.832104996299996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
       <c r="B16" s="13">
-        <v>923.6486166166</v>
+        <v>923.64861661659995</v>
       </c>
       <c r="C16" s="5">
-        <v>14.8370463024</v>
+        <v>14.837046302399999</v>
       </c>
       <c r="D16" s="8">
-        <v>2012.665789022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>2012.6657890219999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
       <c r="B17" s="13">
-        <v>3940.740794766</v>
+        <v>3940.7407947659999</v>
       </c>
       <c r="C17" s="5">
-        <v>30.0471520937644</v>
+        <v>30.047152093764399</v>
       </c>
       <c r="D17" s="8">
-        <v>8268.4390943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="13">
-        <v>0.00072934459</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0.0069287686</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.111224969</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1.789445662043</v>
-      </c>
-      <c r="E21" s="13">
-        <v>43.34564709228</v>
-      </c>
-      <c r="F21" s="13">
-        <v>923.6486166166</v>
-      </c>
-      <c r="G21" s="13">
-        <v>3940.740794766</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.0021880321</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.0506894124</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.27459804025</v>
-      </c>
-      <c r="E22" s="8">
-        <v>2.812715384419</v>
-      </c>
-      <c r="F22" s="5">
-        <v>14.8370463024</v>
-      </c>
-      <c r="G22" s="5">
-        <v>30.0471520937644</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8">
-        <v>0.0003646722</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.0003646722</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.04011392354</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.9649221972219</v>
-      </c>
-      <c r="E23" s="8">
-        <v>59.8321049963</v>
-      </c>
-      <c r="F23" s="8">
-        <v>2012.665789022</v>
-      </c>
-      <c r="G23" s="8">
-        <v>8268.4390943</v>
-      </c>
+        <v>8268.4390942999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -14895,24 +14802,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="22.6641791044776" customWidth="1"/>
-    <col min="4" max="4" width="22.3283582089552" customWidth="1"/>
-    <col min="5" max="5" width="14.1194029850746"/>
-    <col min="6" max="7" width="16.365671641791"/>
-    <col min="8" max="1025" width="11.3283582089552"/>
+    <col min="1" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.109375"/>
+    <col min="6" max="7" width="16.33203125"/>
+    <col min="8" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -14926,63 +14832,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>0.00171053</v>
+        <v>1.71053E-3</v>
       </c>
       <c r="C2" s="9">
-        <v>0.00085527</v>
+        <v>8.5526999999999999E-4</v>
       </c>
       <c r="D2" s="7">
-        <v>0.00171053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.71053E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>0.04447392</v>
+        <v>4.447392E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>0.03506612</v>
+        <v>3.5066119999999999E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>0.03634887</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3.6348869999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>3.34580741</v>
+        <v>3.3458074099999999</v>
       </c>
       <c r="C4" s="9">
-        <v>3.69947644</v>
+        <v>3.6994764400000002</v>
       </c>
       <c r="D4" s="7">
-        <v>3.21623435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3.2162343500000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="5">
-        <v>322.75837531</v>
+        <v>322.75837531000002</v>
       </c>
       <c r="C5" s="6">
-        <v>325.18958159</v>
+        <v>325.18958158999999</v>
       </c>
       <c r="D5" s="10">
-        <v>321.84409401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>321.84409400999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
@@ -14990,13 +14896,13 @@
         <v>32191.3011573</v>
       </c>
       <c r="C6" s="6">
-        <v>32220.11948996</v>
+        <v>32220.119489960001</v>
       </c>
       <c r="D6" s="12">
         <v>33223.17525</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
@@ -15004,13 +14910,13 @@
         <v>3305599.08683063</v>
       </c>
       <c r="C7" s="6">
-        <v>3363985.47284973</v>
+        <v>3363985.4728497299</v>
       </c>
       <c r="D7" s="12">
-        <v>3142924.25278464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3142924.2527846401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -15024,82 +14930,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>0.00036467229817</v>
+        <v>3.6467229817E-4</v>
       </c>
       <c r="C11" s="13">
-        <v>0.00036467229817</v>
+        <v>3.6467229817E-4</v>
       </c>
       <c r="D11" s="8">
-        <v>0.00072934459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>7.2934458999999996E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="13">
-        <v>0.014222209</v>
+        <v>1.4222209E-2</v>
       </c>
       <c r="C12" s="8">
-        <v>0.01094016894</v>
+        <v>1.094016894E-2</v>
       </c>
       <c r="D12" s="8">
-        <v>0.012398858138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1.2398858138000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
       <c r="B13" s="13">
-        <v>1.012694233</v>
+        <v>1.0126942329999999</v>
       </c>
       <c r="C13" s="8">
-        <v>0.995920046</v>
+        <v>0.99592004599999995</v>
       </c>
       <c r="D13" s="8">
         <v>1.0480681849</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
       <c r="B14" s="13">
-        <v>96.020334112515</v>
+        <v>96.020334112515002</v>
       </c>
       <c r="C14" s="5">
-        <v>93.853886</v>
+        <v>93.853886000000003</v>
       </c>
       <c r="D14" s="5">
-        <v>96.008734630885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>96.008734630885002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
       <c r="B15" s="13">
-        <v>9003.37941572246</v>
+        <v>9003.3794157224602</v>
       </c>
       <c r="C15" s="5">
-        <v>9437.8098802853</v>
+        <v>9437.8098802853001</v>
       </c>
       <c r="D15" s="14">
-        <v>11075.3613537802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>11075.361353780199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
       <c r="B16" s="15">
-        <v>224160.39771131</v>
+        <v>224160.39771131001</v>
       </c>
       <c r="C16" s="5">
         <v>226727.231519333</v>
@@ -15108,91 +15014,49 @@
         <v>240086.623829858</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
       <c r="B17" s="15">
-        <v>903981.375821059</v>
+        <v>903981.37582105899</v>
       </c>
       <c r="C17" s="5">
-        <v>949199.76092084</v>
+        <v>949199.76092083997</v>
       </c>
       <c r="D17" s="16">
         <v>1004123.06668981</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="13">
-        <v>0.00036467229817</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0.014222209</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1.012694233</v>
-      </c>
-      <c r="D21" s="13">
-        <v>96.020334112515</v>
-      </c>
-      <c r="E21" s="13">
-        <v>9003.37941572246</v>
-      </c>
-      <c r="F21" s="15">
-        <v>224160.39771131</v>
-      </c>
-      <c r="G21" s="15">
-        <v>903981.375821059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.01094016894</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.995920046</v>
-      </c>
-      <c r="D22" s="5">
-        <v>93.853886</v>
-      </c>
-      <c r="E22" s="5">
-        <v>9437.8098802853</v>
-      </c>
-      <c r="F22" s="5">
-        <v>226727.231519333</v>
-      </c>
-      <c r="G22" s="5">
-        <v>949199.76092084</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8">
-        <v>0.00072934459</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0.012398858138</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1.0480681849</v>
-      </c>
-      <c r="D23" s="5">
-        <v>96.008734630885</v>
-      </c>
-      <c r="E23" s="14">
-        <v>11075.3613537802</v>
-      </c>
-      <c r="F23" s="16">
-        <v>240086.623829858</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1004123.06668981</v>
-      </c>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -15203,22 +15067,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.4402985074627" customWidth="1"/>
-    <col min="2" max="2" width="18.5522388059701" customWidth="1"/>
-    <col min="3" max="4" width="18.1119402985075" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -15232,68 +15095,68 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>0.01026321</v>
+        <v>1.026321E-2</v>
       </c>
       <c r="C2" s="9">
-        <v>0.01282902</v>
+        <v>1.282902E-2</v>
       </c>
       <c r="D2" s="7">
-        <v>0.01197379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1.197379E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>0.07227012</v>
+        <v>7.2270119999999993E-2</v>
       </c>
       <c r="C3" s="9">
-        <v>0.08723734</v>
+        <v>8.7237339999999997E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>0.05815845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>5.815845E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>0.63802973</v>
+        <v>0.63802972999999996</v>
       </c>
       <c r="C4" s="9">
         <v>0.53710837</v>
       </c>
       <c r="D4" s="7">
-        <v>0.74194794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.74194793999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="8">
-        <v>8.37905808</v>
+        <v>8.3790580800000001</v>
       </c>
       <c r="C5" s="6">
-        <v>6.9097081</v>
+        <v>6.9097080999999996</v>
       </c>
       <c r="D5" s="7">
-        <v>6.90246784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6.9024678399999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="8">
-        <v>83.84360745</v>
+        <v>83.843607449999993</v>
       </c>
       <c r="C6" s="9">
         <v>63.42751114</v>
@@ -15302,7 +15165,7 @@
         <v>59.47728377</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
@@ -15310,13 +15173,13 @@
         <v>836.49889306</v>
       </c>
       <c r="C7" s="6">
-        <v>695.48820414</v>
+        <v>695.48820413999999</v>
       </c>
       <c r="D7" s="10">
-        <v>567.58504284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>567.58504284000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -15330,66 +15193,107 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="8">
+        <v>3.2820506836146899E-3</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4.3760675781529196E-3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.6467229817940998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="8">
+        <v>2.0421633803638602E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2.55270608725587E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.67749257162528E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="8">
+        <v>0.195099537231191</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.246518473569281</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.16629056796981001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="8">
+        <v>2.4535134326943</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.8590993761186301</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.8609227376095201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="8">
+        <v>25.521572174065199</v>
+      </c>
+      <c r="C15" s="9">
+        <v>17.6720195697742</v>
+      </c>
+      <c r="D15" s="7">
+        <v>18.095404107960501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" s="8">
+        <v>126.48612969925399</v>
+      </c>
+      <c r="C16" s="9">
+        <v>90.197615774253407</v>
+      </c>
+      <c r="D16" s="7">
+        <v>89.1094344301452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="5">
+        <v>251.97269335822801</v>
+      </c>
+      <c r="C17" s="6">
+        <v>168.835980611103</v>
+      </c>
+      <c r="D17" s="10">
+        <v>167.466636131439</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analyze/planilha-tempo-de-execucao.xlsx
+++ b/Analyze/planilha-tempo-de-execucao.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Trabalho\Mestrado - Ciência da Computação - Unesp\Disciplinas\Analise e Projeto de Algoritmos\Trabalhos\TP1\Sorting-Algorithms-Analysis-Complexity\Analyze\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2ECC50D7-14DE-4E31-9BEB-ADBE930B478C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="9732" tabRatio="978" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17849" windowHeight="9728" tabRatio="978"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>Aleatório</t>
   </si>
@@ -76,21 +70,176 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00000000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,19 +248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,19 +272,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,18 +302,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -203,9 +538,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -213,63 +790,102 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -311,6 +927,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -319,26 +936,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -347,10 +944,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14258092738407699"/>
-          <c:y val="0.17171296296296301"/>
-          <c:w val="0.82686351706036698"/>
-          <c:h val="0.62260753864100304"/>
+          <c:x val="0.142580927384077"/>
+          <c:y val="0.171712962962963"/>
+          <c:w val="0.826863517060367"/>
+          <c:h val="0.622607538641003"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -428,32 +1025,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.71053E-3</c:v>
+                  <c:v>0.00171053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1250429999999998E-2</c:v>
+                  <c:v>0.08125043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8635236400000004</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>879.92810660999999</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000000">
-                  <c:v>99342.690817709998</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>6.86352364</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>879.92810661</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>99342.69081771</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
                   <c:v>10671006.8990172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-18C9-4C49-B3F9-C23BC0FA9D85}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -524,35 +1116,30 @@
             <c:numRef>
               <c:f>BubbleSortClassico!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>1.2829E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4638330000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="0" c:formatCode="0.00000000">
+                  <c:v>0.0012829</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0.03463833</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
                   <c:v>3.45570931</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>346.92695885000001</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000000">
-                  <c:v>35107.452418239998</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>3462956.6246687402</c:v>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>346.92695885</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>35107.45241824</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>3462956.62466874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-18C9-4C49-B3F9-C23BC0FA9D85}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -626,34 +1213,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.71053E-3</c:v>
+                  <c:v>0.00171053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0230740000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00000000">
-                  <c:v>9.0863645000000002</c:v>
+                  <c:v>0.09023074</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="0.00000000">
+                  <c:v>9.0863645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>912.39535264000006</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0000000">
-                  <c:v>88249.403789000004</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.0000000">
-                  <c:v>9144960.6452824008</c:v>
+                  <c:v>912.39535264</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.0000000">
+                  <c:v>88249.403789</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.0000000">
+                  <c:v>9144960.6452824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-18C9-4C49-B3F9-C23BC0FA9D85}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -707,7 +1290,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98269216"/>
@@ -727,6 +1309,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -767,7 +1350,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98273568"/>
@@ -784,6 +1366,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -809,7 +1392,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -839,21 +1421,20 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -895,6 +1476,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -903,26 +1485,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -932,8 +1494,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.108945641054127"/>
-          <c:y val="0.15319444444444399"/>
-          <c:w val="0.89664129483814503"/>
+          <c:y val="0.153194444444444"/>
+          <c:w val="0.896641294838145"/>
           <c:h val="0.696681612715077"/>
         </c:manualLayout>
       </c:layout>
@@ -1009,35 +1571,30 @@
             <c:numRef>
               <c:f>BubbleSortMelhorado!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1.71053E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4671499999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>7.1359264099999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>908.12799423000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>102421.34979209999</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="0">
+                  <c:v>0.00171053</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="0.00000000">
+                  <c:v>0.0846715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.13592641</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>908.12799423</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>102421.3497921</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
                   <c:v>10227994.7349717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61C1-4D87-9712-40D53436BC86}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1108,35 +1665,30 @@
             <c:numRef>
               <c:f>BubbleSortMelhorado!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>4.2763000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2829E-3</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>7.2697700000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>6.671088E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69062869999999998</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>6.6830621399999997</c:v>
+                <c:pt idx="0">
+                  <c:v>0.00042763</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="0.00000000">
+                  <c:v>0.0012829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00726977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06671088</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>0.6906287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.68306214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-61C1-4D87-9712-40D53436BC86}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1210,34 +1762,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.71054E-3</c:v>
+                  <c:v>0.00171054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4079850000000007E-2</c:v>
+                  <c:v>0.09407985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2942343100000002</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>921.18033258000003</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000000">
-                  <c:v>95060.103770069996</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>9101019.7783484701</c:v>
+                  <c:v>9.29423431</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>921.18033258</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>95060.10377007</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>9101019.77834847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-61C1-4D87-9712-40D53436BC86}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1291,7 +1839,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98264864"/>
@@ -1311,6 +1858,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1351,7 +1899,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98263776"/>
@@ -1368,6 +1915,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1393,7 +1941,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1423,21 +1970,20 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1479,6 +2025,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1487,26 +2034,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1516,9 +2043,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12991426071741"/>
-          <c:y val="0.17171296296296301"/>
-          <c:w val="0.83953018372703403"/>
-          <c:h val="0.65443678915135595"/>
+          <c:y val="0.171712962962963"/>
+          <c:w val="0.839530183727034"/>
+          <c:h val="0.654436789151356"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1596,32 +2123,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.1381600000000001E-3</c:v>
+                  <c:v>0.00213816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0098789999999998E-2</c:v>
+                  <c:v>0.02009879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25187635000000003</c:v>
+                  <c:v>0.25187635</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.13926025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.477640520000001</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>502.00196797000001</c:v>
+                  <c:v>38.47764052</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>502.00196797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6971-42D0-903C-4A8BF4DCCC2A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1695,32 +2217,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.13817E-3</c:v>
+                  <c:v>0.00213817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1908109999999998E-2</c:v>
+                  <c:v>0.04190811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4963345299999999</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>347.60191373999999</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000000">
-                  <c:v>34421.033523079997</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>3.49633453</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>347.60191374</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>34421.03352308</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
                   <c:v>3293236.44432698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6971-42D0-903C-4A8BF4DCCC2A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1794,34 +2311,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.1381600000000001E-3</c:v>
+                  <c:v>0.00213816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2763379999999997E-2</c:v>
+                  <c:v>0.04276338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5001832400000001</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>338.29645292999999</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000000">
-                  <c:v>33710.402920909997</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>3371497.8817156102</c:v>
+                  <c:v>3.50018324</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>338.29645293</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>33710.40292091</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>3371497.88171561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6971-42D0-903C-4A8BF4DCCC2A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1875,7 +2388,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98273024"/>
@@ -1895,6 +2407,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1935,7 +2448,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98267584"/>
@@ -1952,6 +2464,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1977,7 +2490,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2007,21 +2519,20 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2063,6 +2574,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2071,26 +2583,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2099,10 +2591,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18681714785651801"/>
-          <c:y val="0.17171296296296301"/>
-          <c:w val="0.78262729658792696"/>
-          <c:h val="0.65443678915135595"/>
+          <c:x val="0.186817147856518"/>
+          <c:y val="0.171712962962963"/>
+          <c:w val="0.782627296587927"/>
+          <c:h val="0.654436789151356"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2177,35 +2669,30 @@
             <c:numRef>
               <c:f>QuickSortPivoCentral!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>2.5658E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.608566E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31602142999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="0" c:formatCode="0.00000000">
+                  <c:v>0.0025658</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0.02608566</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0.31602143</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
                   <c:v>3.77386891</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.591478360000004</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>458.47610959000002</c:v>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>42.59147836</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>458.47610959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0EDC-45B8-BCE8-FF6AB325C9FA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2279,19 +2766,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.71053E-3</c:v>
+                  <c:v>0.00171053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.282902E-2</c:v>
+                  <c:v>0.01282902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11845463000000001</c:v>
+                  <c:v>0.11845463</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.37013951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.379667189999999</c:v>
+                  <c:v>16.37966719</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>148.39878911</c:v>
@@ -2300,11 +2787,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0EDC-45B8-BCE8-FF6AB325C9FA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2378,13 +2860,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.71054E-3</c:v>
+                  <c:v>0.00171054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.069089E-2</c:v>
+                  <c:v>0.01069089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9375860000000001E-2</c:v>
+                  <c:v>0.08937586</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.15589929</c:v>
@@ -2392,20 +2874,16 @@
                 <c:pt idx="4">
                   <c:v>14.63027258</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>150.62954389000001</c:v>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>150.62954389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0EDC-45B8-BCE8-FF6AB325C9FA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2459,7 +2937,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98264320"/>
@@ -2479,6 +2956,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -2491,7 +2969,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
+        <c:numFmt formatCode="000,000,000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2519,7 +2997,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98274112"/>
@@ -2536,6 +3013,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2561,7 +3039,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2591,21 +3068,20 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2647,6 +3123,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2655,26 +3132,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2754,32 +3211,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.5526000000000005E-4</c:v>
+                  <c:v>0.00085526</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1381689999999998E-2</c:v>
+                  <c:v>0.02138169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7857990399999999</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>178.72316223000001</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000000">
-                  <c:v>18256.025254339998</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>2102130.7931026001</c:v>
+                  <c:v>1.78579904</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>178.72316223</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>18256.02525434</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>2102130.7931026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-97EE-474B-BED6-3B05D06E9744}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2853,18 +3305,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.2763000000000002E-4</c:v>
+                  <c:v>0.00042763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.71053E-3</c:v>
+                  <c:v>0.00171053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.069084E-2</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
+                  <c:v>0.01069084</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
                   <c:v>0.1099019</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00000000">
+                <c:pt idx="4" c:formatCode="0.00000000">
                   <c:v>1.0297428</c:v>
                 </c:pt>
                 <c:pt idx="5">
@@ -2874,11 +3326,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-97EE-474B-BED6-3B05D06E9744}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2949,37 +3396,33 @@
             <c:numRef>
               <c:f>InsertionSort!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>1.2829E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8487210000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5643435600000002</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>377.07120006000002</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000000">
-                  <c:v>38632.696426969997</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>4198039.2449835101</c:v>
+                <c:pt idx="0" c:formatCode="0.00000000">
+                  <c:v>0.0012829</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0.03848721</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>3.56434356</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>377.07120006</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>38632.69642697</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>4198039.24498351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-97EE-474B-BED6-3B05D06E9744}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3033,7 +3476,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98267040"/>
@@ -3053,6 +3495,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3093,7 +3536,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98272480"/>
@@ -3110,6 +3552,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3135,7 +3578,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3165,21 +3607,20 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3216,6 +3657,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3224,26 +3666,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3252,10 +3674,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5358705161854797E-2"/>
-          <c:y val="0.17171296296296301"/>
+          <c:x val="0.0653587051618548"/>
+          <c:y val="0.171712962962963"/>
           <c:w val="0.920752405949256"/>
-          <c:h val="0.65443678915135595"/>
+          <c:h val="0.654436789151356"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3333,32 +3755,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.71053E-3</c:v>
+                  <c:v>0.00171053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.924352E-2</c:v>
+                  <c:v>0.01924352</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.29506737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3272271399999997</c:v>
+                  <c:v>4.32722714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.999449630000001</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>883.60746802000006</c:v>
+                  <c:v>62.99944963</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>883.60746802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-339A-442B-940C-A3075585E222}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3429,35 +3846,30 @@
             <c:numRef>
               <c:f>ShellSort!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>1.2829E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.55924E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.131608E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.85056377000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="0" c:formatCode="0.00000000">
+                  <c:v>0.0012829</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0.00555924</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0.05131608</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>0.85056377</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
                   <c:v>11.01884197</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
+                <c:pt idx="5" c:formatCode="0.00000000">
                   <c:v>124.85733492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-339A-442B-940C-A3075585E222}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3528,37 +3940,33 @@
             <c:numRef>
               <c:f>ShellSort!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>1.2829E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4079400000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10904663000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3722770900000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="0" c:formatCode="0.00000000">
+                  <c:v>0.0012829</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0.00940794</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0.10904663</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>1.37227709</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
                   <c:v>16.41515338</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>187.48110392000001</c:v>
+                <c:pt idx="5" c:formatCode="General">
+                  <c:v>187.48110392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-339A-442B-940C-A3075585E222}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3612,7 +4020,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98266496"/>
@@ -3632,6 +4039,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3672,7 +4080,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-98271936"/>
@@ -3689,6 +4096,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3714,7 +4122,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3744,21 +4151,20 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3800,6 +4206,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3808,26 +4215,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3837,9 +4224,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12991426071741"/>
-          <c:y val="0.17171296296296301"/>
-          <c:w val="0.83953018372703403"/>
-          <c:h val="0.65443678915135595"/>
+          <c:y val="0.171712962962963"/>
+          <c:w val="0.839530183727034"/>
+          <c:h val="0.654436789151356"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3917,32 +4304,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.71053E-3</c:v>
+                  <c:v>0.00171053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.447392E-2</c:v>
+                  <c:v>0.04447392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3458074099999999</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>322.75837531000002</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000000">
+                  <c:v>3.34580741</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>322.75837531</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
                   <c:v>32191.3011573</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
+                <c:pt idx="5" c:formatCode="0.00000000">
                   <c:v>3305599.08683063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F552-47C4-A05B-A25B647036E7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4016,32 +4398,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.5526999999999999E-4</c:v>
+                  <c:v>0.00085527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5066119999999999E-2</c:v>
+                  <c:v>0.03506612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6994764400000002</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>325.18958158999999</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000000">
-                  <c:v>32220.119489960001</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>3363985.4728497299</c:v>
+                  <c:v>3.69947644</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>325.18958159</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00000000">
+                  <c:v>32220.11948996</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>3363985.47284973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F552-47C4-A05B-A25B647036E7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4115,34 +4492,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.71053E-3</c:v>
+                  <c:v>0.00171053</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6348869999999998E-2</c:v>
+                  <c:v>0.03634887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2162343500000001</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>321.84409400999999</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.000000">
+                  <c:v>3.21623435</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>321.84409401</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.000000">
                   <c:v>33223.17525</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.000000">
-                  <c:v>3142924.2527846401</c:v>
+                <c:pt idx="5" c:formatCode="0.000000">
+                  <c:v>3142924.25278464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F552-47C4-A05B-A25B647036E7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4196,7 +4569,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14151840"/>
@@ -4216,6 +4588,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4256,7 +4629,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14141504"/>
@@ -4273,6 +4645,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4298,7 +4671,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4328,21 +4700,20 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4384,6 +4755,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4392,26 +4764,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4491,32 +4843,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.026321E-2</c:v>
+                  <c:v>0.01026321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2270119999999993E-2</c:v>
+                  <c:v>0.07227012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63802972999999996</c:v>
+                  <c:v>0.63802973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3790580800000001</c:v>
+                  <c:v>8.37905808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.843607449999993</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
+                  <c:v>83.84360745</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
                   <c:v>836.49889306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5446-4929-AF28-5CBC28A37543}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4590,32 +4937,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.282902E-2</c:v>
+                  <c:v>0.01282902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7237339999999997E-2</c:v>
+                  <c:v>0.08723734</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.53710837</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00000000">
-                  <c:v>6.9097080999999996</c:v>
+                <c:pt idx="3" c:formatCode="0.00000000">
+                  <c:v>6.9097081</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>63.42751114</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>695.48820413999999</c:v>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>695.48820414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5446-4929-AF28-5CBC28A37543}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4689,34 +5031,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.197379E-2</c:v>
+                  <c:v>0.01197379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.815845E-2</c:v>
+                  <c:v>0.05815845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74194793999999997</c:v>
+                  <c:v>0.74194794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9024678399999999</c:v>
+                  <c:v>6.90246784</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>59.47728377</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>567.58504284000003</c:v>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>567.58504284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5446-4929-AF28-5CBC28A37543}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4770,7 +5108,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14151296"/>
@@ -4790,6 +5127,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4830,7 +5168,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14150208"/>
@@ -4847,6 +5184,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4872,7 +5210,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4902,21 +5239,20 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4958,6 +5294,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4966,26 +5303,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5062,35 +5379,30 @@
             <c:numRef>
               <c:f>HeapSort!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="0.00000000">
-                  <c:v>2.5658E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.309222E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31473852000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0141991499999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51.342005550000003</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>677.83475285999998</c:v>
+                <c:pt idx="0" c:formatCode="0.00000000">
+                  <c:v>0.0025658</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0.02309222</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0.31473852</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>4.01419915</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>51.34200555</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>677.83475286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-03FD-4DAE-AF25-23558D54971B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5163,33 +5475,28 @@
               <c:numCache>
                 <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.5658E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.52304E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.33526508999999999</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>3.3171573599999999</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>42.871169250000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>513.81257995999999</c:v>
+                <c:pt idx="0" c:formatCode="0.00000000">
+                  <c:v>0.0025658</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="0.00000000">
+                  <c:v>0.0252304</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>0.33526509</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>3.31715736</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>42.87116925</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>513.81257996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-03FD-4DAE-AF25-23558D54971B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5263,34 +5570,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.13817E-3</c:v>
+                  <c:v>0.00213817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.13817E-3</c:v>
+                  <c:v>0.00213817</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.25871959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0708519600000002</c:v>
+                  <c:v>3.07085196</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>36.31696187</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000000">
-                  <c:v>425.68226068000001</c:v>
+                <c:pt idx="5" c:formatCode="0.00000000">
+                  <c:v>425.68226068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-03FD-4DAE-AF25-23558D54971B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5344,7 +5647,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14144768"/>
@@ -5364,6 +5666,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5376,7 +5679,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
+        <c:numFmt formatCode="000,000,000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5404,7 +5707,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-14140960"/>
@@ -5421,6 +5723,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5446,7 +5749,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5476,12 +5778,11 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins r="0.7" b="0.75" l="0.7" footer="0.3" header="0.3" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10492,7 +10793,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -10506,20 +10807,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8418195" y="343535"/>
+        <a:ext cx="6376670" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10533,7 +10828,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -10547,20 +10842,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8388985" y="440690"/>
+        <a:ext cx="7595235" cy="2441575"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10574,7 +10863,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -10588,20 +10877,14 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9458960" y="758825"/>
+        <a:ext cx="6018530" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10615,7 +10898,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -10629,20 +10912,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11119485" y="1581785"/>
+        <a:ext cx="5850255" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10656,7 +10933,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -10670,20 +10947,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9217025" y="250190"/>
+        <a:ext cx="6797675" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10697,7 +10968,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -10711,20 +10982,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8940800" y="522605"/>
+        <a:ext cx="6035675" cy="2449830"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10738,7 +11003,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -10752,20 +11017,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9227820" y="271145"/>
+        <a:ext cx="6703060" cy="2441575"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10779,7 +11038,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -10793,20 +11052,14 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>115252</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8842375" y="385445"/>
+        <a:ext cx="5854065" cy="2442210"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10820,7 +11073,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -10834,20 +11087,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="10163810" y="1358900"/>
+        <a:ext cx="5703570" cy="2442210"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10865,7 +11112,7 @@
   <a:themeElements>
     <a:clrScheme name="Escritório">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="5C616C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -11117,30 +11364,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108:K115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="6" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6641791044776" customWidth="1"/>
+    <col min="2" max="2" width="18.1119402985075" customWidth="1"/>
+    <col min="3" max="4" width="18.4402985074627" customWidth="1"/>
+    <col min="5" max="6" width="18.1119402985075" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-    <col min="9" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="19.4402985074627" customWidth="1"/>
+    <col min="9" max="10" width="18.1119402985075" customWidth="1"/>
+    <col min="11" max="11" width="18.5522388059701" customWidth="1"/>
+    <col min="12" max="12" width="13.1119402985075" customWidth="1"/>
+    <col min="13" max="13" width="13.4402985074627" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.1119402985075" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11156,315 +11404,315 @@
       <c r="E1" s="1">
         <v>10000</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="31">
         <v>100000</v>
       </c>
       <c r="G1" s="1">
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C2" s="8">
-        <v>8.1250429999999998E-2</v>
+        <v>0.08125043</v>
       </c>
       <c r="D2" s="8">
-        <v>6.8635236400000004</v>
+        <v>6.86352364</v>
       </c>
       <c r="E2" s="5">
-        <v>879.92810660999999</v>
-      </c>
-      <c r="F2" s="21">
-        <v>99342.690817709998</v>
+        <v>879.92810661</v>
+      </c>
+      <c r="F2" s="32">
+        <v>99342.69081771</v>
       </c>
       <c r="G2" s="8">
         <v>10671006.8990172</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C3" s="5">
-        <v>8.4671499999999997E-2</v>
+        <v>0.0846715</v>
       </c>
       <c r="D3" s="8">
-        <v>7.1359264099999997</v>
+        <v>7.13592641</v>
       </c>
       <c r="E3" s="5">
-        <v>908.12799423000001</v>
-      </c>
-      <c r="F3" s="21">
-        <v>102421.34979209999</v>
+        <v>908.12799423</v>
+      </c>
+      <c r="F3" s="32">
+        <v>102421.3497921</v>
       </c>
       <c r="G3" s="8">
         <v>10227994.7349717</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8">
-        <v>2.1381600000000001E-3</v>
+        <v>0.00213816</v>
       </c>
       <c r="C4" s="8">
-        <v>2.0098789999999998E-2</v>
+        <v>0.02009879</v>
       </c>
       <c r="D4" s="8">
-        <v>0.25187635000000003</v>
+        <v>0.25187635</v>
       </c>
       <c r="E4" s="8">
         <v>3.13926025</v>
       </c>
-      <c r="F4" s="23">
-        <v>38.477640520000001</v>
+      <c r="F4" s="34">
+        <v>38.47764052</v>
       </c>
       <c r="G4" s="5">
-        <v>502.00196797000001</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="24"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>502.00196797</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="35"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>2.5658E-3</v>
+        <v>0.0025658</v>
       </c>
       <c r="C5" s="8">
-        <v>2.608566E-2</v>
+        <v>0.02608566</v>
       </c>
       <c r="D5" s="8">
-        <v>0.31602142999999999</v>
+        <v>0.31602143</v>
       </c>
       <c r="E5" s="8">
         <v>3.77386891</v>
       </c>
-      <c r="F5" s="23">
-        <v>42.591478360000004</v>
+      <c r="F5" s="34">
+        <v>42.59147836</v>
       </c>
       <c r="G5" s="5">
-        <v>458.47610959000002</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>458.47610959</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8">
-        <v>8.5526000000000005E-4</v>
+        <v>0.00085526</v>
       </c>
       <c r="C6" s="8">
-        <v>2.1381689999999998E-2</v>
+        <v>0.02138169</v>
       </c>
       <c r="D6" s="8">
-        <v>1.7857990399999999</v>
+        <v>1.78579904</v>
       </c>
       <c r="E6" s="5">
-        <v>178.72316223000001</v>
+        <v>178.72316223</v>
       </c>
       <c r="F6" s="5">
-        <v>18256.025254339998</v>
-      </c>
-      <c r="G6" s="16">
-        <v>2102130.7931026001</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>18256.02525434</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2102130.7931026</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C7" s="8">
-        <v>1.924352E-2</v>
+        <v>0.01924352</v>
       </c>
       <c r="D7" s="8">
         <v>0.29506737</v>
       </c>
       <c r="E7" s="8">
-        <v>4.3272271399999997</v>
+        <v>4.32722714</v>
       </c>
       <c r="F7" s="8">
-        <v>62.999449630000001</v>
+        <v>62.99944963</v>
       </c>
       <c r="G7" s="5">
-        <v>883.60746802000006</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>883.60746802</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C8" s="8">
-        <v>4.447392E-2</v>
+        <v>0.04447392</v>
       </c>
       <c r="D8" s="8">
-        <v>3.3458074099999999</v>
+        <v>3.34580741</v>
       </c>
       <c r="E8" s="5">
-        <v>322.75837531000002</v>
+        <v>322.75837531</v>
       </c>
       <c r="F8" s="5">
         <v>32191.3011573</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>3305599.08683063</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>1.026321E-2</v>
+        <v>0.01026321</v>
       </c>
       <c r="C9" s="8">
-        <v>7.2270119999999993E-2</v>
+        <v>0.07227012</v>
       </c>
       <c r="D9" s="8">
-        <v>0.63802972999999996</v>
+        <v>0.63802973</v>
       </c>
       <c r="E9" s="8">
-        <v>8.3790580800000001</v>
+        <v>8.37905808</v>
       </c>
       <c r="F9" s="8">
-        <v>83.843607449999993</v>
+        <v>83.84360745</v>
       </c>
       <c r="G9" s="5">
         <v>836.49889306</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H9" s="33"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>2.5658E-3</v>
+        <v>0.0025658</v>
       </c>
       <c r="C10" s="8">
-        <v>2.309222E-2</v>
+        <v>0.02309222</v>
       </c>
       <c r="D10" s="8">
-        <v>0.31473852000000002</v>
+        <v>0.31473852</v>
       </c>
       <c r="E10" s="8">
-        <v>4.0141991499999996</v>
+        <v>4.01419915</v>
       </c>
       <c r="F10" s="8">
-        <v>51.342005550000003</v>
+        <v>51.34200555</v>
       </c>
       <c r="G10" s="5">
-        <v>677.83475285999998</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>677.83475286</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="6:16">
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -11486,138 +11734,138 @@
       <c r="G12" s="1">
         <v>1000000</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="5">
-        <v>1.2829E-3</v>
+        <v>0.0012829</v>
       </c>
       <c r="C13" s="8">
-        <v>3.4638330000000002E-2</v>
+        <v>0.03463833</v>
       </c>
       <c r="D13" s="8">
         <v>3.45570931</v>
       </c>
       <c r="E13" s="5">
-        <v>346.92695885000001</v>
+        <v>346.92695885</v>
       </c>
       <c r="F13" s="5">
-        <v>35107.452418239998</v>
+        <v>35107.45241824</v>
       </c>
       <c r="G13" s="8">
-        <v>3462956.6246687402</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3462956.62466874</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="8">
-        <v>4.2763000000000002E-4</v>
+        <v>0.00042763</v>
       </c>
       <c r="C14" s="5">
-        <v>1.2829E-3</v>
+        <v>0.0012829</v>
       </c>
       <c r="D14" s="8">
-        <v>7.2697700000000001E-3</v>
+        <v>0.00726977</v>
       </c>
       <c r="E14" s="8">
-        <v>6.671088E-2</v>
+        <v>0.06671088</v>
       </c>
       <c r="F14" s="5">
-        <v>0.69062869999999998</v>
+        <v>0.6906287</v>
       </c>
       <c r="G14" s="8">
-        <v>6.6830621399999997</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6.68306214</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="8">
-        <v>2.13817E-3</v>
+        <v>0.00213817</v>
       </c>
       <c r="C15" s="8">
-        <v>4.1908109999999998E-2</v>
+        <v>0.04190811</v>
       </c>
       <c r="D15" s="8">
-        <v>3.4963345299999999</v>
+        <v>3.49633453</v>
       </c>
       <c r="E15" s="5">
-        <v>347.60191373999999</v>
+        <v>347.60191374</v>
       </c>
       <c r="F15" s="5">
-        <v>34421.033523079997</v>
+        <v>34421.03352308</v>
       </c>
       <c r="G15" s="8">
         <v>3293236.44432698</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C16" s="8">
-        <v>1.282902E-2</v>
+        <v>0.01282902</v>
       </c>
       <c r="D16" s="8">
-        <v>0.11845463000000001</v>
+        <v>0.11845463</v>
       </c>
       <c r="E16" s="8">
         <v>1.37013951</v>
       </c>
       <c r="F16" s="8">
-        <v>16.379667189999999</v>
+        <v>16.37966719</v>
       </c>
       <c r="G16" s="8">
         <v>148.39878911</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="8">
-        <v>4.2763000000000002E-4</v>
+        <v>0.00042763</v>
       </c>
       <c r="C17" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="D17" s="8">
-        <v>1.069084E-2</v>
+        <v>0.01069084</v>
       </c>
       <c r="E17" s="5">
         <v>0.1099019</v>
@@ -11629,21 +11877,21 @@
         <v>13.24639247</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5">
-        <v>1.2829E-3</v>
+        <v>0.0012829</v>
       </c>
       <c r="C18" s="8">
-        <v>5.55924E-3</v>
+        <v>0.00555924</v>
       </c>
       <c r="D18" s="8">
-        <v>5.131608E-2</v>
+        <v>0.05131608</v>
       </c>
       <c r="E18" s="8">
-        <v>0.85056377000000005</v>
+        <v>0.85056377</v>
       </c>
       <c r="F18" s="8">
         <v>11.01884197</v>
@@ -11652,76 +11900,76 @@
         <v>124.85733492</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="8">
-        <v>8.5526999999999999E-4</v>
+        <v>0.00085527</v>
       </c>
       <c r="C19" s="8">
-        <v>3.5066119999999999E-2</v>
+        <v>0.03506612</v>
       </c>
       <c r="D19" s="8">
-        <v>3.6994764400000002</v>
+        <v>3.69947644</v>
       </c>
       <c r="E19" s="5">
-        <v>325.18958158999999</v>
+        <v>325.18958159</v>
       </c>
       <c r="F19" s="5">
-        <v>32220.119489960001</v>
+        <v>32220.11948996</v>
       </c>
       <c r="G19" s="5">
-        <v>3363985.4728497299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3363985.47284973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="8">
-        <v>1.282902E-2</v>
+        <v>0.01282902</v>
       </c>
       <c r="C20" s="8">
-        <v>8.7237339999999997E-2</v>
+        <v>0.08723734</v>
       </c>
       <c r="D20" s="8">
         <v>0.53710837</v>
       </c>
       <c r="E20" s="5">
-        <v>6.9097080999999996</v>
+        <v>6.9097081</v>
       </c>
       <c r="F20" s="8">
         <v>63.42751114</v>
       </c>
       <c r="G20" s="5">
-        <v>695.48820413999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>695.48820414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="5">
-        <v>2.5658E-3</v>
+        <v>0.0025658</v>
       </c>
       <c r="C21" s="5">
-        <v>2.52304E-2</v>
+        <v>0.0252304</v>
       </c>
       <c r="D21" s="8">
-        <v>0.33526508999999999</v>
+        <v>0.33526509</v>
       </c>
       <c r="E21" s="8">
-        <v>3.3171573599999999</v>
+        <v>3.31715736</v>
       </c>
       <c r="F21" s="8">
-        <v>42.871169250000001</v>
+        <v>42.87116925</v>
       </c>
       <c r="G21" s="5">
-        <v>513.81257995999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>513.81257996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -11744,87 +11992,87 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C24" s="8">
-        <v>9.0230740000000004E-2</v>
+        <v>0.09023074</v>
       </c>
       <c r="D24" s="5">
-        <v>9.0863645000000002</v>
+        <v>9.0863645</v>
       </c>
       <c r="E24" s="8">
-        <v>912.39535264000006</v>
+        <v>912.39535264</v>
       </c>
       <c r="F24" s="8">
-        <v>88249.403789000004</v>
+        <v>88249.403789</v>
       </c>
       <c r="G24" s="8">
-        <v>9144960.6452824008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9144960.6452824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="8">
-        <v>1.71054E-3</v>
+        <v>0.00171054</v>
       </c>
       <c r="C25" s="8">
-        <v>9.4079850000000007E-2</v>
+        <v>0.09407985</v>
       </c>
       <c r="D25" s="8">
-        <v>9.2942343100000002</v>
+        <v>9.29423431</v>
       </c>
       <c r="E25" s="5">
-        <v>921.18033258000003</v>
+        <v>921.18033258</v>
       </c>
       <c r="F25" s="5">
-        <v>95060.103770069996</v>
+        <v>95060.10377007</v>
       </c>
       <c r="G25" s="8">
-        <v>9101019.7783484701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9101019.77834847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="8">
-        <v>2.1381600000000001E-3</v>
+        <v>0.00213816</v>
       </c>
       <c r="C26" s="8">
-        <v>4.2763379999999997E-2</v>
+        <v>0.04276338</v>
       </c>
       <c r="D26" s="8">
-        <v>3.5001832400000001</v>
+        <v>3.50018324</v>
       </c>
       <c r="E26" s="5">
-        <v>338.29645292999999</v>
+        <v>338.29645293</v>
       </c>
       <c r="F26" s="5">
-        <v>33710.402920909997</v>
+        <v>33710.40292091</v>
       </c>
       <c r="G26" s="8">
-        <v>3371497.8817156102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3371497.88171561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="8">
-        <v>1.71054E-3</v>
+        <v>0.00171054</v>
       </c>
       <c r="C27" s="8">
-        <v>1.069089E-2</v>
+        <v>0.01069089</v>
       </c>
       <c r="D27" s="8">
-        <v>8.9375860000000001E-2</v>
+        <v>0.08937586</v>
       </c>
       <c r="E27" s="8">
         <v>1.15589929</v>
@@ -11833,137 +12081,137 @@
         <v>14.63027258</v>
       </c>
       <c r="G27" s="5">
-        <v>150.62954389000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150.62954389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="5">
-        <v>1.2829E-3</v>
+        <v>0.0012829</v>
       </c>
       <c r="C28" s="8">
-        <v>3.8487210000000001E-2</v>
+        <v>0.03848721</v>
       </c>
       <c r="D28" s="8">
-        <v>3.5643435600000002</v>
+        <v>3.56434356</v>
       </c>
       <c r="E28" s="5">
-        <v>377.07120006000002</v>
+        <v>377.07120006</v>
       </c>
       <c r="F28" s="5">
-        <v>38632.696426969997</v>
+        <v>38632.69642697</v>
       </c>
       <c r="G28" s="5">
-        <v>4198039.2449835101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4198039.24498351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="5">
-        <v>1.2829E-3</v>
+        <v>0.0012829</v>
       </c>
       <c r="C29" s="8">
-        <v>9.4079400000000001E-3</v>
+        <v>0.00940794</v>
       </c>
       <c r="D29" s="8">
-        <v>0.10904663000000001</v>
+        <v>0.10904663</v>
       </c>
       <c r="E29" s="8">
-        <v>1.3722770900000001</v>
+        <v>1.37227709</v>
       </c>
       <c r="F29" s="8">
         <v>16.41515338</v>
       </c>
       <c r="G29" s="8">
-        <v>187.48110392000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>187.48110392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C30" s="8">
-        <v>3.6348869999999998E-2</v>
+        <v>0.03634887</v>
       </c>
       <c r="D30" s="8">
-        <v>3.2162343500000001</v>
+        <v>3.21623435</v>
       </c>
       <c r="E30" s="5">
-        <v>321.84409400999999</v>
-      </c>
-      <c r="F30" s="14">
+        <v>321.84409401</v>
+      </c>
+      <c r="F30" s="13">
         <v>33223.17525</v>
       </c>
-      <c r="G30" s="16">
-        <v>3142924.2527846401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="15">
+        <v>3142924.25278464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="8">
-        <v>1.197379E-2</v>
+        <v>0.01197379</v>
       </c>
       <c r="C31" s="8">
-        <v>5.815845E-2</v>
+        <v>0.05815845</v>
       </c>
       <c r="D31" s="8">
-        <v>0.74194793999999997</v>
+        <v>0.74194794</v>
       </c>
       <c r="E31" s="8">
-        <v>6.9024678399999999</v>
+        <v>6.90246784</v>
       </c>
       <c r="F31" s="8">
         <v>59.47728377</v>
       </c>
       <c r="G31" s="5">
-        <v>567.58504284000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>567.58504284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="8">
-        <v>2.13817E-3</v>
+        <v>0.00213817</v>
       </c>
       <c r="C32" s="8">
-        <v>2.13817E-3</v>
+        <v>0.00213817</v>
       </c>
       <c r="D32" s="8">
         <v>0.25871959</v>
       </c>
       <c r="E32" s="8">
-        <v>3.0708519600000002</v>
+        <v>3.07085196</v>
       </c>
       <c r="F32" s="8">
         <v>36.31696187</v>
       </c>
       <c r="G32" s="5">
-        <v>425.68226068000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+        <v>425.68226068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -11979,7 +12227,7 @@
       <c r="E36" s="1">
         <v>10000</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="31">
         <v>100000</v>
       </c>
       <c r="G36" s="1">
@@ -11989,246 +12237,246 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="13">
-        <v>3.6467229817941E-4</v>
-      </c>
-      <c r="C37" s="13">
-        <v>2.5162379222340499E-2</v>
-      </c>
-      <c r="D37" s="13">
-        <v>2.0272118270433399</v>
-      </c>
-      <c r="E37" s="13">
-        <v>260.85610406281103</v>
-      </c>
-      <c r="F37" s="19">
-        <v>29710.646446125102</v>
-      </c>
-      <c r="G37" s="13">
-        <v>746315.85557528795</v>
-      </c>
-      <c r="H37" s="13">
-        <v>3014609.0435812501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="12">
+        <v>0.00036467229817941</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.0251623792223405</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2.02721182704334</v>
+      </c>
+      <c r="E37" s="12">
+        <v>260.856104062811</v>
+      </c>
+      <c r="F37" s="24">
+        <v>29710.6464461251</v>
+      </c>
+      <c r="G37" s="12">
+        <v>746315.855575288</v>
+      </c>
+      <c r="H37" s="12">
+        <v>3014609.04358125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="13">
-        <v>3.6467219999999998E-4</v>
-      </c>
-      <c r="C38" s="13">
-        <v>2.4433026100000001E-2</v>
-      </c>
-      <c r="D38" s="13">
-        <v>2.0326819075000002</v>
-      </c>
-      <c r="E38" s="13">
-        <v>271.69306283999998</v>
-      </c>
-      <c r="F38" s="19">
-        <v>29745.611719100001</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="B38" s="12">
+        <v>0.0003646722</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0.0244330261</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2.0326819075</v>
+      </c>
+      <c r="E38" s="12">
+        <v>271.69306284</v>
+      </c>
+      <c r="F38" s="24">
+        <v>29745.6117191</v>
+      </c>
+      <c r="G38" s="12">
         <v>739743.55642752</v>
       </c>
-      <c r="H38" s="13">
-        <v>2988860.7761393399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="12">
+        <v>2988860.77613934</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="13">
-        <v>7.2934458999999996E-4</v>
-      </c>
-      <c r="C39" s="13">
-        <v>6.9287680000000001E-3</v>
-      </c>
-      <c r="D39" s="13">
-        <v>8.7156609999999995E-2</v>
-      </c>
-      <c r="E39" s="13">
-        <v>1.1013095369999999</v>
-      </c>
-      <c r="F39" s="19">
-        <v>13.885252298299999</v>
-      </c>
-      <c r="G39" s="13">
-        <v>72.330874228260001</v>
-      </c>
-      <c r="H39" s="13">
-        <v>154.06164709999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="12">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0.006928768</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.08715661</v>
+      </c>
+      <c r="E39" s="12">
+        <v>1.101309537</v>
+      </c>
+      <c r="F39" s="24">
+        <v>13.8852522983</v>
+      </c>
+      <c r="G39" s="12">
+        <v>72.33087422826</v>
+      </c>
+      <c r="H39" s="12">
+        <v>154.0616471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="13">
-        <v>3.6467229817E-4</v>
-      </c>
-      <c r="C40" s="13">
-        <v>8.3874567000000004E-3</v>
-      </c>
-      <c r="D40" s="13">
+      <c r="B40" s="12">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0.0083874567</v>
+      </c>
+      <c r="D40" s="12">
         <v>0.1068489054</v>
       </c>
-      <c r="E40" s="13">
-        <v>1.2654119500000001</v>
-      </c>
-      <c r="F40" s="19">
+      <c r="E40" s="12">
+        <v>1.26541195</v>
+      </c>
+      <c r="F40" s="24">
         <v>16.926617046</v>
       </c>
-      <c r="G40" s="13">
-        <v>76.819257600599997</v>
-      </c>
-      <c r="H40" s="13">
-        <v>158.27069478824899</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="12">
+        <v>76.8192576006</v>
+      </c>
+      <c r="H40" s="12">
+        <v>158.270694788249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="13">
-        <v>7.2934458999999996E-4</v>
-      </c>
-      <c r="C41" s="13">
-        <v>7.2934458999999996E-4</v>
-      </c>
-      <c r="D41" s="13">
-        <v>0.61811909459000003</v>
-      </c>
-      <c r="E41" s="13">
-        <v>58.777108807099999</v>
-      </c>
-      <c r="F41" s="13">
-        <v>5917.2730554769996</v>
-      </c>
-      <c r="G41" s="15">
-        <v>139065.63039000001</v>
-      </c>
-      <c r="H41" s="15">
-        <v>558118.93677599996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="12">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C41" s="12">
+        <v>0.00072934459</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.61811909459</v>
+      </c>
+      <c r="E41" s="12">
+        <v>58.7771088071</v>
+      </c>
+      <c r="F41" s="12">
+        <v>5917.273055477</v>
+      </c>
+      <c r="G41" s="14">
+        <v>139065.63039</v>
+      </c>
+      <c r="H41" s="14">
+        <v>558118.936776</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="13">
-        <v>7.2934458999999996E-4</v>
-      </c>
-      <c r="C42" s="13">
-        <v>6.9287686000000003E-3</v>
-      </c>
-      <c r="D42" s="13">
-        <v>0.11122496900000001</v>
-      </c>
-      <c r="E42" s="13">
-        <v>1.7894456620429999</v>
-      </c>
-      <c r="F42" s="13">
-        <v>43.345647092279997</v>
-      </c>
-      <c r="G42" s="13">
-        <v>923.64861661659995</v>
-      </c>
-      <c r="H42" s="13">
-        <v>3940.7407947659999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="12">
+        <v>0.00072934459</v>
+      </c>
+      <c r="C42" s="12">
+        <v>0.0069287686</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.111224969</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1.789445662043</v>
+      </c>
+      <c r="F42" s="12">
+        <v>43.34564709228</v>
+      </c>
+      <c r="G42" s="12">
+        <v>923.6486166166</v>
+      </c>
+      <c r="H42" s="12">
+        <v>3940.740794766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="13">
-        <v>3.6467229817E-4</v>
-      </c>
-      <c r="C43" s="13">
-        <v>1.4222209E-2</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1.0126942329999999</v>
-      </c>
-      <c r="E43" s="13">
-        <v>96.020334112515002</v>
-      </c>
-      <c r="F43" s="13">
-        <v>9003.3794157224602</v>
-      </c>
-      <c r="G43" s="15">
-        <v>224160.39771131001</v>
-      </c>
-      <c r="H43" s="15">
-        <v>903981.37582105899</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="12">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0.014222209</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1.012694233</v>
+      </c>
+      <c r="E43" s="12">
+        <v>96.020334112515</v>
+      </c>
+      <c r="F43" s="12">
+        <v>9003.37941572246</v>
+      </c>
+      <c r="G43" s="14">
+        <v>224160.39771131</v>
+      </c>
+      <c r="H43" s="14">
+        <v>903981.375821059</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="13">
-        <v>3.2820506836146899E-3</v>
-      </c>
-      <c r="C44" s="13">
-        <v>2.0421633803638602E-2</v>
-      </c>
-      <c r="D44" s="13">
+      <c r="B44" s="12">
+        <v>0.00328205068361469</v>
+      </c>
+      <c r="C44" s="12">
+        <v>0.0204216338036386</v>
+      </c>
+      <c r="D44" s="12">
         <v>0.195099537231191</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <v>2.4535134326943</v>
       </c>
-      <c r="F44" s="13">
-        <v>25.521572174065199</v>
-      </c>
-      <c r="G44" s="13">
-        <v>126.48612969925399</v>
-      </c>
-      <c r="H44" s="13">
-        <v>251.97269335822801</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F44" s="12">
+        <v>25.5215721740652</v>
+      </c>
+      <c r="G44" s="12">
+        <v>126.486129699254</v>
+      </c>
+      <c r="H44" s="12">
+        <v>251.972693358228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="13">
-        <v>7.2934459635882001E-4</v>
-      </c>
-      <c r="C45" s="13">
-        <v>8.0227847085723395E-3</v>
-      </c>
-      <c r="D45" s="13">
+      <c r="B45" s="12">
+        <v>0.00072934459635882</v>
+      </c>
+      <c r="C45" s="12">
+        <v>0.00802278470857234</v>
+      </c>
+      <c r="D45" s="12">
         <v>0.106848905436895</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <v>1.42696166202925</v>
       </c>
-      <c r="F45" s="13">
-        <v>18.604473067147001</v>
-      </c>
-      <c r="G45" s="13">
+      <c r="F45" s="12">
+        <v>18.604473067147</v>
+      </c>
+      <c r="G45" s="12">
         <v>107.423263887622</v>
       </c>
-      <c r="H45" s="13">
-        <v>259.05280086354298</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="12">
+        <v>259.052800863543</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8">
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -12254,73 +12502,73 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="5">
-        <v>3.6467229817941E-4</v>
+        <v>0.00036467229817941</v>
       </c>
       <c r="C48" s="8">
-        <v>1.13048412435617E-2</v>
+        <v>0.0113048412435617</v>
       </c>
       <c r="D48" s="8">
-        <v>1.0703131951565601</v>
+        <v>1.07031319515656</v>
       </c>
       <c r="E48" s="5">
-        <v>99.283491868536998</v>
+        <v>99.283491868537</v>
       </c>
       <c r="F48" s="5">
-        <v>9664.6210981799995</v>
+        <v>9664.62109818</v>
       </c>
       <c r="G48" s="8">
-        <v>245270.45536596599</v>
+        <v>245270.455365966</v>
       </c>
       <c r="H48" s="8">
-        <v>967866.55984199396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>967866.559841994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="5">
-        <v>3.6467229817941E-4</v>
+        <v>0.00036467229817941</v>
       </c>
       <c r="C49" s="5">
-        <v>3.6466999999999999E-4</v>
+        <v>0.00036467</v>
       </c>
       <c r="D49" s="8">
-        <v>2.1880329999999998E-3</v>
+        <v>0.002188033</v>
       </c>
       <c r="E49" s="8">
-        <v>2.0786300000000001E-2</v>
+        <v>0.0207863</v>
       </c>
       <c r="F49" s="5">
-        <v>0.20749853766000001</v>
+        <v>0.20749853766</v>
       </c>
       <c r="G49" s="8">
-        <v>1.0170702899999999</v>
+        <v>1.01707029</v>
       </c>
       <c r="H49" s="8">
-        <v>2.1464611470000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.146461147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="8">
-        <v>3.6467200000000002E-4</v>
+        <v>0.000364672</v>
       </c>
       <c r="C50" s="8">
-        <v>7.6581100000000001E-3</v>
+        <v>0.00765811</v>
       </c>
       <c r="D50" s="8">
-        <v>0.79170355930000003</v>
+        <v>0.7917035593</v>
       </c>
       <c r="E50" s="5">
-        <v>59.337665299800001</v>
+        <v>59.3376652998</v>
       </c>
       <c r="F50" s="5">
         <v>11124.6650484941</v>
@@ -12329,24 +12577,24 @@
         <v>140101.38903577</v>
       </c>
       <c r="H50" s="8">
-        <v>1193754.9044776999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1193754.9044777</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="8">
-        <v>3.6467200000000002E-4</v>
+        <v>0.000364672</v>
       </c>
       <c r="C51" s="8">
-        <v>4.0113952000000001E-3</v>
+        <v>0.0040113952</v>
       </c>
       <c r="D51" s="8">
-        <v>2.6621077699999999E-2</v>
+        <v>0.0266210777</v>
       </c>
       <c r="E51" s="8">
-        <v>0.36503697039999999</v>
+        <v>0.3650369704</v>
       </c>
       <c r="F51" s="8">
         <v>4.1280904153</v>
@@ -12358,21 +12606,21 @@
         <v>44.254806745562</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="8">
-        <v>3.6467200000000002E-4</v>
+        <v>0.000364672</v>
       </c>
       <c r="C52" s="8">
-        <v>3.6467200000000002E-4</v>
+        <v>0.000364672</v>
       </c>
       <c r="D52" s="8">
-        <v>2.9173783850000002E-3</v>
+        <v>0.002917378385</v>
       </c>
       <c r="E52" s="5">
-        <v>3.1361817E-2</v>
+        <v>0.031361817</v>
       </c>
       <c r="F52" s="5">
         <v>0.3066894</v>
@@ -12381,99 +12629,99 @@
         <v>1.527611142</v>
       </c>
       <c r="H52" s="8">
-        <v>3.3520677648600001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.35206776486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="8">
-        <v>3.6467200000000002E-4</v>
+        <v>0.000364672</v>
       </c>
       <c r="C53" s="8">
-        <v>2.1880320999999999E-3</v>
+        <v>0.0021880321</v>
       </c>
       <c r="D53" s="8">
-        <v>5.0689412400000002E-2</v>
+        <v>0.0506894124</v>
       </c>
       <c r="E53" s="8">
-        <v>0.27459804025000001</v>
+        <v>0.27459804025</v>
       </c>
       <c r="F53" s="8">
         <v>2.812715384419</v>
       </c>
       <c r="G53" s="5">
-        <v>14.837046302399999</v>
+        <v>14.8370463024</v>
       </c>
       <c r="H53" s="5">
-        <v>30.047152093764399</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30.0471520937644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="8">
-        <v>3.6467200000000002E-4</v>
+        <v>0.000364672</v>
       </c>
       <c r="C54" s="8">
-        <v>1.094016894E-2</v>
+        <v>0.01094016894</v>
       </c>
       <c r="D54" s="8">
-        <v>0.99592004599999995</v>
+        <v>0.995920046</v>
       </c>
       <c r="E54" s="5">
-        <v>93.853886000000003</v>
+        <v>93.853886</v>
       </c>
       <c r="F54" s="5">
-        <v>9437.8098802853001</v>
+        <v>9437.8098802853</v>
       </c>
       <c r="G54" s="5">
         <v>226727.231519333</v>
       </c>
       <c r="H54" s="5">
-        <v>949199.76092083997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>949199.76092084</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="8">
-        <v>4.3760675781529196E-3</v>
+        <v>0.00437606757815292</v>
       </c>
       <c r="C55" s="8">
-        <v>2.55270608725587E-2</v>
+        <v>0.0255270608725587</v>
       </c>
       <c r="D55" s="8">
         <v>0.246518473569281</v>
       </c>
       <c r="E55" s="5">
-        <v>1.8590993761186301</v>
+        <v>1.85909937611863</v>
       </c>
       <c r="F55" s="8">
         <v>17.6720195697742</v>
       </c>
       <c r="G55" s="5">
-        <v>90.197615774253407</v>
+        <v>90.1976157742534</v>
       </c>
       <c r="H55" s="5">
         <v>168.835980611103</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B56" s="5">
-        <v>7.2934459635882001E-4</v>
+        <v>0.00072934459635882</v>
       </c>
       <c r="C56" s="5">
-        <v>7.6581182617676104E-3</v>
+        <v>0.00765811826176761</v>
       </c>
       <c r="D56" s="8">
-        <v>8.9709385352134796E-2</v>
+        <v>0.0897093853521348</v>
       </c>
       <c r="E56" s="8">
         <v>1.12829609056709</v>
@@ -12482,13 +12730,13 @@
         <v>12.5870290439605</v>
       </c>
       <c r="G56" s="5">
-        <v>69.449235829756503</v>
+        <v>69.4492358297565</v>
       </c>
       <c r="H56" s="5">
-        <v>134.47947405502401</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>134.479474055024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -12514,206 +12762,206 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="8">
-        <v>7.2934458999999996E-4</v>
+        <v>0.00072934459</v>
       </c>
       <c r="C59" s="8">
-        <v>2.7350421999999999E-2</v>
+        <v>0.027350422</v>
       </c>
       <c r="D59" s="5">
-        <v>2.4790422830200001</v>
+        <v>2.47904228302</v>
       </c>
       <c r="E59" s="8">
         <v>249.61381203622</v>
       </c>
       <c r="F59" s="8">
-        <v>25154.979162619999</v>
+        <v>25154.97916262</v>
       </c>
       <c r="G59" s="8">
-        <v>597291.35909618996</v>
+        <v>597291.35909619</v>
       </c>
       <c r="H59" s="8">
-        <v>2347234.4620427098</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2347234.46204271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="8">
-        <v>3.6467219999999998E-4</v>
+        <v>0.0003646722</v>
       </c>
       <c r="C60" s="8">
-        <v>3.61025575E-2</v>
+        <v>0.0361025575</v>
       </c>
       <c r="D60" s="8">
-        <v>3.1624381600000002</v>
+        <v>3.16243816</v>
       </c>
       <c r="E60" s="5">
-        <v>243.53071342999999</v>
+        <v>243.53071343</v>
       </c>
       <c r="F60" s="5">
-        <v>23950.109547558299</v>
+        <v>23950.1095475583</v>
       </c>
       <c r="G60" s="8">
-        <v>612276.40717820404</v>
+        <v>612276.407178204</v>
       </c>
       <c r="H60" s="8">
-        <v>2402872.1342227398</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2402872.13422274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="8">
-        <v>7.2934458999999996E-4</v>
+        <v>0.00072934459</v>
       </c>
       <c r="C61" s="8">
-        <v>1.4586891899999999E-2</v>
+        <v>0.0145868919</v>
       </c>
       <c r="D61" s="8">
         <v>1.22931031</v>
       </c>
       <c r="E61" s="5">
-        <v>118.00139158899999</v>
+        <v>118.001391589</v>
       </c>
       <c r="F61" s="5">
-        <v>11270.581010489999</v>
+        <v>11270.58101049</v>
       </c>
       <c r="G61" s="8">
-        <v>180329.18506739999</v>
+        <v>180329.1850674</v>
       </c>
       <c r="H61" s="8">
-        <v>1125942.8565802099</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1125942.85658021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="8">
-        <v>7.2934458999999996E-4</v>
+        <v>0.00072934459</v>
       </c>
       <c r="C62" s="8">
-        <v>4.3760600000000002E-3</v>
+        <v>0.00437606</v>
       </c>
       <c r="D62" s="8">
-        <v>2.8809111549999999E-2</v>
+        <v>0.02880911155</v>
       </c>
       <c r="E62" s="8">
-        <v>0.34935606000000002</v>
+        <v>0.34935606</v>
       </c>
       <c r="F62" s="8">
-        <v>4.2743240068999997</v>
+        <v>4.2743240069</v>
       </c>
       <c r="G62" s="5">
-        <v>23.958223100000001</v>
+        <v>23.9582231</v>
       </c>
       <c r="H62" s="5">
-        <v>46.170794999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46.170795</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="8">
-        <v>3.6467219999999998E-4</v>
+        <v>0.0003646722</v>
       </c>
       <c r="C63" s="8">
-        <v>1.3128202699999999E-2</v>
+        <v>0.0131282027</v>
       </c>
       <c r="D63" s="8">
         <v>1.1811735738</v>
       </c>
       <c r="E63" s="5">
-        <v>115.40237209999999</v>
+        <v>115.4023721</v>
       </c>
       <c r="F63" s="5">
         <v>11766.56925054</v>
       </c>
       <c r="G63" s="5">
-        <v>279936.68564176798</v>
+        <v>279936.685641768</v>
       </c>
       <c r="H63" s="5">
         <v>1180015.54233334</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="8">
-        <v>3.6467219999999998E-4</v>
+        <v>0.0003646722</v>
       </c>
       <c r="C64" s="8">
-        <v>3.6467219999999998E-4</v>
+        <v>0.0003646722</v>
       </c>
       <c r="D64" s="8">
-        <v>4.0113923539999999E-2</v>
+        <v>0.04011392354</v>
       </c>
       <c r="E64" s="8">
-        <v>0.96492219722189998</v>
+        <v>0.9649221972219</v>
       </c>
       <c r="F64" s="8">
-        <v>59.832104996299996</v>
+        <v>59.8321049963</v>
       </c>
       <c r="G64" s="8">
-        <v>2012.6657890219999</v>
+        <v>2012.665789022</v>
       </c>
       <c r="H64" s="8">
-        <v>8268.4390942999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8268.4390943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B65" s="8">
-        <v>7.2934458999999996E-4</v>
+        <v>0.00072934459</v>
       </c>
       <c r="C65" s="8">
-        <v>1.2398858138000001E-2</v>
+        <v>0.012398858138</v>
       </c>
       <c r="D65" s="8">
         <v>1.0480681849</v>
       </c>
       <c r="E65" s="5">
-        <v>96.008734630885002</v>
-      </c>
-      <c r="F65" s="14">
-        <v>11075.361353780199</v>
-      </c>
-      <c r="G65" s="16">
+        <v>96.008734630885</v>
+      </c>
+      <c r="F65" s="13">
+        <v>11075.3613537802</v>
+      </c>
+      <c r="G65" s="15">
         <v>240086.623829858</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H65" s="15">
         <v>1004123.06668981</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="8">
-        <v>3.6467229817940998E-3</v>
+        <v>0.0036467229817941</v>
       </c>
       <c r="C66" s="8">
-        <v>1.67749257162528E-2</v>
+        <v>0.0167749257162528</v>
       </c>
       <c r="D66" s="8">
-        <v>0.16629056796981001</v>
+        <v>0.16629056796981</v>
       </c>
       <c r="E66" s="8">
-        <v>1.8609227376095201</v>
+        <v>1.86092273760952</v>
       </c>
       <c r="F66" s="8">
-        <v>18.095404107960501</v>
+        <v>18.0954041079605</v>
       </c>
       <c r="G66" s="5">
         <v>89.1094344301452</v>
@@ -12722,18 +12970,18 @@
         <v>167.466636131439</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B67" s="8">
-        <v>7.2934459635882001E-4</v>
+        <v>0.00072934459635882</v>
       </c>
       <c r="C67" s="8">
-        <v>6.9287736654087898E-3</v>
+        <v>0.00692877366540879</v>
       </c>
       <c r="D67" s="8">
-        <v>8.6792006966699503E-2</v>
+        <v>0.0867920069666995</v>
       </c>
       <c r="E67" s="8">
         <v>1.18518496908308</v>
@@ -12742,9 +12990,521 @@
         <v>12.6001572466949</v>
       </c>
       <c r="G67" s="5">
-        <v>69.987856421327393</v>
+        <v>69.9878564213274</v>
       </c>
       <c r="H67" s="5">
+        <v>135.265707529899</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12">
+      <c r="C82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12">
+      <c r="C83" s="1">
+        <v>10</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0.00036467229817941</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.00036467229817941</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="G83" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="H83" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="I83" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="J83" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="K83" s="8">
+        <v>0.00437606757815292</v>
+      </c>
+      <c r="L83" s="5">
+        <v>0.00072934459635882</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12">
+      <c r="C84" s="1">
+        <v>100</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0.0113048412435617</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.00036467</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0.00765811</v>
+      </c>
+      <c r="G84" s="8">
+        <v>0.0040113952</v>
+      </c>
+      <c r="H84" s="8">
+        <v>0.000364672</v>
+      </c>
+      <c r="I84" s="8">
+        <v>0.0021880321</v>
+      </c>
+      <c r="J84" s="8">
+        <v>0.01094016894</v>
+      </c>
+      <c r="K84" s="8">
+        <v>0.0255270608725587</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0.00765811826176761</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12">
+      <c r="C85" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1.07031319515656</v>
+      </c>
+      <c r="E85" s="8">
+        <v>0.002188033</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0.7917035593</v>
+      </c>
+      <c r="G85" s="8">
+        <v>0.0266210777</v>
+      </c>
+      <c r="H85" s="8">
+        <v>0.002917378385</v>
+      </c>
+      <c r="I85" s="8">
+        <v>0.0506894124</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0.995920046</v>
+      </c>
+      <c r="K85" s="8">
+        <v>0.246518473569281</v>
+      </c>
+      <c r="L85" s="8">
+        <v>0.0897093853521348</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12">
+      <c r="C86" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D86" s="5">
+        <v>99.283491868537</v>
+      </c>
+      <c r="E86" s="8">
+        <v>0.0207863</v>
+      </c>
+      <c r="F86" s="5">
+        <v>59.3376652998</v>
+      </c>
+      <c r="G86" s="8">
+        <v>0.3650369704</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0.031361817</v>
+      </c>
+      <c r="I86" s="8">
+        <v>0.27459804025</v>
+      </c>
+      <c r="J86" s="5">
+        <v>93.853886</v>
+      </c>
+      <c r="K86" s="5">
+        <v>1.85909937611863</v>
+      </c>
+      <c r="L86" s="8">
+        <v>1.12829609056709</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12">
+      <c r="C87" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D87" s="5">
+        <v>9664.62109818</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.20749853766</v>
+      </c>
+      <c r="F87" s="5">
+        <v>11124.6650484941</v>
+      </c>
+      <c r="G87" s="8">
+        <v>4.1280904153</v>
+      </c>
+      <c r="H87" s="5">
+        <v>0.3066894</v>
+      </c>
+      <c r="I87" s="8">
+        <v>2.812715384419</v>
+      </c>
+      <c r="J87" s="5">
+        <v>9437.8098802853</v>
+      </c>
+      <c r="K87" s="8">
+        <v>17.6720195697742</v>
+      </c>
+      <c r="L87" s="8">
+        <v>12.5870290439605</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12">
+      <c r="C88" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D88" s="8">
+        <v>245270.455365966</v>
+      </c>
+      <c r="E88" s="8">
+        <v>1.01707029</v>
+      </c>
+      <c r="F88" s="8">
+        <v>140101.38903577</v>
+      </c>
+      <c r="G88" s="8">
+        <v>24.222610395</v>
+      </c>
+      <c r="H88" s="8">
+        <v>1.527611142</v>
+      </c>
+      <c r="I88" s="5">
+        <v>14.8370463024</v>
+      </c>
+      <c r="J88" s="5">
+        <v>226727.231519333</v>
+      </c>
+      <c r="K88" s="5">
+        <v>90.1976157742534</v>
+      </c>
+      <c r="L88" s="5">
+        <v>69.4492358297565</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12">
+      <c r="C89" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D89" s="8">
+        <v>967866.559841994</v>
+      </c>
+      <c r="E89" s="8">
+        <v>2.146461147</v>
+      </c>
+      <c r="F89" s="8">
+        <v>1193754.9044777</v>
+      </c>
+      <c r="G89" s="8">
+        <v>44.254806745562</v>
+      </c>
+      <c r="H89" s="8">
+        <v>3.35206776486</v>
+      </c>
+      <c r="I89" s="5">
+        <v>30.0471520937644</v>
+      </c>
+      <c r="J89" s="5">
+        <v>949199.76092084</v>
+      </c>
+      <c r="K89" s="5">
+        <v>168.835980611103</v>
+      </c>
+      <c r="L89" s="5">
+        <v>134.479474055024</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="1">
+        <v>10</v>
+      </c>
+      <c r="C109" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="D109" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="E109" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="F109" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="G109" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="H109" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="I109" s="8">
+        <v>0.00072934459</v>
+      </c>
+      <c r="J109" s="8">
+        <v>0.0036467229817941</v>
+      </c>
+      <c r="K109" s="8">
+        <v>0.00072934459635882</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="1">
+        <v>100</v>
+      </c>
+      <c r="C110" s="8">
+        <v>0.027350422</v>
+      </c>
+      <c r="D110" s="8">
+        <v>0.0361025575</v>
+      </c>
+      <c r="E110" s="8">
+        <v>0.0145868919</v>
+      </c>
+      <c r="F110" s="8">
+        <v>0.00437606</v>
+      </c>
+      <c r="G110" s="8">
+        <v>0.0131282027</v>
+      </c>
+      <c r="H110" s="8">
+        <v>0.0003646722</v>
+      </c>
+      <c r="I110" s="8">
+        <v>0.012398858138</v>
+      </c>
+      <c r="J110" s="8">
+        <v>0.0167749257162528</v>
+      </c>
+      <c r="K110" s="8">
+        <v>0.00692877366540879</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C111" s="5">
+        <v>2.47904228302</v>
+      </c>
+      <c r="D111" s="8">
+        <v>3.16243816</v>
+      </c>
+      <c r="E111" s="8">
+        <v>1.22931031</v>
+      </c>
+      <c r="F111" s="8">
+        <v>0.02880911155</v>
+      </c>
+      <c r="G111" s="8">
+        <v>1.1811735738</v>
+      </c>
+      <c r="H111" s="8">
+        <v>0.04011392354</v>
+      </c>
+      <c r="I111" s="8">
+        <v>1.0480681849</v>
+      </c>
+      <c r="J111" s="8">
+        <v>0.16629056796981</v>
+      </c>
+      <c r="K111" s="8">
+        <v>0.0867920069666995</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C112" s="8">
+        <v>249.61381203622</v>
+      </c>
+      <c r="D112" s="5">
+        <v>243.53071343</v>
+      </c>
+      <c r="E112" s="5">
+        <v>118.001391589</v>
+      </c>
+      <c r="F112" s="8">
+        <v>0.34935606</v>
+      </c>
+      <c r="G112" s="5">
+        <v>115.4023721</v>
+      </c>
+      <c r="H112" s="8">
+        <v>0.9649221972219</v>
+      </c>
+      <c r="I112" s="5">
+        <v>96.008734630885</v>
+      </c>
+      <c r="J112" s="8">
+        <v>1.86092273760952</v>
+      </c>
+      <c r="K112" s="8">
+        <v>1.18518496908308</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C113" s="8">
+        <v>25154.97916262</v>
+      </c>
+      <c r="D113" s="5">
+        <v>23950.1095475583</v>
+      </c>
+      <c r="E113" s="5">
+        <v>11270.58101049</v>
+      </c>
+      <c r="F113" s="8">
+        <v>4.2743240069</v>
+      </c>
+      <c r="G113" s="5">
+        <v>11766.56925054</v>
+      </c>
+      <c r="H113" s="8">
+        <v>59.8321049963</v>
+      </c>
+      <c r="I113" s="13">
+        <v>11075.3613537802</v>
+      </c>
+      <c r="J113" s="8">
+        <v>18.0954041079605</v>
+      </c>
+      <c r="K113" s="8">
+        <v>12.6001572466949</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11">
+      <c r="B114" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C114" s="8">
+        <v>597291.35909619</v>
+      </c>
+      <c r="D114" s="8">
+        <v>612276.407178204</v>
+      </c>
+      <c r="E114" s="8">
+        <v>180329.1850674</v>
+      </c>
+      <c r="F114" s="5">
+        <v>23.9582231</v>
+      </c>
+      <c r="G114" s="5">
+        <v>279936.685641768</v>
+      </c>
+      <c r="H114" s="8">
+        <v>2012.665789022</v>
+      </c>
+      <c r="I114" s="15">
+        <v>240086.623829858</v>
+      </c>
+      <c r="J114" s="5">
+        <v>89.1094344301452</v>
+      </c>
+      <c r="K114" s="5">
+        <v>69.9878564213274</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C115" s="8">
+        <v>2347234.46204271</v>
+      </c>
+      <c r="D115" s="8">
+        <v>2402872.13422274</v>
+      </c>
+      <c r="E115" s="8">
+        <v>1125942.85658021</v>
+      </c>
+      <c r="F115" s="5">
+        <v>46.170795</v>
+      </c>
+      <c r="G115" s="5">
+        <v>1180015.54233334</v>
+      </c>
+      <c r="H115" s="8">
+        <v>8268.4390943</v>
+      </c>
+      <c r="I115" s="15">
+        <v>1004123.06668981</v>
+      </c>
+      <c r="J115" s="5">
+        <v>167.466636131439</v>
+      </c>
+      <c r="K115" s="5">
         <v>135.265707529899</v>
       </c>
     </row>
@@ -12752,181 +13512,29 @@
   <mergeCells count="1">
     <mergeCell ref="A34:H34"/>
   </mergeCells>
-  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
-      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{B2CFF243-B058-42AF-B93F-E6B78D00A06A}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Geral!B59:H59</xm:f>
-              <xm:sqref>I59</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B60:H60</xm:f>
-              <xm:sqref>I60</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B61:H61</xm:f>
-              <xm:sqref>I61</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B62:H62</xm:f>
-              <xm:sqref>I62</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B63:H63</xm:f>
-              <xm:sqref>I63</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B64:H64</xm:f>
-              <xm:sqref>I64</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B65:H65</xm:f>
-              <xm:sqref>I65</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B66:H66</xm:f>
-              <xm:sqref>I66</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B67:H67</xm:f>
-              <xm:sqref>I67</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{E3264806-B52B-4012-8588-D9BE752B264E}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Geral!B48:H48</xm:f>
-              <xm:sqref>I48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B49:H49</xm:f>
-              <xm:sqref>I49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B50:H50</xm:f>
-              <xm:sqref>I50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B51:H51</xm:f>
-              <xm:sqref>I51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B52:H52</xm:f>
-              <xm:sqref>I52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B53:H53</xm:f>
-              <xm:sqref>I53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B54:H54</xm:f>
-              <xm:sqref>I54</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B55:H55</xm:f>
-              <xm:sqref>I55</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B56:H56</xm:f>
-              <xm:sqref>I56</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{667851D9-0D10-465D-B744-F05C0C2F3516}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Geral!B36:H36</xm:f>
-              <xm:sqref>I36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B37:H37</xm:f>
-              <xm:sqref>I37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B38:H38</xm:f>
-              <xm:sqref>I38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B39:H39</xm:f>
-              <xm:sqref>I39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B40:H40</xm:f>
-              <xm:sqref>I40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B41:H41</xm:f>
-              <xm:sqref>I41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B42:H42</xm:f>
-              <xm:sqref>I42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B43:H43</xm:f>
-              <xm:sqref>I43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B44:H44</xm:f>
-              <xm:sqref>I44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Geral!B45:H45</xm:f>
-              <xm:sqref>I45</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-      </x14:sparklineGroups>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.4402985074627" customWidth="1"/>
+    <col min="2" max="2" width="18.1119402985075" customWidth="1"/>
+    <col min="3" max="4" width="18.3283582089552" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -12940,91 +13548,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="5">
-        <v>2.5658E-3</v>
+        <v>0.0025658</v>
       </c>
       <c r="C2" s="6">
-        <v>2.5658E-3</v>
+        <v>0.0025658</v>
       </c>
       <c r="D2" s="7">
-        <v>2.13817E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00213817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>2.309222E-2</v>
+        <v>0.02309222</v>
       </c>
       <c r="C3" s="6">
-        <v>2.52304E-2</v>
+        <v>0.0252304</v>
       </c>
       <c r="D3" s="7">
-        <v>2.13817E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00213817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>0.31473852000000002</v>
+        <v>0.31473852</v>
       </c>
       <c r="C4" s="9">
-        <v>0.33526508999999999</v>
+        <v>0.33526509</v>
       </c>
       <c r="D4" s="7">
         <v>0.25871959</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="8">
-        <v>4.0141991499999996</v>
+        <v>4.01419915</v>
       </c>
       <c r="C5" s="9">
-        <v>3.3171573599999999</v>
+        <v>3.31715736</v>
       </c>
       <c r="D5" s="7">
-        <v>3.0708519600000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.07085196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="8">
-        <v>51.342005550000003</v>
+        <v>51.34200555</v>
       </c>
       <c r="C6" s="9">
-        <v>42.871169250000001</v>
+        <v>42.87116925</v>
       </c>
       <c r="D6" s="7">
         <v>36.31696187</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="5">
-        <v>677.83475285999998</v>
+        <v>677.83475286</v>
       </c>
       <c r="C7" s="6">
-        <v>513.81257995999999</v>
+        <v>513.81257996</v>
       </c>
       <c r="D7" s="10">
-        <v>425.68226068000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>425.68226068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -13038,35 +13646,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>7.2934459635882001E-4</v>
+        <v>0.00072934459635882</v>
       </c>
       <c r="C11" s="6">
-        <v>7.2934459635882001E-4</v>
+        <v>0.00072934459635882</v>
       </c>
       <c r="D11" s="7">
-        <v>7.2934459635882001E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00072934459635882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="8">
-        <v>8.0227847085723395E-3</v>
+        <v>0.00802278470857234</v>
       </c>
       <c r="C12" s="6">
-        <v>7.6581182617676104E-3</v>
+        <v>0.00765811826176761</v>
       </c>
       <c r="D12" s="7">
-        <v>6.9287736654087898E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00692877366540879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
@@ -13074,13 +13682,13 @@
         <v>0.106848905436895</v>
       </c>
       <c r="C13" s="9">
-        <v>8.9709385352134796E-2</v>
+        <v>0.0897093853521348</v>
       </c>
       <c r="D13" s="7">
-        <v>8.6792006966699503E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0867920069666995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
@@ -13094,12 +13702,12 @@
         <v>1.18518496908308</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
       <c r="B15" s="8">
-        <v>18.604473067147001</v>
+        <v>18.604473067147</v>
       </c>
       <c r="C15" s="9">
         <v>12.5870290439605</v>
@@ -13108,7 +13716,7 @@
         <v>12.6001572466949</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
@@ -13116,54 +13724,56 @@
         <v>107.423263887622</v>
       </c>
       <c r="C16" s="9">
-        <v>69.449235829756503</v>
+        <v>69.4492358297565</v>
       </c>
       <c r="D16" s="7">
-        <v>69.987856421327393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69.9878564213274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
       <c r="B17" s="5">
-        <v>259.05280086354298</v>
+        <v>259.052800863543</v>
       </c>
       <c r="C17" s="6">
-        <v>134.47947405502401</v>
+        <v>134.479474055024</v>
       </c>
       <c r="D17" s="10">
         <v>135.265707529899</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35"/>
   <cols>
-    <col min="1" max="1" width="21.88671875"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625"/>
-    <col min="6" max="6" width="14.109375"/>
-    <col min="7" max="8" width="12.44140625"/>
-    <col min="9" max="1025" width="11.33203125"/>
+    <col min="1" max="1" width="21.8880597014925"/>
+    <col min="2" max="2" width="23.4402985074627" customWidth="1"/>
+    <col min="3" max="3" width="23.3283582089552" customWidth="1"/>
+    <col min="4" max="4" width="22.5522388059701" customWidth="1"/>
+    <col min="5" max="5" width="12.4402985074627"/>
+    <col min="6" max="6" width="14.1119402985075"/>
+    <col min="7" max="8" width="12.4402985074627"/>
+    <col min="9" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -13177,77 +13787,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C2" s="6">
-        <v>1.2829E-3</v>
+        <v>0.0012829</v>
       </c>
       <c r="D2" s="7">
-        <v>1.71053E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00171053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>8.1250429999999998E-2</v>
+        <v>0.08125043</v>
       </c>
       <c r="C3" s="9">
-        <v>3.4638330000000002E-2</v>
+        <v>0.03463833</v>
       </c>
       <c r="D3" s="7">
-        <v>9.0230740000000004E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.09023074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>6.8635236400000004</v>
+        <v>6.86352364</v>
       </c>
       <c r="C4" s="9">
         <v>3.45570931</v>
       </c>
       <c r="D4" s="10">
-        <v>9.0863645000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.0863645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="5">
-        <v>879.92810660999999</v>
+        <v>879.92810661</v>
       </c>
       <c r="C5" s="6">
-        <v>346.92695885000001</v>
+        <v>346.92695885</v>
       </c>
       <c r="D5" s="7">
-        <v>912.39535264000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>912.39535264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="5">
-        <v>99342.690817709998</v>
+        <v>99342.69081771</v>
       </c>
       <c r="C6" s="6">
-        <v>35107.452418239998</v>
-      </c>
-      <c r="D6" s="11">
-        <v>88249.403789000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35107.45241824</v>
+      </c>
+      <c r="D6" s="27">
+        <v>88249.403789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
@@ -13255,13 +13865,13 @@
         <v>10671006.8990172</v>
       </c>
       <c r="C7" s="6">
-        <v>3462956.6246687402</v>
-      </c>
-      <c r="D7" s="11">
-        <v>9144960.6452824008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3462956.62466874</v>
+      </c>
+      <c r="D7" s="27">
+        <v>9144960.6452824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -13275,172 +13885,172 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>3.6467229817941E-4</v>
+      <c r="B11" s="12">
+        <v>0.00036467229817941</v>
       </c>
       <c r="C11" s="5">
-        <v>3.6467229817941E-4</v>
+        <v>0.00036467229817941</v>
       </c>
       <c r="D11" s="8">
-        <v>7.2934458999999996E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00072934459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="13">
-        <v>2.5162379222340499E-2</v>
+      <c r="B12" s="12">
+        <v>0.0251623792223405</v>
       </c>
       <c r="C12" s="8">
-        <v>1.13048412435617E-2</v>
+        <v>0.0113048412435617</v>
       </c>
       <c r="D12" s="8">
-        <v>2.7350421999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.027350422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="13">
-        <v>2.0272118270433399</v>
+      <c r="B13" s="12">
+        <v>2.02721182704334</v>
       </c>
       <c r="C13" s="8">
-        <v>1.0703131951565601</v>
+        <v>1.07031319515656</v>
       </c>
       <c r="D13" s="5">
-        <v>2.4790422830200001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.47904228302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="13">
-        <v>260.85610406281103</v>
+      <c r="B14" s="12">
+        <v>260.856104062811</v>
       </c>
       <c r="C14" s="5">
-        <v>99.283491868536998</v>
+        <v>99.283491868537</v>
       </c>
       <c r="D14" s="8">
         <v>249.61381203622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="19">
-        <v>29710.646446125102</v>
+      <c r="B15" s="24">
+        <v>29710.6464461251</v>
       </c>
       <c r="C15" s="5">
-        <v>9664.6210981799995</v>
+        <v>9664.62109818</v>
       </c>
       <c r="D15" s="8">
-        <v>25154.979162619999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25154.97916262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
-      <c r="B16" s="13">
-        <v>746315.85557528795</v>
+      <c r="B16" s="12">
+        <v>746315.855575288</v>
       </c>
       <c r="C16" s="8">
-        <v>245270.45536596599</v>
+        <v>245270.455365966</v>
       </c>
       <c r="D16" s="8">
-        <v>597291.35909618996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>597291.35909619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B17" s="13">
-        <v>3014609.0435812501</v>
+      <c r="B17" s="12">
+        <v>3014609.04358125</v>
       </c>
       <c r="C17" s="8">
-        <v>967866.55984199396</v>
+        <v>967866.559841994</v>
       </c>
       <c r="D17" s="8">
-        <v>2347234.4620427098</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="34"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="34"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+        <v>2347234.46204271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="28"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="28"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="28"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -13451,25 +14061,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.21875"/>
-    <col min="6" max="7" width="12.44140625"/>
-    <col min="8" max="1025" width="11.33203125"/>
+    <col min="1" max="1" width="22.5522388059701" customWidth="1"/>
+    <col min="2" max="2" width="22.3283582089552" customWidth="1"/>
+    <col min="3" max="3" width="22.5522388059701" customWidth="1"/>
+    <col min="4" max="4" width="22.1119402985075" customWidth="1"/>
+    <col min="5" max="5" width="15.2164179104478"/>
+    <col min="6" max="7" width="12.4402985074627"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13483,77 +14094,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C2" s="9">
-        <v>4.2763000000000002E-4</v>
+        <v>0.00042763</v>
       </c>
       <c r="D2" s="7">
-        <v>1.71054E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00171054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="5">
-        <v>8.4671499999999997E-2</v>
+        <v>0.0846715</v>
       </c>
       <c r="C3" s="6">
-        <v>1.2829E-3</v>
+        <v>0.0012829</v>
       </c>
       <c r="D3" s="7">
-        <v>9.4079850000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.09407985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>7.1359264099999997</v>
+        <v>7.13592641</v>
       </c>
       <c r="C4" s="9">
-        <v>7.2697700000000001E-3</v>
+        <v>0.00726977</v>
       </c>
       <c r="D4" s="7">
-        <v>9.2942343100000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.29423431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="5">
-        <v>908.12799423000001</v>
+        <v>908.12799423</v>
       </c>
       <c r="C5" s="9">
-        <v>6.671088E-2</v>
+        <v>0.06671088</v>
       </c>
       <c r="D5" s="10">
-        <v>921.18033258000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>921.18033258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="5">
-        <v>102421.34979209999</v>
+        <v>102421.3497921</v>
       </c>
       <c r="C6" s="6">
-        <v>0.69062869999999998</v>
+        <v>0.6906287</v>
       </c>
       <c r="D6" s="10">
-        <v>95060.103770069996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95060.10377007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
@@ -13561,13 +14172,13 @@
         <v>10227994.7349717</v>
       </c>
       <c r="C7" s="9">
-        <v>6.6830621399999997</v>
+        <v>6.68306214</v>
       </c>
       <c r="D7" s="10">
-        <v>9101019.7783484701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9101019.77834847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -13581,142 +14192,142 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>3.6467219999999998E-4</v>
+      <c r="B11" s="12">
+        <v>0.0003646722</v>
       </c>
       <c r="C11" s="5">
-        <v>3.6467229817941E-4</v>
+        <v>0.00036467229817941</v>
       </c>
       <c r="D11" s="8">
-        <v>3.6467219999999998E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0003646722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="13">
-        <v>2.4433026100000001E-2</v>
+      <c r="B12" s="12">
+        <v>0.0244330261</v>
       </c>
       <c r="C12" s="5">
-        <v>3.6466999999999999E-4</v>
+        <v>0.00036467</v>
       </c>
       <c r="D12" s="8">
-        <v>3.61025575E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0361025575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="13">
-        <v>2.0326819075000002</v>
+      <c r="B13" s="12">
+        <v>2.0326819075</v>
       </c>
       <c r="C13" s="8">
-        <v>2.1880329999999998E-3</v>
+        <v>0.002188033</v>
       </c>
       <c r="D13" s="8">
-        <v>3.1624381600000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.16243816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="13">
-        <v>271.69306283999998</v>
+      <c r="B14" s="12">
+        <v>271.69306284</v>
       </c>
       <c r="C14" s="8">
-        <v>2.0786300000000001E-2</v>
+        <v>0.0207863</v>
       </c>
       <c r="D14" s="5">
-        <v>243.53071342999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>243.53071343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="19">
-        <v>29745.611719100001</v>
+      <c r="B15" s="24">
+        <v>29745.6117191</v>
       </c>
       <c r="C15" s="5">
-        <v>0.20749853766000001</v>
+        <v>0.20749853766</v>
       </c>
       <c r="D15" s="5">
-        <v>23950.109547558299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23950.1095475583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>739743.55642752</v>
       </c>
       <c r="C16" s="8">
-        <v>1.0170702899999999</v>
+        <v>1.01707029</v>
       </c>
       <c r="D16" s="8">
-        <v>612276.40717820404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>612276.407178204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B17" s="13">
-        <v>2988860.7761393399</v>
+      <c r="B17" s="12">
+        <v>2988860.77613934</v>
       </c>
       <c r="C17" s="8">
-        <v>2.1464611470000001</v>
+        <v>2.146461147</v>
       </c>
       <c r="D17" s="8">
-        <v>2402872.1342227398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+        <v>2402872.13422274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -13727,24 +14338,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.88671875"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875"/>
-    <col min="6" max="7" width="12.44140625"/>
-    <col min="8" max="1025" width="11.33203125"/>
+    <col min="1" max="1" width="23.8880597014925"/>
+    <col min="2" max="2" width="25.1119402985075" customWidth="1"/>
+    <col min="3" max="4" width="22.4402985074627" customWidth="1"/>
+    <col min="5" max="5" width="15.2164179104478"/>
+    <col min="6" max="7" width="12.4402985074627"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -13758,49 +14370,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>2.1381600000000001E-3</v>
+        <v>0.00213816</v>
       </c>
       <c r="C2" s="9">
-        <v>2.13817E-3</v>
+        <v>0.00213817</v>
       </c>
       <c r="D2" s="7">
-        <v>2.1381600000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00213816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>2.0098789999999998E-2</v>
+        <v>0.02009879</v>
       </c>
       <c r="C3" s="9">
-        <v>4.1908109999999998E-2</v>
+        <v>0.04190811</v>
       </c>
       <c r="D3" s="7">
-        <v>4.2763379999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.04276338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>0.25187635000000003</v>
+        <v>0.25187635</v>
       </c>
       <c r="C4" s="9">
-        <v>3.4963345299999999</v>
+        <v>3.49633453</v>
       </c>
       <c r="D4" s="7">
-        <v>3.5001832400000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.50018324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
@@ -13808,41 +14420,41 @@
         <v>3.13926025</v>
       </c>
       <c r="C5" s="6">
-        <v>347.60191373999999</v>
+        <v>347.60191374</v>
       </c>
       <c r="D5" s="10">
-        <v>338.29645292999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338.29645293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="8">
-        <v>38.477640520000001</v>
+        <v>38.47764052</v>
       </c>
       <c r="C6" s="6">
-        <v>34421.033523079997</v>
+        <v>34421.03352308</v>
       </c>
       <c r="D6" s="10">
-        <v>33710.402920909997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33710.40292091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="5">
-        <v>502.00196797000001</v>
+        <v>502.00196797</v>
       </c>
       <c r="C7" s="6">
         <v>3293236.44432698</v>
       </c>
       <c r="D7" s="10">
-        <v>3371497.8817156102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3371497.88171561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -13856,133 +14468,133 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>7.2934458999999996E-4</v>
+      <c r="B11" s="12">
+        <v>0.00072934459</v>
       </c>
       <c r="C11" s="8">
-        <v>3.6467200000000002E-4</v>
+        <v>0.000364672</v>
       </c>
       <c r="D11" s="8">
-        <v>7.2934458999999996E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00072934459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="13">
-        <v>6.9287680000000001E-3</v>
+      <c r="B12" s="12">
+        <v>0.006928768</v>
       </c>
       <c r="C12" s="8">
-        <v>7.6581100000000001E-3</v>
+        <v>0.00765811</v>
       </c>
       <c r="D12" s="8">
-        <v>1.4586891899999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0145868919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="13">
-        <v>8.7156609999999995E-2</v>
+      <c r="B13" s="12">
+        <v>0.08715661</v>
       </c>
       <c r="C13" s="8">
-        <v>0.79170355930000003</v>
+        <v>0.7917035593</v>
       </c>
       <c r="D13" s="8">
         <v>1.22931031</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="13">
-        <v>1.1013095369999999</v>
+      <c r="B14" s="12">
+        <v>1.101309537</v>
       </c>
       <c r="C14" s="5">
-        <v>59.337665299800001</v>
+        <v>59.3376652998</v>
       </c>
       <c r="D14" s="5">
-        <v>118.00139158899999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118.001391589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="19">
-        <v>13.885252298299999</v>
+      <c r="B15" s="24">
+        <v>13.8852522983</v>
       </c>
       <c r="C15" s="5">
         <v>11124.6650484941</v>
       </c>
       <c r="D15" s="5">
-        <v>11270.581010489999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11270.58101049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
-      <c r="B16" s="13">
-        <v>72.330874228260001</v>
+      <c r="B16" s="12">
+        <v>72.33087422826</v>
       </c>
       <c r="C16" s="8">
         <v>140101.38903577</v>
       </c>
       <c r="D16" s="8">
-        <v>180329.18506739999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>180329.1850674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B17" s="13">
-        <v>154.06164709999999</v>
+      <c r="B17" s="12">
+        <v>154.0616471</v>
       </c>
       <c r="C17" s="8">
-        <v>1193754.9044776999</v>
+        <v>1193754.9044777</v>
       </c>
       <c r="D17" s="8">
-        <v>1125942.8565802099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+        <v>1125942.85658021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -13993,26 +14605,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625"/>
+    <col min="1" max="1" width="22.8880597014925" customWidth="1"/>
+    <col min="2" max="2" width="22.5522388059701" customWidth="1"/>
+    <col min="3" max="3" width="22.6641791044776" customWidth="1"/>
+    <col min="4" max="4" width="22.4402985074627" customWidth="1"/>
+    <col min="5" max="5" width="12.4402985074627"/>
     <col min="6" max="6" width="12"/>
-    <col min="7" max="7" width="12.44140625"/>
-    <col min="8" max="1025" width="11.33203125"/>
+    <col min="7" max="7" width="12.4402985074627"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14026,49 +14639,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="5">
-        <v>2.5658E-3</v>
+        <v>0.0025658</v>
       </c>
       <c r="C2" s="9">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="D2" s="7">
-        <v>1.71054E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00171054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>2.608566E-2</v>
+        <v>0.02608566</v>
       </c>
       <c r="C3" s="9">
-        <v>1.282902E-2</v>
+        <v>0.01282902</v>
       </c>
       <c r="D3" s="7">
-        <v>1.069089E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01069089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>0.31602142999999999</v>
+        <v>0.31602143</v>
       </c>
       <c r="C4" s="9">
-        <v>0.11845463000000001</v>
+        <v>0.11845463</v>
       </c>
       <c r="D4" s="7">
-        <v>8.9375860000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.08937586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
@@ -14082,35 +14695,35 @@
         <v>1.15589929</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="8">
-        <v>42.591478360000004</v>
+        <v>42.59147836</v>
       </c>
       <c r="C6" s="9">
-        <v>16.379667189999999</v>
+        <v>16.37966719</v>
       </c>
       <c r="D6" s="7">
         <v>14.63027258</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="5">
-        <v>458.47610959000002</v>
+        <v>458.47610959</v>
       </c>
       <c r="C7" s="9">
         <v>148.39878911</v>
       </c>
       <c r="D7" s="10">
-        <v>150.62954389000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150.62954389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -14124,142 +14737,142 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>3.6467229817E-4</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3.6467229817E-4</v>
+      <c r="B11" s="12">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.00036467229817</v>
       </c>
       <c r="D11" s="8">
-        <v>7.2934458999999996E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00072934459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="13">
-        <v>8.3874567000000004E-3</v>
+      <c r="B12" s="12">
+        <v>0.0083874567</v>
       </c>
       <c r="C12" s="8">
-        <v>4.0113952000000001E-3</v>
+        <v>0.0040113952</v>
       </c>
       <c r="D12" s="8">
-        <v>4.3760600000000002E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00437606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>0.1068489054</v>
       </c>
       <c r="C13" s="8">
-        <v>2.6621077699999999E-2</v>
+        <v>0.0266210777</v>
       </c>
       <c r="D13" s="8">
-        <v>2.8809111549999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02880911155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="13">
-        <v>1.2654119500000001</v>
+      <c r="B14" s="12">
+        <v>1.26541195</v>
       </c>
       <c r="C14" s="8">
-        <v>0.36503697039999999</v>
+        <v>0.3650369704</v>
       </c>
       <c r="D14" s="8">
-        <v>0.34935606000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.34935606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="24">
         <v>16.926617046</v>
       </c>
       <c r="C15" s="8">
         <v>4.1280904153</v>
       </c>
       <c r="D15" s="8">
-        <v>4.2743240068999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.2743240069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
-      <c r="B16" s="13">
-        <v>76.819257600599997</v>
+      <c r="B16" s="12">
+        <v>76.8192576006</v>
       </c>
       <c r="C16" s="8">
         <v>24.222610395</v>
       </c>
       <c r="D16" s="5">
-        <v>23.958223100000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23.9582231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B17" s="13">
-        <v>158.27069478824899</v>
+      <c r="B17" s="12">
+        <v>158.270694788249</v>
       </c>
       <c r="C17" s="8">
         <v>44.254806745562</v>
       </c>
       <c r="D17" s="5">
-        <v>46.170794999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+        <v>46.170795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -14270,26 +14883,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.88671875"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875"/>
-    <col min="6" max="6" width="16.33203125"/>
-    <col min="7" max="7" width="17.44140625"/>
-    <col min="8" max="1025" width="11.33203125"/>
+    <col min="1" max="1" width="22.8880597014925"/>
+    <col min="2" max="2" width="22.5522388059701" customWidth="1"/>
+    <col min="3" max="3" width="22.4402985074627" customWidth="1"/>
+    <col min="4" max="4" width="22.5522388059701" customWidth="1"/>
+    <col min="5" max="5" width="15.2164179104478"/>
+    <col min="6" max="6" width="16.3283582089552"/>
+    <col min="7" max="7" width="17.4402985074627"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -14303,91 +14917,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>8.5526000000000005E-4</v>
+        <v>0.00085526</v>
       </c>
       <c r="C2" s="9">
-        <v>4.2763000000000002E-4</v>
+        <v>0.00042763</v>
       </c>
       <c r="D2" s="10">
-        <v>1.2829E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0012829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>2.1381689999999998E-2</v>
+        <v>0.02138169</v>
       </c>
       <c r="C3" s="9">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="D3" s="7">
-        <v>3.8487210000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03848721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>1.7857990399999999</v>
+        <v>1.78579904</v>
       </c>
       <c r="C4" s="9">
-        <v>1.069084E-2</v>
+        <v>0.01069084</v>
       </c>
       <c r="D4" s="7">
-        <v>3.5643435600000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.56434356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="5">
-        <v>178.72316223000001</v>
+        <v>178.72316223</v>
       </c>
       <c r="C5" s="6">
         <v>0.1099019</v>
       </c>
       <c r="D5" s="10">
-        <v>377.07120006000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>377.07120006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="5">
-        <v>18256.025254339998</v>
+        <v>18256.02525434</v>
       </c>
       <c r="C6" s="6">
         <v>1.0297428</v>
       </c>
       <c r="D6" s="10">
-        <v>38632.696426969997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38632.69642697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="5">
-        <v>2102130.7931026001</v>
+        <v>2102130.7931026</v>
       </c>
       <c r="C7" s="9">
         <v>13.24639247</v>
       </c>
       <c r="D7" s="10">
-        <v>4198039.2449835101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4198039.24498351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -14401,68 +15015,68 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>7.2934458999999996E-4</v>
+      <c r="B11" s="12">
+        <v>0.00072934459</v>
       </c>
       <c r="C11" s="8">
-        <v>3.6467200000000002E-4</v>
+        <v>0.000364672</v>
       </c>
       <c r="D11" s="8">
-        <v>3.6467200000000002E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.000364672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="13">
-        <v>7.2934458999999996E-4</v>
+      <c r="B12" s="12">
+        <v>0.00072934459</v>
       </c>
       <c r="C12" s="8">
-        <v>3.6467200000000002E-4</v>
+        <v>0.000364672</v>
       </c>
       <c r="D12" s="8">
-        <v>1.3128202699999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0131282027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="13">
-        <v>0.61811909459000003</v>
+      <c r="B13" s="12">
+        <v>0.61811909459</v>
       </c>
       <c r="C13" s="8">
-        <v>2.9173783850000002E-3</v>
+        <v>0.002917378385</v>
       </c>
       <c r="D13" s="8">
         <v>1.1811735738</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="13">
-        <v>58.777108807099999</v>
+      <c r="B14" s="12">
+        <v>58.7771088071</v>
       </c>
       <c r="C14" s="5">
-        <v>3.1361817E-2</v>
+        <v>0.031361817</v>
       </c>
       <c r="D14" s="5">
-        <v>115.40237209999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115.4023721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="13">
-        <v>5917.2730554769996</v>
+      <c r="B15" s="12">
+        <v>5917.273055477</v>
       </c>
       <c r="C15" s="5">
         <v>0.3066894</v>
@@ -14471,63 +15085,63 @@
         <v>11766.56925054</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
-      <c r="B16" s="15">
-        <v>139065.63039000001</v>
+      <c r="B16" s="14">
+        <v>139065.63039</v>
       </c>
       <c r="C16" s="8">
         <v>1.527611142</v>
       </c>
       <c r="D16" s="5">
-        <v>279936.68564176798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>279936.685641768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B17" s="15">
-        <v>558118.93677599996</v>
+      <c r="B17" s="14">
+        <v>558118.936776</v>
       </c>
       <c r="C17" s="8">
-        <v>3.3520677648600001</v>
+        <v>3.35206776486</v>
       </c>
       <c r="D17" s="5">
         <v>1180015.54233334</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -14538,22 +15152,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="7" width="12.44140625"/>
-    <col min="8" max="1025" width="11.33203125"/>
+    <col min="2" max="4" width="22.6641791044776" customWidth="1"/>
+    <col min="5" max="7" width="12.4402985074627"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -14567,35 +15182,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C2" s="6">
-        <v>1.2829E-3</v>
-      </c>
-      <c r="D2" s="17">
-        <v>1.2829E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0012829</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0.0012829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>1.924352E-2</v>
+        <v>0.01924352</v>
       </c>
       <c r="C3" s="9">
-        <v>5.55924E-3</v>
-      </c>
-      <c r="D3" s="18">
-        <v>9.4079400000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00555924</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.00940794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
@@ -14603,55 +15218,55 @@
         <v>0.29506737</v>
       </c>
       <c r="C4" s="9">
-        <v>5.131608E-2</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0.10904663000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.05131608</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.10904663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="8">
-        <v>4.3272271399999997</v>
+        <v>4.32722714</v>
       </c>
       <c r="C5" s="9">
-        <v>0.85056377000000005</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1.3722770900000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.85056377</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1.37227709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="8">
-        <v>62.999449630000001</v>
+        <v>62.99944963</v>
       </c>
       <c r="C6" s="9">
         <v>11.01884197</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="23">
         <v>16.41515338</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
       <c r="B7" s="5">
-        <v>883.60746802000006</v>
+        <v>883.60746802</v>
       </c>
       <c r="C7" s="6">
         <v>124.85733492</v>
       </c>
-      <c r="D7" s="18">
-        <v>187.48110392000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="23">
+        <v>187.48110392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -14665,133 +15280,133 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>7.2934458999999996E-4</v>
+      <c r="B11" s="12">
+        <v>0.00072934459</v>
       </c>
       <c r="C11" s="8">
-        <v>3.6467200000000002E-4</v>
+        <v>0.000364672</v>
       </c>
       <c r="D11" s="8">
-        <v>3.6467200000000002E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.000364672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="13">
-        <v>6.9287686000000003E-3</v>
+      <c r="B12" s="12">
+        <v>0.0069287686</v>
       </c>
       <c r="C12" s="8">
-        <v>2.1880320999999999E-3</v>
+        <v>0.0021880321</v>
       </c>
       <c r="D12" s="8">
-        <v>3.6467219999999998E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0003646722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="13">
-        <v>0.11122496900000001</v>
+      <c r="B13" s="12">
+        <v>0.111224969</v>
       </c>
       <c r="C13" s="8">
-        <v>5.0689412400000002E-2</v>
+        <v>0.0506894124</v>
       </c>
       <c r="D13" s="8">
-        <v>4.0113923539999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.04011392354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="13">
-        <v>1.7894456620429999</v>
+      <c r="B14" s="12">
+        <v>1.789445662043</v>
       </c>
       <c r="C14" s="8">
-        <v>0.27459804025000001</v>
+        <v>0.27459804025</v>
       </c>
       <c r="D14" s="8">
-        <v>0.96492219722189998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.9649221972219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="13">
-        <v>43.345647092279997</v>
+      <c r="B15" s="12">
+        <v>43.34564709228</v>
       </c>
       <c r="C15" s="8">
         <v>2.812715384419</v>
       </c>
       <c r="D15" s="8">
-        <v>59.832104996299996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59.8321049963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
-      <c r="B16" s="13">
-        <v>923.64861661659995</v>
+      <c r="B16" s="12">
+        <v>923.6486166166</v>
       </c>
       <c r="C16" s="5">
-        <v>14.837046302399999</v>
+        <v>14.8370463024</v>
       </c>
       <c r="D16" s="8">
-        <v>2012.6657890219999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2012.665789022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B17" s="13">
-        <v>3940.7407947659999</v>
+      <c r="B17" s="12">
+        <v>3940.740794766</v>
       </c>
       <c r="C17" s="5">
-        <v>30.047152093764399</v>
+        <v>30.0471520937644</v>
       </c>
       <c r="D17" s="8">
-        <v>8268.4390942999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+        <v>8268.4390943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -14802,23 +15417,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.109375"/>
-    <col min="6" max="7" width="16.33203125"/>
-    <col min="8" max="1025" width="11.33203125"/>
+    <col min="1" max="3" width="22.6641791044776" customWidth="1"/>
+    <col min="4" max="4" width="22.3283582089552" customWidth="1"/>
+    <col min="5" max="5" width="14.1119402985075"/>
+    <col min="6" max="7" width="16.3283582089552"/>
+    <col min="8" max="1025" width="11.3283582089552"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -14832,63 +15448,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>1.71053E-3</v>
+        <v>0.00171053</v>
       </c>
       <c r="C2" s="9">
-        <v>8.5526999999999999E-4</v>
+        <v>0.00085527</v>
       </c>
       <c r="D2" s="7">
-        <v>1.71053E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00171053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>4.447392E-2</v>
+        <v>0.04447392</v>
       </c>
       <c r="C3" s="9">
-        <v>3.5066119999999999E-2</v>
+        <v>0.03506612</v>
       </c>
       <c r="D3" s="7">
-        <v>3.6348869999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03634887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>3.3458074099999999</v>
+        <v>3.34580741</v>
       </c>
       <c r="C4" s="9">
-        <v>3.6994764400000002</v>
+        <v>3.69947644</v>
       </c>
       <c r="D4" s="7">
-        <v>3.2162343500000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.21623435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="5">
-        <v>322.75837531000002</v>
+        <v>322.75837531</v>
       </c>
       <c r="C5" s="6">
-        <v>325.18958158999999</v>
+        <v>325.18958159</v>
       </c>
       <c r="D5" s="10">
-        <v>321.84409400999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>321.84409401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
@@ -14896,13 +15512,13 @@
         <v>32191.3011573</v>
       </c>
       <c r="C6" s="6">
-        <v>32220.119489960001</v>
-      </c>
-      <c r="D6" s="12">
+        <v>32220.11948996</v>
+      </c>
+      <c r="D6" s="11">
         <v>33223.17525</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
@@ -14910,13 +15526,13 @@
         <v>3305599.08683063</v>
       </c>
       <c r="C7" s="6">
-        <v>3363985.4728497299</v>
-      </c>
-      <c r="D7" s="12">
-        <v>3142924.2527846401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3363985.47284973</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3142924.25278464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -14930,133 +15546,133 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
-        <v>3.6467229817E-4</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3.6467229817E-4</v>
+      <c r="B11" s="12">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.00036467229817</v>
       </c>
       <c r="D11" s="8">
-        <v>7.2934458999999996E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.00072934459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="13">
-        <v>1.4222209E-2</v>
+      <c r="B12" s="12">
+        <v>0.014222209</v>
       </c>
       <c r="C12" s="8">
-        <v>1.094016894E-2</v>
+        <v>0.01094016894</v>
       </c>
       <c r="D12" s="8">
-        <v>1.2398858138000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.012398858138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
-      <c r="B13" s="13">
-        <v>1.0126942329999999</v>
+      <c r="B13" s="12">
+        <v>1.012694233</v>
       </c>
       <c r="C13" s="8">
-        <v>0.99592004599999995</v>
+        <v>0.995920046</v>
       </c>
       <c r="D13" s="8">
         <v>1.0480681849</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
-      <c r="B14" s="13">
-        <v>96.020334112515002</v>
+      <c r="B14" s="12">
+        <v>96.020334112515</v>
       </c>
       <c r="C14" s="5">
-        <v>93.853886000000003</v>
+        <v>93.853886</v>
       </c>
       <c r="D14" s="5">
-        <v>96.008734630885002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96.008734630885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
-      <c r="B15" s="13">
-        <v>9003.3794157224602</v>
+      <c r="B15" s="12">
+        <v>9003.37941572246</v>
       </c>
       <c r="C15" s="5">
-        <v>9437.8098802853001</v>
-      </c>
-      <c r="D15" s="14">
-        <v>11075.361353780199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9437.8098802853</v>
+      </c>
+      <c r="D15" s="13">
+        <v>11075.3613537802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
-      <c r="B16" s="15">
-        <v>224160.39771131001</v>
+      <c r="B16" s="14">
+        <v>224160.39771131</v>
       </c>
       <c r="C16" s="5">
         <v>226727.231519333</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>240086.623829858</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
-      <c r="B17" s="15">
-        <v>903981.37582105899</v>
+      <c r="B17" s="14">
+        <v>903981.375821059</v>
       </c>
       <c r="C17" s="5">
-        <v>949199.76092083997</v>
-      </c>
-      <c r="D17" s="16">
+        <v>949199.76092084</v>
+      </c>
+      <c r="D17" s="15">
         <v>1004123.06668981</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
@@ -15067,21 +15683,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.4402985074627" customWidth="1"/>
+    <col min="2" max="2" width="18.5522388059701" customWidth="1"/>
+    <col min="3" max="4" width="18.1119402985075" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -15095,68 +15712,68 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>1.026321E-2</v>
+        <v>0.01026321</v>
       </c>
       <c r="C2" s="9">
-        <v>1.282902E-2</v>
+        <v>0.01282902</v>
       </c>
       <c r="D2" s="7">
-        <v>1.197379E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01197379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="8">
-        <v>7.2270119999999993E-2</v>
+        <v>0.07227012</v>
       </c>
       <c r="C3" s="9">
-        <v>8.7237339999999997E-2</v>
+        <v>0.08723734</v>
       </c>
       <c r="D3" s="7">
-        <v>5.815845E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.05815845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="8">
-        <v>0.63802972999999996</v>
+        <v>0.63802973</v>
       </c>
       <c r="C4" s="9">
         <v>0.53710837</v>
       </c>
       <c r="D4" s="7">
-        <v>0.74194793999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.74194794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
       <c r="B5" s="8">
-        <v>8.3790580800000001</v>
+        <v>8.37905808</v>
       </c>
       <c r="C5" s="6">
-        <v>6.9097080999999996</v>
+        <v>6.9097081</v>
       </c>
       <c r="D5" s="7">
-        <v>6.9024678399999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.90246784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
       <c r="B6" s="8">
-        <v>83.843607449999993</v>
+        <v>83.84360745</v>
       </c>
       <c r="C6" s="9">
         <v>63.42751114</v>
@@ -15165,7 +15782,7 @@
         <v>59.47728377</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1000000</v>
       </c>
@@ -15173,13 +15790,13 @@
         <v>836.49889306</v>
       </c>
       <c r="C7" s="6">
-        <v>695.48820413999999</v>
+        <v>695.48820414</v>
       </c>
       <c r="D7" s="10">
-        <v>567.58504284000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>567.58504284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -15193,35 +15810,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="8">
-        <v>3.2820506836146899E-3</v>
+        <v>0.00328205068361469</v>
       </c>
       <c r="C11" s="9">
-        <v>4.3760675781529196E-3</v>
+        <v>0.00437606757815292</v>
       </c>
       <c r="D11" s="7">
-        <v>3.6467229817940998E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0036467229817941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>100</v>
       </c>
       <c r="B12" s="8">
-        <v>2.0421633803638602E-2</v>
+        <v>0.0204216338036386</v>
       </c>
       <c r="C12" s="9">
-        <v>2.55270608725587E-2</v>
+        <v>0.0255270608725587</v>
       </c>
       <c r="D12" s="7">
-        <v>1.67749257162528E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0167749257162528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1000</v>
       </c>
@@ -15232,10 +15849,10 @@
         <v>0.246518473569281</v>
       </c>
       <c r="D13" s="7">
-        <v>0.16629056796981001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.16629056796981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10000</v>
       </c>
@@ -15243,46 +15860,46 @@
         <v>2.4535134326943</v>
       </c>
       <c r="C14" s="6">
-        <v>1.8590993761186301</v>
+        <v>1.85909937611863</v>
       </c>
       <c r="D14" s="7">
-        <v>1.8609227376095201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.86092273760952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>100000</v>
       </c>
       <c r="B15" s="8">
-        <v>25.521572174065199</v>
+        <v>25.5215721740652</v>
       </c>
       <c r="C15" s="9">
         <v>17.6720195697742</v>
       </c>
       <c r="D15" s="7">
-        <v>18.095404107960501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.0954041079605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>500000</v>
       </c>
       <c r="B16" s="8">
-        <v>126.48612969925399</v>
+        <v>126.486129699254</v>
       </c>
       <c r="C16" s="9">
-        <v>90.197615774253407</v>
+        <v>90.1976157742534</v>
       </c>
       <c r="D16" s="7">
         <v>89.1094344301452</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>1000000</v>
       </c>
       <c r="B17" s="5">
-        <v>251.97269335822801</v>
+        <v>251.972693358228</v>
       </c>
       <c r="C17" s="6">
         <v>168.835980611103</v>
@@ -15292,8 +15909,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78680555555555598" bottom="0.78680555555555598" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analyze/planilha-tempo-de-execucao.xlsx
+++ b/Analyze/planilha-tempo-de-execucao.xlsx
@@ -73,12 +73,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0000000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00000000"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.000000"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,8 +103,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,15 +155,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,7 +179,37 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -155,45 +224,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -201,45 +231,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +314,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -326,13 +410,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,109 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,37 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,26 +551,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +568,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,6 +604,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -621,160 +630,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -796,16 +790,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2969,7 +2963,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="000,000,000" sourceLinked="1"/>
+        <c:numFmt formatCode="000.000.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5679,7 +5673,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="000,000,000" sourceLinked="1"/>
+        <c:numFmt formatCode="000.000.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11368,15 +11362,16 @@
   <sheetPr/>
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108:K115"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35"/>
   <cols>
     <col min="1" max="1" width="21.6641791044776" customWidth="1"/>
     <col min="2" max="2" width="18.1119402985075" customWidth="1"/>
-    <col min="3" max="4" width="18.4402985074627" customWidth="1"/>
+    <col min="3" max="3" width="21.4925373134328" customWidth="1"/>
+    <col min="4" max="4" width="18.4402985074627" customWidth="1"/>
     <col min="5" max="6" width="18.1119402985075" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="19.4402985074627" customWidth="1"/>
@@ -12996,484 +12991,170 @@
         <v>135.265707529899</v>
       </c>
     </row>
-    <row r="82" spans="3:12">
-      <c r="C82" s="1" t="s">
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1">
         <v>10</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J82" s="1" t="s">
+      <c r="C75" s="1">
+        <v>100</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E75" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F75" s="31">
+        <v>100000</v>
+      </c>
+      <c r="G75" s="1">
+        <v>500000</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L82" s="1" t="s">
+      <c r="B76" s="12">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="C76" s="12">
+        <v>0.014222209</v>
+      </c>
+      <c r="D76" s="12">
+        <v>1.012694233</v>
+      </c>
+      <c r="E76" s="12">
+        <v>96.020334112515</v>
+      </c>
+      <c r="F76" s="12">
+        <v>9003.37941572246</v>
+      </c>
+      <c r="G76" s="14">
+        <v>224160.39771131</v>
+      </c>
+      <c r="H76" s="14">
+        <v>903981.375821059</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="3:12">
-      <c r="C83" s="1">
+      <c r="B77" s="12">
+        <v>0.00072934459635882</v>
+      </c>
+      <c r="C77" s="12">
+        <v>0.00802278470857234</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0.106848905436895</v>
+      </c>
+      <c r="E77" s="12">
+        <v>1.42696166202925</v>
+      </c>
+      <c r="F77" s="12">
+        <v>18.604473067147</v>
+      </c>
+      <c r="G77" s="12">
+        <v>107.423263887622</v>
+      </c>
+      <c r="H77" s="12">
+        <v>259.052800863543</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
         <v>10</v>
       </c>
-      <c r="D83" s="5">
-        <v>0.00036467229817941</v>
-      </c>
-      <c r="E83" s="5">
-        <v>0.00036467229817941</v>
-      </c>
-      <c r="F83" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="G83" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="H83" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="I83" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="J83" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="K83" s="8">
-        <v>0.00437606757815292</v>
-      </c>
-      <c r="L83" s="5">
+      <c r="B82" s="12">
+        <v>0.00036467229817</v>
+      </c>
+      <c r="C82" s="12">
         <v>0.00072934459635882</v>
       </c>
     </row>
-    <row r="84" spans="3:12">
-      <c r="C84" s="1">
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
         <v>100</v>
       </c>
-      <c r="D84" s="8">
-        <v>0.0113048412435617</v>
-      </c>
-      <c r="E84" s="5">
-        <v>0.00036467</v>
-      </c>
-      <c r="F84" s="8">
-        <v>0.00765811</v>
-      </c>
-      <c r="G84" s="8">
-        <v>0.0040113952</v>
-      </c>
-      <c r="H84" s="8">
-        <v>0.000364672</v>
-      </c>
-      <c r="I84" s="8">
-        <v>0.0021880321</v>
-      </c>
-      <c r="J84" s="8">
-        <v>0.01094016894</v>
-      </c>
-      <c r="K84" s="8">
-        <v>0.0255270608725587</v>
-      </c>
-      <c r="L84" s="5">
-        <v>0.00765811826176761</v>
-      </c>
-    </row>
-    <row r="85" spans="3:12">
-      <c r="C85" s="1">
+      <c r="B83" s="12">
+        <v>0.014222209</v>
+      </c>
+      <c r="C83" s="12">
+        <v>0.00802278470857234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
         <v>1000</v>
       </c>
-      <c r="D85" s="8">
-        <v>1.07031319515656</v>
-      </c>
-      <c r="E85" s="8">
-        <v>0.002188033</v>
-      </c>
-      <c r="F85" s="8">
-        <v>0.7917035593</v>
-      </c>
-      <c r="G85" s="8">
-        <v>0.0266210777</v>
-      </c>
-      <c r="H85" s="8">
-        <v>0.002917378385</v>
-      </c>
-      <c r="I85" s="8">
-        <v>0.0506894124</v>
-      </c>
-      <c r="J85" s="8">
-        <v>0.995920046</v>
-      </c>
-      <c r="K85" s="8">
-        <v>0.246518473569281</v>
-      </c>
-      <c r="L85" s="8">
-        <v>0.0897093853521348</v>
-      </c>
-    </row>
-    <row r="86" spans="3:12">
-      <c r="C86" s="1">
+      <c r="B84" s="12">
+        <v>1.012694233</v>
+      </c>
+      <c r="C84" s="12">
+        <v>0.106848905436895</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
         <v>10000</v>
       </c>
-      <c r="D86" s="5">
-        <v>99.283491868537</v>
-      </c>
-      <c r="E86" s="8">
-        <v>0.0207863</v>
-      </c>
-      <c r="F86" s="5">
-        <v>59.3376652998</v>
-      </c>
-      <c r="G86" s="8">
-        <v>0.3650369704</v>
-      </c>
-      <c r="H86" s="5">
-        <v>0.031361817</v>
-      </c>
-      <c r="I86" s="8">
-        <v>0.27459804025</v>
-      </c>
-      <c r="J86" s="5">
-        <v>93.853886</v>
-      </c>
-      <c r="K86" s="5">
-        <v>1.85909937611863</v>
-      </c>
-      <c r="L86" s="8">
-        <v>1.12829609056709</v>
-      </c>
-    </row>
-    <row r="87" spans="3:12">
-      <c r="C87" s="1">
+      <c r="B85" s="12">
+        <v>96.020334112515</v>
+      </c>
+      <c r="C85" s="12">
+        <v>1.42696166202925</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="31">
         <v>100000</v>
       </c>
-      <c r="D87" s="5">
-        <v>9664.62109818</v>
-      </c>
-      <c r="E87" s="5">
-        <v>0.20749853766</v>
-      </c>
-      <c r="F87" s="5">
-        <v>11124.6650484941</v>
-      </c>
-      <c r="G87" s="8">
-        <v>4.1280904153</v>
-      </c>
-      <c r="H87" s="5">
-        <v>0.3066894</v>
-      </c>
-      <c r="I87" s="8">
-        <v>2.812715384419</v>
-      </c>
-      <c r="J87" s="5">
-        <v>9437.8098802853</v>
-      </c>
-      <c r="K87" s="8">
-        <v>17.6720195697742</v>
-      </c>
-      <c r="L87" s="8">
-        <v>12.5870290439605</v>
-      </c>
-    </row>
-    <row r="88" spans="3:12">
-      <c r="C88" s="1">
+      <c r="B86" s="12">
+        <v>9003.37941572246</v>
+      </c>
+      <c r="C86" s="12">
+        <v>18.604473067147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
         <v>500000</v>
       </c>
-      <c r="D88" s="8">
-        <v>245270.455365966</v>
-      </c>
-      <c r="E88" s="8">
-        <v>1.01707029</v>
-      </c>
-      <c r="F88" s="8">
-        <v>140101.38903577</v>
-      </c>
-      <c r="G88" s="8">
-        <v>24.222610395</v>
-      </c>
-      <c r="H88" s="8">
-        <v>1.527611142</v>
-      </c>
-      <c r="I88" s="5">
-        <v>14.8370463024</v>
-      </c>
-      <c r="J88" s="5">
-        <v>226727.231519333</v>
-      </c>
-      <c r="K88" s="5">
-        <v>90.1976157742534</v>
-      </c>
-      <c r="L88" s="5">
-        <v>69.4492358297565</v>
-      </c>
-    </row>
-    <row r="89" spans="3:12">
-      <c r="C89" s="1">
+      <c r="B87" s="14">
+        <v>224160.39771131</v>
+      </c>
+      <c r="C87" s="12">
+        <v>107.423263887622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
         <v>1000000</v>
       </c>
-      <c r="D89" s="8">
-        <v>967866.559841994</v>
-      </c>
-      <c r="E89" s="8">
-        <v>2.146461147</v>
-      </c>
-      <c r="F89" s="8">
-        <v>1193754.9044777</v>
-      </c>
-      <c r="G89" s="8">
-        <v>44.254806745562</v>
-      </c>
-      <c r="H89" s="8">
-        <v>3.35206776486</v>
-      </c>
-      <c r="I89" s="5">
-        <v>30.0471520937644</v>
-      </c>
-      <c r="J89" s="5">
-        <v>949199.76092084</v>
-      </c>
-      <c r="K89" s="5">
-        <v>168.835980611103</v>
-      </c>
-      <c r="L89" s="5">
-        <v>134.479474055024</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11">
-      <c r="B108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" s="1">
-        <v>10</v>
-      </c>
-      <c r="C109" s="8">
-        <v>0.00072934459</v>
-      </c>
-      <c r="D109" s="8">
-        <v>0.0003646722</v>
-      </c>
-      <c r="E109" s="8">
-        <v>0.00072934459</v>
-      </c>
-      <c r="F109" s="8">
-        <v>0.00072934459</v>
-      </c>
-      <c r="G109" s="8">
-        <v>0.0003646722</v>
-      </c>
-      <c r="H109" s="8">
-        <v>0.0003646722</v>
-      </c>
-      <c r="I109" s="8">
-        <v>0.00072934459</v>
-      </c>
-      <c r="J109" s="8">
-        <v>0.0036467229817941</v>
-      </c>
-      <c r="K109" s="8">
-        <v>0.00072934459635882</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="1">
-        <v>100</v>
-      </c>
-      <c r="C110" s="8">
-        <v>0.027350422</v>
-      </c>
-      <c r="D110" s="8">
-        <v>0.0361025575</v>
-      </c>
-      <c r="E110" s="8">
-        <v>0.0145868919</v>
-      </c>
-      <c r="F110" s="8">
-        <v>0.00437606</v>
-      </c>
-      <c r="G110" s="8">
-        <v>0.0131282027</v>
-      </c>
-      <c r="H110" s="8">
-        <v>0.0003646722</v>
-      </c>
-      <c r="I110" s="8">
-        <v>0.012398858138</v>
-      </c>
-      <c r="J110" s="8">
-        <v>0.0167749257162528</v>
-      </c>
-      <c r="K110" s="8">
-        <v>0.00692877366540879</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11">
-      <c r="B111" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C111" s="5">
-        <v>2.47904228302</v>
-      </c>
-      <c r="D111" s="8">
-        <v>3.16243816</v>
-      </c>
-      <c r="E111" s="8">
-        <v>1.22931031</v>
-      </c>
-      <c r="F111" s="8">
-        <v>0.02880911155</v>
-      </c>
-      <c r="G111" s="8">
-        <v>1.1811735738</v>
-      </c>
-      <c r="H111" s="8">
-        <v>0.04011392354</v>
-      </c>
-      <c r="I111" s="8">
-        <v>1.0480681849</v>
-      </c>
-      <c r="J111" s="8">
-        <v>0.16629056796981</v>
-      </c>
-      <c r="K111" s="8">
-        <v>0.0867920069666995</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C112" s="8">
-        <v>249.61381203622</v>
-      </c>
-      <c r="D112" s="5">
-        <v>243.53071343</v>
-      </c>
-      <c r="E112" s="5">
-        <v>118.001391589</v>
-      </c>
-      <c r="F112" s="8">
-        <v>0.34935606</v>
-      </c>
-      <c r="G112" s="5">
-        <v>115.4023721</v>
-      </c>
-      <c r="H112" s="8">
-        <v>0.9649221972219</v>
-      </c>
-      <c r="I112" s="5">
-        <v>96.008734630885</v>
-      </c>
-      <c r="J112" s="8">
-        <v>1.86092273760952</v>
-      </c>
-      <c r="K112" s="8">
-        <v>1.18518496908308</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11">
-      <c r="B113" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C113" s="8">
-        <v>25154.97916262</v>
-      </c>
-      <c r="D113" s="5">
-        <v>23950.1095475583</v>
-      </c>
-      <c r="E113" s="5">
-        <v>11270.58101049</v>
-      </c>
-      <c r="F113" s="8">
-        <v>4.2743240069</v>
-      </c>
-      <c r="G113" s="5">
-        <v>11766.56925054</v>
-      </c>
-      <c r="H113" s="8">
-        <v>59.8321049963</v>
-      </c>
-      <c r="I113" s="13">
-        <v>11075.3613537802</v>
-      </c>
-      <c r="J113" s="8">
-        <v>18.0954041079605</v>
-      </c>
-      <c r="K113" s="8">
-        <v>12.6001572466949</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11">
-      <c r="B114" s="1">
-        <v>500000</v>
-      </c>
-      <c r="C114" s="8">
-        <v>597291.35909619</v>
-      </c>
-      <c r="D114" s="8">
-        <v>612276.407178204</v>
-      </c>
-      <c r="E114" s="8">
-        <v>180329.1850674</v>
-      </c>
-      <c r="F114" s="5">
-        <v>23.9582231</v>
-      </c>
-      <c r="G114" s="5">
-        <v>279936.685641768</v>
-      </c>
-      <c r="H114" s="8">
-        <v>2012.665789022</v>
-      </c>
-      <c r="I114" s="15">
-        <v>240086.623829858</v>
-      </c>
-      <c r="J114" s="5">
-        <v>89.1094344301452</v>
-      </c>
-      <c r="K114" s="5">
-        <v>69.9878564213274</v>
+      <c r="B88" s="14">
+        <v>903981.375821059</v>
+      </c>
+      <c r="C88" s="12">
+        <v>259.052800863543</v>
       </c>
     </row>
     <row r="115" spans="2:11">
